--- a/archived/henschel/zcatoggleTest/ZCACost.xlsx
+++ b/archived/henschel/zcatoggleTest/ZCACost.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
   <si>
     <t>Machine</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>(4 jumps)</t>
   </si>
+  <si>
+    <t>This means that adding a __notify_intrinsic makes the function call faster!!</t>
+  </si>
+  <si>
+    <t>Again, this means that adding a __notify_intrinsic makes it faster!!</t>
+  </si>
 </sst>
 </file>
 
@@ -307,17 +313,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,100 +487,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.9750479871999982</c:v>
+                  <c:v>7.0438854758399998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2032081408000002</c:v>
+                  <c:v>3.6263145369599998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8794647551999999</c:v>
+                  <c:v>2.4445137408000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1395327590400002</c:v>
+                  <c:v>1.8813197107200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0657764966400003</c:v>
+                  <c:v>1.5344168755200001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7148036915200002</c:v>
+                  <c:v>1.31551746048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6614641561600001</c:v>
+                  <c:v>1.03080109056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5429191168000003</c:v>
+                  <c:v>0.94278082560000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5590461337599999</c:v>
+                  <c:v>0.91815081983999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6197804031999996</c:v>
+                  <c:v>0.74135553023999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6780879769599997</c:v>
+                  <c:v>0.66885083136000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5305276825599998</c:v>
+                  <c:v>0.77067651071999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.99704559616</c:v>
+                  <c:v>0.57784974336000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8743923712000004</c:v>
+                  <c:v>0.50985449472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1777293311999997</c:v>
+                  <c:v>0.50408392703999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8603576627200002</c:v>
+                  <c:v>0.44092296192000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7547001139199998</c:v>
+                  <c:v>0.44890048511999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9230203289599999</c:v>
+                  <c:v>0.53496219647999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1955179827200002</c:v>
+                  <c:v>0.49076576256000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0518652415999998</c:v>
+                  <c:v>0.35735482367999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0910833356799996</c:v>
+                  <c:v>0.39912456192000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9511287091200002</c:v>
+                  <c:v>0.42828312576000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2210078412800005</c:v>
+                  <c:v>0.36365085695999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2543701299199999</c:v>
+                  <c:v>0.38273003519999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3145017548800002</c:v>
+                  <c:v>0.28350302208</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9555029094399998</c:v>
+                  <c:v>0.34147620864</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0685368320000004</c:v>
+                  <c:v>0.332476416</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0702175744</c:v>
+                  <c:v>0.26903838720000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.2250858700799991</c:v>
+                  <c:v>0.37441812480000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.6872383897600001</c:v>
+                  <c:v>0.23795948544000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.5786874982399999</c:v>
+                  <c:v>0.32016141312000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7989340159999996</c:v>
+                  <c:v>0.29106017280000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,100 +716,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.9567140147200011</c:v>
+                  <c:v>8.0472477081600005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2362169343999998</c:v>
+                  <c:v>4.1346690662399999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8707229183999998</c:v>
+                  <c:v>2.8025946623999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3248310374400005</c:v>
+                  <c:v>2.0942670336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9547886079999999</c:v>
+                  <c:v>1.77434446848</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8009704960000001</c:v>
+                  <c:v>1.4814499430399999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6293247692799997</c:v>
+                  <c:v>1.2272965631999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6846515200000001</c:v>
+                  <c:v>1.04250464256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6934220185600002</c:v>
+                  <c:v>0.97875133440000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2530524364799995</c:v>
+                  <c:v>0.92357744640000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5767113318399999</c:v>
+                  <c:v>0.78326857727999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8383072153600004</c:v>
+                  <c:v>0.71685927936000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8479471206399998</c:v>
+                  <c:v>0.62229457919999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8646473727999995</c:v>
+                  <c:v>0.69357637632000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8240145510400003</c:v>
+                  <c:v>0.54250023936000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8576921190400002</c:v>
+                  <c:v>0.61746029568000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8008168857600007</c:v>
+                  <c:v>0.74539683840000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7191117619199998</c:v>
+                  <c:v>0.62851418112000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0022995046399998</c:v>
+                  <c:v>0.53193360383999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9651729715199999</c:v>
+                  <c:v>0.40388241408000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1920308019200005</c:v>
+                  <c:v>0.40068185088000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8985240780800003</c:v>
+                  <c:v>0.47524064256000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4001725030400003</c:v>
+                  <c:v>0.40255441920000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1267393126399998</c:v>
+                  <c:v>0.39132856319999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2786172313600002</c:v>
+                  <c:v>0.38041798656000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5302865920000004</c:v>
+                  <c:v>0.37037681664000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3818664448</c:v>
+                  <c:v>0.29943896063999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.8609859788800005</c:v>
+                  <c:v>0.41058926592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6439297228800003</c:v>
+                  <c:v>0.39187313664000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9960100351999994</c:v>
+                  <c:v>0.26961162240000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4806062079999993</c:v>
+                  <c:v>0.35434533888000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4907612774400008</c:v>
+                  <c:v>0.26797790208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,100 +945,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>28.359837020159993</c:v>
+                  <c:v>27.552005314559999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.093483448320001</c:v>
+                  <c:v>13.844814766080001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.367761121280001</c:v>
+                  <c:v>9.2944641945600015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1991836979200006</c:v>
+                  <c:v>7.0587704832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9273754214399998</c:v>
+                  <c:v>5.7096423321599996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9977025740799998</c:v>
+                  <c:v>4.7510593228799998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4878194175999999</c:v>
+                  <c:v>4.1624614195199996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0304159436799996</c:v>
+                  <c:v>3.6403779072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8317517311999998</c:v>
+                  <c:v>3.2934273024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8174208512000005</c:v>
+                  <c:v>2.96617688064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3718069145599996</c:v>
+                  <c:v>2.8186930175999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3279735295999995</c:v>
+                  <c:v>2.4611757772799998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2955570790399999</c:v>
+                  <c:v>2.2988260147200004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1060264140800005</c:v>
+                  <c:v>2.2848677375999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2693793382400003</c:v>
+                  <c:v>2.0693981798399999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2335425843200003</c:v>
+                  <c:v>2.0089696358399998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9803820646399997</c:v>
+                  <c:v>1.9168794009599999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1427318272000004</c:v>
+                  <c:v>1.77078085632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4028843212800002</c:v>
+                  <c:v>1.69547685888</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9174599475200003</c:v>
+                  <c:v>1.7255334911999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8657056153600005</c:v>
+                  <c:v>1.5124810752000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2006373887999997</c:v>
+                  <c:v>1.4811537715200001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.7642231296000004</c:v>
+                  <c:v>1.3640991436800001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.6877057843199994</c:v>
+                  <c:v>1.41693232128</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6870473113599997</c:v>
+                  <c:v>1.3663920844799999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2106785587199997</c:v>
+                  <c:v>1.2499489075200001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9959821209599991</c:v>
+                  <c:v>1.1523938304000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.2028347904000007</c:v>
+                  <c:v>1.1441296896000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0998435327999996</c:v>
+                  <c:v>1.0802139648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9871439974400005</c:v>
+                  <c:v>1.04527527936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.45183860736</c:v>
+                  <c:v>1.0509120921600001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.2178248908800002</c:v>
+                  <c:v>0.99612991488000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,100 +1174,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>9.107388887039999</c:v>
+                  <c:v>8.0511648153599999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1839474380799997</c:v>
+                  <c:v>4.1151121919999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9331004620800001</c:v>
+                  <c:v>2.7314848358400003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4036890931199997</c:v>
+                  <c:v>2.11959447552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0707063193600002</c:v>
+                  <c:v>1.7295747993599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8426638028799998</c:v>
+                  <c:v>1.44709404672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.75524543488</c:v>
+                  <c:v>1.1897401036799999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5942523289600006</c:v>
+                  <c:v>1.1187926937600001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7802958131199995</c:v>
+                  <c:v>1.0365812121600002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4440455987199998</c:v>
+                  <c:v>0.81414684672000015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6271846912000001</c:v>
+                  <c:v>0.75434886143999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9048024985599996</c:v>
+                  <c:v>0.74854007808000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.92267788288</c:v>
+                  <c:v>0.66483818496000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1057309900800001</c:v>
+                  <c:v>0.58688775168000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.98834197504</c:v>
+                  <c:v>0.53974871039999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8774591795199997</c:v>
+                  <c:v>0.50921438208000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4461753753600006</c:v>
+                  <c:v>0.50786727935999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4124978073599999</c:v>
+                  <c:v>0.46528545791999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9119098675199999</c:v>
+                  <c:v>0.43569696768000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6041964646399993</c:v>
+                  <c:v>0.46924078079999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3812748492799996</c:v>
+                  <c:v>0.5472963072</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.32016722944</c:v>
+                  <c:v>0.41019755520000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1239591219200005</c:v>
+                  <c:v>0.44766802943999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0164584140800006</c:v>
+                  <c:v>0.34464811007999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.2806243020800006</c:v>
+                  <c:v>0.35854906368</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.2912379596800001</c:v>
+                  <c:v>0.31203102720000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1776131891199997</c:v>
+                  <c:v>0.30109178880000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0140493312000007</c:v>
+                  <c:v>0.33981382656000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.8720104550399999</c:v>
+                  <c:v>0.37705500671999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9695853875199996</c:v>
+                  <c:v>0.29277032448000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.3387106406400004</c:v>
+                  <c:v>0.33760687104000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.5436429721599998</c:v>
+                  <c:v>0.25847175167999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,100 +1403,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.0940332543999993</c:v>
+                  <c:v>7.0239464448000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6705484390400001</c:v>
+                  <c:v>3.52097301504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5205335347199997</c:v>
+                  <c:v>2.4375584870399996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9953736601600003</c:v>
+                  <c:v>1.8844820582400001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.76369110016</c:v>
+                  <c:v>1.4376356659199998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7594396057599999</c:v>
+                  <c:v>1.2464044031999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6010642739200001</c:v>
+                  <c:v>1.1342413824000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3542769664000001</c:v>
+                  <c:v>0.92361566208000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5104931123199998</c:v>
+                  <c:v>0.80338913280000013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5292474572799999</c:v>
+                  <c:v>0.74123132928000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7048485068799999</c:v>
+                  <c:v>0.69122611200000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3791259648</c:v>
+                  <c:v>0.59829513215999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2232824217599996</c:v>
+                  <c:v>0.61455590400000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7274530815999998</c:v>
+                  <c:v>0.55460505599999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8538992128</c:v>
+                  <c:v>0.4754508288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1554878054400004</c:v>
+                  <c:v>0.44302923069999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4857954816000003</c:v>
+                  <c:v>0.46203712512</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1092078694400005</c:v>
+                  <c:v>0.4401586483199999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5190232678399997</c:v>
+                  <c:v>0.38182241279999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7240702463999993</c:v>
+                  <c:v>0.35874969600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4407090380799996</c:v>
+                  <c:v>0.47131398143999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7961068031999998</c:v>
+                  <c:v>0.33796991999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8381241958400008</c:v>
+                  <c:v>0.36219866111999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2248095539200001</c:v>
+                  <c:v>0.33828519936000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5918719078399999</c:v>
+                  <c:v>0.37759002623999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6920160972800007</c:v>
+                  <c:v>0.2719045632</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.9622487244800002</c:v>
+                  <c:v>0.26301941760000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7375684403199996</c:v>
+                  <c:v>0.25449732096</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.4729924812800004</c:v>
+                  <c:v>0.30703432703999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.4505774899199988</c:v>
+                  <c:v>0.27742672895999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.275626106879999</c:v>
+                  <c:v>0.29075444736</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.8784792063999998</c:v>
+                  <c:v>0.22171782144000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,100 +1632,100 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>22.96476705792</c:v>
+                  <c:v>22.132658841600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.340722032639999</c:v>
+                  <c:v>11.177541826560001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5941236428800014</c:v>
+                  <c:v>7.5815036620800003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7886142873599997</c:v>
+                  <c:v>5.6651974963200002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7729848217599997</c:v>
+                  <c:v>4.6133395660799996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1830207078399999</c:v>
+                  <c:v>3.8151095500800003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8747443712000003</c:v>
+                  <c:v>3.3344804966399999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4224140287999996</c:v>
+                  <c:v>3.0144146227199999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1894512435199998</c:v>
+                  <c:v>2.6573273088000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0939789209599997</c:v>
+                  <c:v>2.4125749862400001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9571667865599998</c:v>
+                  <c:v>2.2236557721599999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8872320921600001</c:v>
+                  <c:v>2.0228992511999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8060906496000002</c:v>
+                  <c:v>1.9129336320000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9777077145600002</c:v>
+                  <c:v>1.81255059456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8120618496000005</c:v>
+                  <c:v>1.63995902976</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.301891328</c:v>
+                  <c:v>1.59659378688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5166825574400002</c:v>
+                  <c:v>1.5181656576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4608303411200003</c:v>
+                  <c:v>1.37709247488</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5347872358400005</c:v>
+                  <c:v>1.37234417664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6629912883199998</c:v>
+                  <c:v>1.2106822963200001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3746723430399994</c:v>
+                  <c:v>1.15721856</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2689295564799998</c:v>
+                  <c:v>1.2002685235200001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7903641497599994</c:v>
+                  <c:v>1.079831808</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.15088132096</c:v>
+                  <c:v>1.2064594636800001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0665672294400013</c:v>
+                  <c:v>0.90946630656000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.6170170777599999</c:v>
+                  <c:v>1.0286227967999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.822979737599999</c:v>
+                  <c:v>0.88596366335999988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0908341862400004</c:v>
+                  <c:v>0.94337316863999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4986535628800004</c:v>
+                  <c:v>0.95044306944000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6936674303999997</c:v>
+                  <c:v>0.79272695808000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5677857279999996</c:v>
+                  <c:v>0.90211934208000011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4811022643200005</c:v>
+                  <c:v>0.72761699328000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,11 +1742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118416896"/>
-        <c:axId val="118418432"/>
+        <c:axId val="119334400"/>
+        <c:axId val="119336320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118416896"/>
+        <c:axId val="119334400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118418432"/>
+        <c:crossAx val="119336320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,7 +1783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118418432"/>
+        <c:axId val="119336320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118416896"/>
+        <c:crossAx val="119334400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,7 +1865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2139,11 +2144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118632448"/>
-        <c:axId val="118634368"/>
+        <c:axId val="85213952"/>
+        <c:axId val="85215872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118632448"/>
+        <c:axId val="85213952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,13 +2170,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118634368"/>
+        <c:crossAx val="85215872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118634368"/>
+        <c:axId val="85215872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,21 +2206,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118632448"/>
+        <c:crossAx val="85213952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2591,7 +2593,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,135 +2739,135 @@
       </c>
       <c r="B2" s="10">
         <f>EmptyFunction!B18</f>
-        <v>11.093572423679998</v>
+        <v>12.039353180160001</v>
       </c>
       <c r="C2" s="10">
         <f>EmptyFunction!C18</f>
-        <v>8.9750479871999982</v>
+        <v>7.0438854758399998</v>
       </c>
       <c r="D2" s="10">
         <f>EmptyFunction!D18</f>
-        <v>5.2032081408000002</v>
+        <v>3.6263145369599998</v>
       </c>
       <c r="E2" s="10">
         <f>EmptyFunction!E18</f>
-        <v>3.8794647551999999</v>
+        <v>2.4445137408000006</v>
       </c>
       <c r="F2" s="10">
         <f>EmptyFunction!F18</f>
-        <v>3.1395327590400002</v>
+        <v>1.8813197107200001</v>
       </c>
       <c r="G2" s="10">
         <f>EmptyFunction!G18</f>
-        <v>3.0657764966400003</v>
+        <v>1.5344168755200001</v>
       </c>
       <c r="H2" s="10">
         <f>EmptyFunction!H18</f>
-        <v>2.7148036915200002</v>
+        <v>1.31551746048</v>
       </c>
       <c r="I2" s="10">
         <f>EmptyFunction!I18</f>
-        <v>2.6614641561600001</v>
+        <v>1.03080109056</v>
       </c>
       <c r="J2" s="10">
         <f>EmptyFunction!J18</f>
-        <v>2.5429191168000003</v>
+        <v>0.94278082560000009</v>
       </c>
       <c r="K2" s="10">
         <f>EmptyFunction!K18</f>
-        <v>2.5590461337599999</v>
+        <v>0.91815081983999991</v>
       </c>
       <c r="L2" s="10">
         <f>EmptyFunction!L18</f>
-        <v>2.6197804031999996</v>
+        <v>0.74135553023999989</v>
       </c>
       <c r="M2" s="10">
         <f>EmptyFunction!M18</f>
-        <v>2.6780879769599997</v>
+        <v>0.66885083136000001</v>
       </c>
       <c r="N2" s="10">
         <f>EmptyFunction!N18</f>
-        <v>2.5305276825599998</v>
+        <v>0.77067651071999987</v>
       </c>
       <c r="O2" s="10">
         <f>EmptyFunction!O18</f>
-        <v>2.99704559616</v>
+        <v>0.57784974336000006</v>
       </c>
       <c r="P2" s="10">
         <f>EmptyFunction!P18</f>
-        <v>2.8743923712000004</v>
+        <v>0.50985449472</v>
       </c>
       <c r="Q2" s="10">
         <f>EmptyFunction!Q18</f>
-        <v>3.1777293311999997</v>
+        <v>0.50408392703999994</v>
       </c>
       <c r="R2" s="10">
         <f>EmptyFunction!R18</f>
-        <v>2.8603576627200002</v>
+        <v>0.44092296192000002</v>
       </c>
       <c r="S2" s="10">
         <f>EmptyFunction!S18</f>
-        <v>3.7547001139199998</v>
+        <v>0.44890048511999997</v>
       </c>
       <c r="T2" s="10">
         <f>EmptyFunction!T18</f>
-        <v>4.9230203289599999</v>
+        <v>0.53496219647999987</v>
       </c>
       <c r="U2" s="10">
         <f>EmptyFunction!U18</f>
-        <v>4.1955179827200002</v>
+        <v>0.49076576256000004</v>
       </c>
       <c r="V2" s="10">
         <f>EmptyFunction!V18</f>
-        <v>4.0518652415999998</v>
+        <v>0.35735482367999999</v>
       </c>
       <c r="W2" s="10">
         <f>EmptyFunction!W18</f>
-        <v>5.0910833356799996</v>
+        <v>0.39912456192000001</v>
       </c>
       <c r="X2" s="10">
         <f>EmptyFunction!X18</f>
-        <v>3.9511287091200002</v>
+        <v>0.42828312576000005</v>
       </c>
       <c r="Y2" s="10">
         <f>EmptyFunction!Y18</f>
-        <v>4.2210078412800005</v>
+        <v>0.36365085695999999</v>
       </c>
       <c r="Z2" s="10">
         <f>EmptyFunction!Z18</f>
-        <v>4.2543701299199999</v>
+        <v>0.38273003519999999</v>
       </c>
       <c r="AA2" s="10">
         <f>EmptyFunction!AA18</f>
-        <v>5.3145017548800002</v>
+        <v>0.28350302208</v>
       </c>
       <c r="AB2" s="10">
         <f>EmptyFunction!AB18</f>
-        <v>5.9555029094399998</v>
+        <v>0.34147620864</v>
       </c>
       <c r="AC2" s="10">
         <f>EmptyFunction!AC18</f>
-        <v>4.0685368320000004</v>
+        <v>0.332476416</v>
       </c>
       <c r="AD2" s="10">
         <f>EmptyFunction!AD18</f>
-        <v>5.0702175744</v>
+        <v>0.26903838720000001</v>
       </c>
       <c r="AE2" s="10">
         <f>EmptyFunction!AE18</f>
-        <v>6.2250858700799991</v>
+        <v>0.37441812480000003</v>
       </c>
       <c r="AF2" s="10">
         <f>EmptyFunction!AF18</f>
-        <v>5.6872383897600001</v>
+        <v>0.23795948544000001</v>
       </c>
       <c r="AG2" s="10">
         <f>EmptyFunction!AG18</f>
-        <v>4.5786874982399999</v>
+        <v>0.32016141312000002</v>
       </c>
       <c r="AH2" s="10">
         <f>EmptyFunction!AH18</f>
-        <v>4.7989340159999996</v>
+        <v>0.29106017280000002</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -2874,135 +2876,135 @@
       </c>
       <c r="B3" s="10">
         <f>EmptyFunctionNotActivatedNotify!B18</f>
-        <v>11.891248312319998</v>
+        <v>11.037146972159999</v>
       </c>
       <c r="C3" s="10">
         <f>EmptyFunctionNotActivatedNotify!C18</f>
-        <v>8.9567140147200011</v>
+        <v>8.0472477081600005</v>
       </c>
       <c r="D3" s="10">
         <f>EmptyFunctionNotActivatedNotify!D18</f>
-        <v>5.2362169343999998</v>
+        <v>4.1346690662399999</v>
       </c>
       <c r="E3" s="10">
         <f>EmptyFunctionNotActivatedNotify!E18</f>
-        <v>3.8707229183999998</v>
+        <v>2.8025946623999998</v>
       </c>
       <c r="F3" s="10">
         <f>EmptyFunctionNotActivatedNotify!F18</f>
-        <v>3.3248310374400005</v>
+        <v>2.0942670336</v>
       </c>
       <c r="G3" s="10">
         <f>EmptyFunctionNotActivatedNotify!G18</f>
-        <v>2.9547886079999999</v>
+        <v>1.77434446848</v>
       </c>
       <c r="H3" s="10">
         <f>EmptyFunctionNotActivatedNotify!H18</f>
-        <v>2.8009704960000001</v>
+        <v>1.4814499430399999</v>
       </c>
       <c r="I3" s="10">
         <f>EmptyFunctionNotActivatedNotify!I18</f>
-        <v>2.6293247692799997</v>
+        <v>1.2272965631999999</v>
       </c>
       <c r="J3" s="10">
         <f>EmptyFunctionNotActivatedNotify!J18</f>
-        <v>2.6846515200000001</v>
+        <v>1.04250464256</v>
       </c>
       <c r="K3" s="10">
         <f>EmptyFunctionNotActivatedNotify!K18</f>
-        <v>2.6934220185600002</v>
+        <v>0.97875133440000006</v>
       </c>
       <c r="L3" s="10">
         <f>EmptyFunctionNotActivatedNotify!L18</f>
-        <v>3.2530524364799995</v>
+        <v>0.92357744640000017</v>
       </c>
       <c r="M3" s="10">
         <f>EmptyFunctionNotActivatedNotify!M18</f>
-        <v>2.5767113318399999</v>
+        <v>0.78326857727999999</v>
       </c>
       <c r="N3" s="10">
         <f>EmptyFunctionNotActivatedNotify!N18</f>
-        <v>2.8383072153600004</v>
+        <v>0.71685927936000005</v>
       </c>
       <c r="O3" s="10">
         <f>EmptyFunctionNotActivatedNotify!O18</f>
-        <v>2.8479471206399998</v>
+        <v>0.62229457919999986</v>
       </c>
       <c r="P3" s="10">
         <f>EmptyFunctionNotActivatedNotify!P18</f>
-        <v>2.8646473727999995</v>
+        <v>0.69357637632000002</v>
       </c>
       <c r="Q3" s="10">
         <f>EmptyFunctionNotActivatedNotify!Q18</f>
-        <v>2.8240145510400003</v>
+        <v>0.54250023936000003</v>
       </c>
       <c r="R3" s="10">
         <f>EmptyFunctionNotActivatedNotify!R18</f>
-        <v>2.8576921190400002</v>
+        <v>0.61746029568000005</v>
       </c>
       <c r="S3" s="10">
         <f>EmptyFunctionNotActivatedNotify!S18</f>
-        <v>3.8008168857600007</v>
+        <v>0.74539683840000004</v>
       </c>
       <c r="T3" s="10">
         <f>EmptyFunctionNotActivatedNotify!T18</f>
-        <v>3.7191117619199998</v>
+        <v>0.62851418112000002</v>
       </c>
       <c r="U3" s="10">
         <f>EmptyFunctionNotActivatedNotify!U18</f>
-        <v>4.0022995046399998</v>
+        <v>0.53193360383999999</v>
       </c>
       <c r="V3" s="10">
         <f>EmptyFunctionNotActivatedNotify!V18</f>
-        <v>3.9651729715199999</v>
+        <v>0.40388241408000003</v>
       </c>
       <c r="W3" s="10">
         <f>EmptyFunctionNotActivatedNotify!W18</f>
-        <v>4.1920308019200005</v>
+        <v>0.40068185088000002</v>
       </c>
       <c r="X3" s="10">
         <f>EmptyFunctionNotActivatedNotify!X18</f>
-        <v>4.8985240780800003</v>
+        <v>0.47524064256000004</v>
       </c>
       <c r="Y3" s="10">
         <f>EmptyFunctionNotActivatedNotify!Y18</f>
-        <v>4.4001725030400003</v>
+        <v>0.40255441920000001</v>
       </c>
       <c r="Z3" s="10">
         <f>EmptyFunctionNotActivatedNotify!Z18</f>
-        <v>4.1267393126399998</v>
+        <v>0.39132856319999998</v>
       </c>
       <c r="AA3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AA18</f>
-        <v>5.2786172313600002</v>
+        <v>0.38041798656000003</v>
       </c>
       <c r="AB3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AB18</f>
-        <v>5.5302865920000004</v>
+        <v>0.37037681664000005</v>
       </c>
       <c r="AC3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AC18</f>
-        <v>5.3818664448</v>
+        <v>0.29943896063999997</v>
       </c>
       <c r="AD3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AD18</f>
-        <v>5.8609859788800005</v>
+        <v>0.41058926592</v>
       </c>
       <c r="AE3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AE18</f>
-        <v>6.6439297228800003</v>
+        <v>0.39187313664000001</v>
       </c>
       <c r="AF3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AF18</f>
-        <v>7.9960100351999994</v>
+        <v>0.26961162240000003</v>
       </c>
       <c r="AG3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AG18</f>
-        <v>5.4806062079999993</v>
+        <v>0.35434533888000003</v>
       </c>
       <c r="AH3" s="10">
         <f>EmptyFunctionNotActivatedNotify!AH18</f>
-        <v>6.4907612774400008</v>
+        <v>0.26797790208</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -3011,135 +3013,135 @@
       </c>
       <c r="B4" s="10">
         <f>EmptyFunctionActivatedNotify!B18</f>
-        <v>27.556753612800001</v>
+        <v>27.414715484160002</v>
       </c>
       <c r="C4" s="10">
         <f>EmptyFunctionActivatedNotify!C18</f>
-        <v>28.359837020159993</v>
+        <v>27.552005314559999</v>
       </c>
       <c r="D4" s="10">
         <f>EmptyFunctionActivatedNotify!D18</f>
-        <v>15.093483448320001</v>
+        <v>13.844814766080001</v>
       </c>
       <c r="E4" s="10">
         <f>EmptyFunctionActivatedNotify!E18</f>
-        <v>10.367761121280001</v>
+        <v>9.2944641945600015</v>
       </c>
       <c r="F4" s="10">
         <f>EmptyFunctionActivatedNotify!F18</f>
-        <v>8.1991836979200006</v>
+        <v>7.0587704832</v>
       </c>
       <c r="G4" s="10">
         <f>EmptyFunctionActivatedNotify!G18</f>
-        <v>6.9273754214399998</v>
+        <v>5.7096423321599996</v>
       </c>
       <c r="H4" s="10">
         <f>EmptyFunctionActivatedNotify!H18</f>
-        <v>5.9977025740799998</v>
+        <v>4.7510593228799998</v>
       </c>
       <c r="I4" s="10">
         <f>EmptyFunctionActivatedNotify!I18</f>
-        <v>5.4878194175999999</v>
+        <v>4.1624614195199996</v>
       </c>
       <c r="J4" s="10">
         <f>EmptyFunctionActivatedNotify!J18</f>
-        <v>5.0304159436799996</v>
+        <v>3.6403779072</v>
       </c>
       <c r="K4" s="10">
         <f>EmptyFunctionActivatedNotify!K18</f>
-        <v>4.8317517311999998</v>
+        <v>3.2934273024</v>
       </c>
       <c r="L4" s="10">
         <f>EmptyFunctionActivatedNotify!L18</f>
-        <v>4.8174208512000005</v>
+        <v>2.96617688064</v>
       </c>
       <c r="M4" s="10">
         <f>EmptyFunctionActivatedNotify!M18</f>
-        <v>4.3718069145599996</v>
+        <v>2.8186930175999998</v>
       </c>
       <c r="N4" s="10">
         <f>EmptyFunctionActivatedNotify!N18</f>
-        <v>4.3279735295999995</v>
+        <v>2.4611757772799998</v>
       </c>
       <c r="O4" s="10">
         <f>EmptyFunctionActivatedNotify!O18</f>
-        <v>4.2955570790399999</v>
+        <v>2.2988260147200004</v>
       </c>
       <c r="P4" s="10">
         <f>EmptyFunctionActivatedNotify!P18</f>
-        <v>4.1060264140800005</v>
+        <v>2.2848677375999999</v>
       </c>
       <c r="Q4" s="10">
         <f>EmptyFunctionActivatedNotify!Q18</f>
-        <v>4.2693793382400003</v>
+        <v>2.0693981798399999</v>
       </c>
       <c r="R4" s="10">
         <f>EmptyFunctionActivatedNotify!R18</f>
-        <v>4.2335425843200003</v>
+        <v>2.0089696358399998</v>
       </c>
       <c r="S4" s="10">
         <f>EmptyFunctionActivatedNotify!S18</f>
-        <v>4.9803820646399997</v>
+        <v>1.9168794009599999</v>
       </c>
       <c r="T4" s="10">
         <f>EmptyFunctionActivatedNotify!T18</f>
-        <v>5.1427318272000004</v>
+        <v>1.77078085632</v>
       </c>
       <c r="U4" s="10">
         <f>EmptyFunctionActivatedNotify!U18</f>
-        <v>6.4028843212800002</v>
+        <v>1.69547685888</v>
       </c>
       <c r="V4" s="10">
         <f>EmptyFunctionActivatedNotify!V18</f>
-        <v>4.9174599475200003</v>
+        <v>1.7255334911999998</v>
       </c>
       <c r="W4" s="10">
         <f>EmptyFunctionActivatedNotify!W18</f>
-        <v>5.8657056153600005</v>
+        <v>1.5124810752000002</v>
       </c>
       <c r="X4" s="10">
         <f>EmptyFunctionActivatedNotify!X18</f>
-        <v>6.2006373887999997</v>
+        <v>1.4811537715200001</v>
       </c>
       <c r="Y4" s="10">
         <f>EmptyFunctionActivatedNotify!Y18</f>
-        <v>6.7642231296000004</v>
+        <v>1.3640991436800001</v>
       </c>
       <c r="Z4" s="10">
         <f>EmptyFunctionActivatedNotify!Z18</f>
-        <v>6.6877057843199994</v>
+        <v>1.41693232128</v>
       </c>
       <c r="AA4" s="10">
         <f>EmptyFunctionActivatedNotify!AA18</f>
-        <v>5.6870473113599997</v>
+        <v>1.3663920844799999</v>
       </c>
       <c r="AB4" s="10">
         <f>EmptyFunctionActivatedNotify!AB18</f>
-        <v>6.2106785587199997</v>
+        <v>1.2499489075200001</v>
       </c>
       <c r="AC4" s="10">
         <f>EmptyFunctionActivatedNotify!AC18</f>
-        <v>6.9959821209599991</v>
+        <v>1.1523938304000001</v>
       </c>
       <c r="AD4" s="10">
         <f>EmptyFunctionActivatedNotify!AD18</f>
-        <v>6.2028347904000007</v>
+        <v>1.1441296896000002</v>
       </c>
       <c r="AE4" s="10">
         <f>EmptyFunctionActivatedNotify!AE18</f>
-        <v>6.0998435327999996</v>
+        <v>1.0802139648</v>
       </c>
       <c r="AF4" s="10">
         <f>EmptyFunctionActivatedNotify!AF18</f>
-        <v>7.9871439974400005</v>
+        <v>1.04527527936</v>
       </c>
       <c r="AG4" s="10">
         <f>EmptyFunctionActivatedNotify!AG18</f>
-        <v>6.45183860736</v>
+        <v>1.0509120921600001</v>
       </c>
       <c r="AH4" s="10">
         <f>EmptyFunctionActivatedNotify!AH18</f>
-        <v>6.2178248908800002</v>
+        <v>0.99612991488000002</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3148,135 +3150,135 @@
       </c>
       <c r="B5" s="10">
         <f>LoopEmpty!B18</f>
-        <v>7.0776203673600007</v>
+        <v>7.0253890867199997</v>
       </c>
       <c r="C5" s="10">
         <f>LoopEmpty!C18</f>
-        <v>9.107388887039999</v>
+        <v>8.0511648153599999</v>
       </c>
       <c r="D5" s="10">
         <f>LoopEmpty!D18</f>
-        <v>5.1839474380799997</v>
+        <v>4.1151121919999998</v>
       </c>
       <c r="E5" s="10">
         <f>LoopEmpty!E18</f>
-        <v>3.9331004620800001</v>
+        <v>2.7314848358400003</v>
       </c>
       <c r="F5" s="10">
         <f>LoopEmpty!F18</f>
-        <v>3.4036890931199997</v>
+        <v>2.11959447552</v>
       </c>
       <c r="G5" s="10">
         <f>LoopEmpty!G18</f>
-        <v>3.0707063193600002</v>
+        <v>1.7295747993599999</v>
       </c>
       <c r="H5" s="10">
         <f>LoopEmpty!H18</f>
-        <v>2.8426638028799998</v>
+        <v>1.44709404672</v>
       </c>
       <c r="I5" s="10">
         <f>LoopEmpty!I18</f>
-        <v>2.75524543488</v>
+        <v>1.1897401036799999</v>
       </c>
       <c r="J5" s="10">
         <f>LoopEmpty!J18</f>
-        <v>2.5942523289600006</v>
+        <v>1.1187926937600001</v>
       </c>
       <c r="K5" s="10">
         <f>LoopEmpty!K18</f>
-        <v>2.7802958131199995</v>
+        <v>1.0365812121600002</v>
       </c>
       <c r="L5" s="10">
         <f>LoopEmpty!L18</f>
-        <v>2.4440455987199998</v>
+        <v>0.81414684672000015</v>
       </c>
       <c r="M5" s="10">
         <f>LoopEmpty!M18</f>
-        <v>2.6271846912000001</v>
+        <v>0.75434886143999991</v>
       </c>
       <c r="N5" s="10">
         <f>LoopEmpty!N18</f>
-        <v>2.9048024985599996</v>
+        <v>0.74854007808000012</v>
       </c>
       <c r="O5" s="10">
         <f>LoopEmpty!O18</f>
-        <v>2.92267788288</v>
+        <v>0.66483818496000002</v>
       </c>
       <c r="P5" s="10">
         <f>LoopEmpty!P18</f>
-        <v>3.1057309900800001</v>
+        <v>0.58688775168000007</v>
       </c>
       <c r="Q5" s="10">
         <f>LoopEmpty!Q18</f>
-        <v>2.98834197504</v>
+        <v>0.53974871039999994</v>
       </c>
       <c r="R5" s="10">
         <f>LoopEmpty!R18</f>
-        <v>2.8774591795199997</v>
+        <v>0.50921438208000003</v>
       </c>
       <c r="S5" s="10">
         <f>LoopEmpty!S18</f>
-        <v>3.4461753753600006</v>
+        <v>0.50786727935999998</v>
       </c>
       <c r="T5" s="10">
         <f>LoopEmpty!T18</f>
-        <v>3.4124978073599999</v>
+        <v>0.46528545791999998</v>
       </c>
       <c r="U5" s="10">
         <f>LoopEmpty!U18</f>
-        <v>3.9119098675199999</v>
+        <v>0.43569696768000005</v>
       </c>
       <c r="V5" s="10">
         <f>LoopEmpty!V18</f>
-        <v>4.6041964646399993</v>
+        <v>0.46924078079999998</v>
       </c>
       <c r="W5" s="10">
         <f>LoopEmpty!W18</f>
-        <v>4.3812748492799996</v>
+        <v>0.5472963072</v>
       </c>
       <c r="X5" s="10">
         <f>LoopEmpty!X18</f>
-        <v>5.32016722944</v>
+        <v>0.41019755520000006</v>
       </c>
       <c r="Y5" s="10">
         <f>LoopEmpty!Y18</f>
-        <v>4.1239591219200005</v>
+        <v>0.44766802943999995</v>
       </c>
       <c r="Z5" s="10">
         <f>LoopEmpty!Z18</f>
-        <v>4.0164584140800006</v>
+        <v>0.34464811007999996</v>
       </c>
       <c r="AA5" s="10">
         <f>LoopEmpty!AA18</f>
-        <v>4.2806243020800006</v>
+        <v>0.35854906368</v>
       </c>
       <c r="AB5" s="10">
         <f>LoopEmpty!AB18</f>
-        <v>5.2912379596800001</v>
+        <v>0.31203102720000003</v>
       </c>
       <c r="AC5" s="10">
         <f>LoopEmpty!AC18</f>
-        <v>5.1776131891199997</v>
+        <v>0.30109178880000004</v>
       </c>
       <c r="AD5" s="10">
         <f>LoopEmpty!AD18</f>
-        <v>6.0140493312000007</v>
+        <v>0.33981382656000003</v>
       </c>
       <c r="AE5" s="10">
         <f>LoopEmpty!AE18</f>
-        <v>6.8720104550399999</v>
+        <v>0.37705500671999997</v>
       </c>
       <c r="AF5" s="10">
         <f>LoopEmpty!AF18</f>
-        <v>5.9695853875199996</v>
+        <v>0.29277032448000001</v>
       </c>
       <c r="AG5" s="10">
         <f>LoopEmpty!AG18</f>
-        <v>6.3387106406400004</v>
+        <v>0.33760687104000003</v>
       </c>
       <c r="AH5" s="10">
         <f>LoopEmpty!AH18</f>
-        <v>5.5436429721599998</v>
+        <v>0.25847175167999997</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -3285,135 +3287,135 @@
       </c>
       <c r="B6" s="10">
         <f>LoopNotActivatedNotify!B18</f>
-        <v>4.2921940992000005</v>
+        <v>5.1192387379199999</v>
       </c>
       <c r="C6" s="10">
         <f>LoopNotActivatedNotify!C18</f>
-        <v>8.0940332543999993</v>
+        <v>7.0239464448000009</v>
       </c>
       <c r="D6" s="10">
         <f>LoopNotActivatedNotify!D18</f>
-        <v>4.6705484390400001</v>
+        <v>3.52097301504</v>
       </c>
       <c r="E6" s="10">
         <f>LoopNotActivatedNotify!E18</f>
-        <v>3.5205335347199997</v>
+        <v>2.4375584870399996</v>
       </c>
       <c r="F6" s="10">
         <f>LoopNotActivatedNotify!F18</f>
-        <v>2.9953736601600003</v>
+        <v>1.8844820582400001</v>
       </c>
       <c r="G6" s="10">
         <f>LoopNotActivatedNotify!G18</f>
-        <v>2.76369110016</v>
+        <v>1.4376356659199998</v>
       </c>
       <c r="H6" s="10">
         <f>LoopNotActivatedNotify!H18</f>
-        <v>2.7594396057599999</v>
+        <v>1.2464044031999999</v>
       </c>
       <c r="I6" s="10">
         <f>LoopNotActivatedNotify!I18</f>
-        <v>2.6010642739200001</v>
+        <v>1.1342413824000002</v>
       </c>
       <c r="J6" s="10">
         <f>LoopNotActivatedNotify!J18</f>
-        <v>2.3542769664000001</v>
+        <v>0.92361566208000012</v>
       </c>
       <c r="K6" s="10">
         <f>LoopNotActivatedNotify!K18</f>
-        <v>2.5104931123199998</v>
+        <v>0.80338913280000013</v>
       </c>
       <c r="L6" s="10">
         <f>LoopNotActivatedNotify!L18</f>
-        <v>2.5292474572799999</v>
+        <v>0.74123132928000002</v>
       </c>
       <c r="M6" s="10">
         <f>LoopNotActivatedNotify!M18</f>
-        <v>2.7048485068799999</v>
+        <v>0.69122611200000006</v>
       </c>
       <c r="N6" s="10">
         <f>LoopNotActivatedNotify!N18</f>
-        <v>3.3791259648</v>
+        <v>0.59829513215999997</v>
       </c>
       <c r="O6" s="10">
         <f>LoopNotActivatedNotify!O18</f>
-        <v>3.2232824217599996</v>
+        <v>0.61455590400000004</v>
       </c>
       <c r="P6" s="10">
         <f>LoopNotActivatedNotify!P18</f>
-        <v>2.7274530815999998</v>
+        <v>0.55460505599999999</v>
       </c>
       <c r="Q6" s="10">
         <f>LoopNotActivatedNotify!Q18</f>
-        <v>2.8538992128</v>
+        <v>0.4754508288</v>
       </c>
       <c r="R6" s="10">
         <f>LoopNotActivatedNotify!R18</f>
-        <v>3.1554878054400004</v>
+        <v>0.44302923069999994</v>
       </c>
       <c r="S6" s="10">
         <f>LoopNotActivatedNotify!S18</f>
-        <v>3.4857954816000003</v>
+        <v>0.46203712512</v>
       </c>
       <c r="T6" s="10">
         <f>LoopNotActivatedNotify!T18</f>
-        <v>4.1092078694400005</v>
+        <v>0.4401586483199999</v>
       </c>
       <c r="U6" s="10">
         <f>LoopNotActivatedNotify!U18</f>
-        <v>4.5190232678399997</v>
+        <v>0.38182241279999996</v>
       </c>
       <c r="V6" s="10">
         <f>LoopNotActivatedNotify!V18</f>
-        <v>3.7240702463999993</v>
+        <v>0.35874969600000001</v>
       </c>
       <c r="W6" s="10">
         <f>LoopNotActivatedNotify!W18</f>
-        <v>5.4407090380799996</v>
+        <v>0.47131398143999997</v>
       </c>
       <c r="X6" s="10">
         <f>LoopNotActivatedNotify!X18</f>
-        <v>3.7961068031999998</v>
+        <v>0.33796991999999998</v>
       </c>
       <c r="Y6" s="10">
         <f>LoopNotActivatedNotify!Y18</f>
-        <v>4.8381241958400008</v>
+        <v>0.36219866111999999</v>
       </c>
       <c r="Z6" s="10">
         <f>LoopNotActivatedNotify!Z18</f>
-        <v>5.2248095539200001</v>
+        <v>0.33828519936000001</v>
       </c>
       <c r="AA6" s="10">
         <f>LoopNotActivatedNotify!AA18</f>
-        <v>4.5918719078399999</v>
+        <v>0.37759002623999999</v>
       </c>
       <c r="AB6" s="10">
         <f>LoopNotActivatedNotify!AB18</f>
-        <v>4.6920160972800007</v>
+        <v>0.2719045632</v>
       </c>
       <c r="AC6" s="10">
         <f>LoopNotActivatedNotify!AC18</f>
-        <v>4.9622487244800002</v>
+        <v>0.26301941760000003</v>
       </c>
       <c r="AD6" s="10">
         <f>LoopNotActivatedNotify!AD18</f>
-        <v>5.7375684403199996</v>
+        <v>0.25449732096</v>
       </c>
       <c r="AE6" s="10">
         <f>LoopNotActivatedNotify!AE18</f>
-        <v>4.4729924812800004</v>
+        <v>0.30703432703999994</v>
       </c>
       <c r="AF6" s="10">
         <f>LoopNotActivatedNotify!AF18</f>
-        <v>6.4505774899199988</v>
+        <v>0.27742672895999998</v>
       </c>
       <c r="AG6" s="10">
         <f>LoopNotActivatedNotify!AG18</f>
-        <v>6.275626106879999</v>
+        <v>0.29075444736</v>
       </c>
       <c r="AH6" s="10">
         <f>LoopNotActivatedNotify!AH18</f>
-        <v>5.8784792063999998</v>
+        <v>0.22171782144000002</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -3422,144 +3424,144 @@
       </c>
       <c r="B7" s="10">
         <f>LoopActivatedNotify!B18</f>
-        <v>22.138142791680004</v>
+        <v>22.067816386560001</v>
       </c>
       <c r="C7" s="10">
         <f>LoopActivatedNotify!C18</f>
-        <v>22.96476705792</v>
+        <v>22.132658841600001</v>
       </c>
       <c r="D7" s="10">
         <f>LoopActivatedNotify!D18</f>
-        <v>12.340722032639999</v>
+        <v>11.177541826560001</v>
       </c>
       <c r="E7" s="10">
         <f>LoopActivatedNotify!E18</f>
-        <v>8.5941236428800014</v>
+        <v>7.5815036620800003</v>
       </c>
       <c r="F7" s="10">
         <f>LoopActivatedNotify!F18</f>
-        <v>6.7886142873599997</v>
+        <v>5.6651974963200002</v>
       </c>
       <c r="G7" s="10">
         <f>LoopActivatedNotify!G18</f>
-        <v>5.7729848217599997</v>
+        <v>4.6133395660799996</v>
       </c>
       <c r="H7" s="10">
         <f>LoopActivatedNotify!H18</f>
-        <v>5.1830207078399999</v>
+        <v>3.8151095500800003</v>
       </c>
       <c r="I7" s="10">
         <f>LoopActivatedNotify!I18</f>
-        <v>4.8747443712000003</v>
+        <v>3.3344804966399999</v>
       </c>
       <c r="J7" s="10">
         <f>LoopActivatedNotify!J18</f>
-        <v>4.4224140287999996</v>
+        <v>3.0144146227199999</v>
       </c>
       <c r="K7" s="10">
         <f>LoopActivatedNotify!K18</f>
-        <v>4.1894512435199998</v>
+        <v>2.6573273088000002</v>
       </c>
       <c r="L7" s="10">
         <f>LoopActivatedNotify!L18</f>
-        <v>4.0939789209599997</v>
+        <v>2.4125749862400001</v>
       </c>
       <c r="M7" s="10">
         <f>LoopActivatedNotify!M18</f>
-        <v>3.9571667865599998</v>
+        <v>2.2236557721599999</v>
       </c>
       <c r="N7" s="10">
         <f>LoopActivatedNotify!N18</f>
-        <v>3.8872320921600001</v>
+        <v>2.0228992511999997</v>
       </c>
       <c r="O7" s="10">
         <f>LoopActivatedNotify!O18</f>
-        <v>3.8060906496000002</v>
+        <v>1.9129336320000001</v>
       </c>
       <c r="P7" s="10">
         <f>LoopActivatedNotify!P18</f>
-        <v>3.9777077145600002</v>
+        <v>1.81255059456</v>
       </c>
       <c r="Q7" s="10">
         <f>LoopActivatedNotify!Q18</f>
-        <v>3.8120618496000005</v>
+        <v>1.63995902976</v>
       </c>
       <c r="R7" s="10">
         <f>LoopActivatedNotify!R18</f>
-        <v>4.301891328</v>
+        <v>1.59659378688</v>
       </c>
       <c r="S7" s="10">
         <f>LoopActivatedNotify!S18</f>
-        <v>4.5166825574400002</v>
+        <v>1.5181656576</v>
       </c>
       <c r="T7" s="10">
         <f>LoopActivatedNotify!T18</f>
-        <v>4.4608303411200003</v>
+        <v>1.37709247488</v>
       </c>
       <c r="U7" s="10">
         <f>LoopActivatedNotify!U18</f>
-        <v>4.5347872358400005</v>
+        <v>1.37234417664</v>
       </c>
       <c r="V7" s="10">
         <f>LoopActivatedNotify!V18</f>
-        <v>4.6629912883199998</v>
+        <v>1.2106822963200001</v>
       </c>
       <c r="W7" s="10">
         <f>LoopActivatedNotify!W18</f>
-        <v>5.3746723430399994</v>
+        <v>1.15721856</v>
       </c>
       <c r="X7" s="10">
         <f>LoopActivatedNotify!X18</f>
-        <v>5.2689295564799998</v>
+        <v>1.2002685235200001</v>
       </c>
       <c r="Y7" s="10">
         <f>LoopActivatedNotify!Y18</f>
-        <v>4.7903641497599994</v>
+        <v>1.079831808</v>
       </c>
       <c r="Z7" s="10">
         <f>LoopActivatedNotify!Z18</f>
-        <v>5.15088132096</v>
+        <v>1.2064594636800001</v>
       </c>
       <c r="AA7" s="10">
         <f>LoopActivatedNotify!AA18</f>
-        <v>6.0665672294400013</v>
+        <v>0.90946630656000005</v>
       </c>
       <c r="AB7" s="10">
         <f>LoopActivatedNotify!AB18</f>
-        <v>5.6170170777599999</v>
+        <v>1.0286227967999999</v>
       </c>
       <c r="AC7" s="10">
         <f>LoopActivatedNotify!AC18</f>
-        <v>6.822979737599999</v>
+        <v>0.88596366335999988</v>
       </c>
       <c r="AD7" s="10">
         <f>LoopActivatedNotify!AD18</f>
-        <v>6.0908341862400004</v>
+        <v>0.94337316863999998</v>
       </c>
       <c r="AE7" s="10">
         <f>LoopActivatedNotify!AE18</f>
-        <v>5.4986535628800004</v>
+        <v>0.95044306944000001</v>
       </c>
       <c r="AF7" s="10">
         <f>LoopActivatedNotify!AF18</f>
-        <v>6.6936674303999997</v>
+        <v>0.79272695808000004</v>
       </c>
       <c r="AG7" s="10">
         <f>LoopActivatedNotify!AG18</f>
-        <v>5.5677857279999996</v>
+        <v>0.90211934208000011</v>
       </c>
       <c r="AH7" s="10">
         <f>LoopActivatedNotify!AH18</f>
-        <v>6.4811022643200005</v>
+        <v>0.72761699328000007</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="10">
         <f>B2-B5</f>
-        <v>4.0159520563199971</v>
+        <v>5.0139640934400012</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -3569,29 +3571,32 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <f>B3-B2</f>
-        <v>0.79767588864000061</v>
-      </c>
-      <c r="G10" t="s">
+        <v>-1.0022062080000023</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <f>B4-B2</f>
-        <v>16.463181189120004</v>
-      </c>
-      <c r="G11" s="17" t="s">
+        <v>15.375362304000001</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
@@ -3602,26 +3607,29 @@
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <f>B6-B5</f>
-        <v>-2.7854262681600002</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>-1.9061503487999998</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <f>B7-B5</f>
-        <v>15.060522424320002</v>
-      </c>
-      <c r="G13" s="17" t="s">
+        <v>15.04242729984</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
@@ -3640,7 +3648,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,515 +3886,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>11.0887094784</v>
+        <v>12.039563366399999</v>
       </c>
       <c r="C13" s="10">
-        <v>8.8955116031999992</v>
+        <v>7.0727192064000004</v>
       </c>
       <c r="D13" s="10">
-        <v>5.2052622336000001</v>
+        <v>3.6118594559999999</v>
       </c>
       <c r="E13" s="10">
-        <v>3.8757387263999998</v>
+        <v>2.4634782720000001</v>
       </c>
       <c r="F13" s="10">
-        <v>3.0990050303999999</v>
+        <v>1.8172033536000001</v>
       </c>
       <c r="G13" s="10">
-        <v>3.2563103232000001</v>
+        <v>1.4341389311999999</v>
       </c>
       <c r="H13" s="10">
-        <v>2.7655732224</v>
+        <v>1.3147627008</v>
       </c>
       <c r="I13" s="10">
-        <v>2.7443635199999998</v>
+        <v>1.0137186815999999</v>
       </c>
       <c r="J13" s="10">
-        <v>2.4561217536000002</v>
+        <v>0.91053634559999996</v>
       </c>
       <c r="K13" s="10">
-        <v>2.5441133568000001</v>
+        <v>0.95711170560000003</v>
       </c>
       <c r="L13" s="10">
-        <v>2.4445615103999998</v>
+        <v>0.86138142719999999</v>
       </c>
       <c r="M13" s="10">
-        <v>2.3578119167999998</v>
+        <v>0.64852008959999996</v>
       </c>
       <c r="N13" s="10">
-        <v>2.6018190336</v>
+        <v>0.7667976192</v>
       </c>
       <c r="O13" s="10">
-        <v>3.4274210304000001</v>
+        <v>0.54887270399999999</v>
       </c>
       <c r="P13" s="10">
-        <v>2.6485854720000002</v>
+        <v>0.51280665599999997</v>
       </c>
       <c r="Q13" s="10">
-        <v>2.7633758207999999</v>
+        <v>0.47869916159999998</v>
       </c>
       <c r="R13" s="10">
-        <v>2.7808594944</v>
+        <v>0.44062679040000002</v>
       </c>
       <c r="S13" s="10">
-        <v>3.9703703039999998</v>
+        <v>0.42385966079999998</v>
       </c>
       <c r="T13" s="10">
-        <v>3.177633792</v>
+        <v>0.57963632639999996</v>
       </c>
       <c r="U13" s="10">
-        <v>4.6261991424</v>
+        <v>0.37131310080000002</v>
       </c>
       <c r="V13" s="10">
-        <v>3.9707524608</v>
+        <v>0.35282626560000002</v>
       </c>
       <c r="W13" s="10">
-        <v>8.1751938047999992</v>
+        <v>0.35621790720000002</v>
       </c>
       <c r="X13" s="10">
-        <v>3.9710390784</v>
+        <v>0.60118041600000005</v>
       </c>
       <c r="Y13" s="10">
-        <v>3.7349617151999999</v>
+        <v>0.55503498240000004</v>
       </c>
       <c r="Z13" s="10">
-        <v>4.1367518207999998</v>
+        <v>0.31375073279999999</v>
       </c>
       <c r="AA13" s="10">
-        <v>7.3668366336000002</v>
+        <v>0.28360811520000001</v>
       </c>
       <c r="AB13" s="10">
-        <v>7.8414753792000003</v>
+        <v>0.27262110719999999</v>
       </c>
       <c r="AC13" s="10">
-        <v>4.1326914048000001</v>
+        <v>0.2625417216</v>
       </c>
       <c r="AD13" s="10">
-        <v>5.357121792</v>
+        <v>0.25298780160000001</v>
       </c>
       <c r="AE13" s="10">
-        <v>6.9726896639999998</v>
+        <v>0.24515358719999999</v>
       </c>
       <c r="AF13" s="10">
-        <v>5.3464214015999998</v>
+        <v>0.23645952000000001</v>
       </c>
       <c r="AG13" s="10">
-        <v>4.7282827775999996</v>
+        <v>0.22876861439999999</v>
       </c>
       <c r="AH13" s="10">
-        <v>4.4701836288000001</v>
+        <v>0.24544020480000001</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>11.1179444736</v>
+        <v>12.039611136</v>
       </c>
       <c r="C14" s="10">
-        <v>9.0453170687999993</v>
+        <v>7.0505541120000004</v>
       </c>
       <c r="D14" s="10">
-        <v>5.1810908160000002</v>
+        <v>3.6495019007999998</v>
       </c>
       <c r="E14" s="10">
-        <v>3.7646744064000002</v>
+        <v>2.4242594303999998</v>
       </c>
       <c r="F14" s="10">
-        <v>3.1426186752</v>
+        <v>1.9067235840000001</v>
       </c>
       <c r="G14" s="10">
-        <v>3.0730661376000001</v>
+        <v>1.534359552</v>
       </c>
       <c r="H14" s="10">
-        <v>2.7016574975999998</v>
+        <v>1.3396506624</v>
       </c>
       <c r="I14" s="10">
-        <v>2.4509148671999998</v>
+        <v>1.0305813504000001</v>
       </c>
       <c r="J14" s="10">
-        <v>2.3419524096000002</v>
+        <v>0.90853002240000003</v>
       </c>
       <c r="K14" s="10">
-        <v>2.5435401216</v>
+        <v>0.89587107840000002</v>
       </c>
       <c r="L14" s="10">
-        <v>2.6404646399999998</v>
+        <v>0.71186257919999996</v>
       </c>
       <c r="M14" s="10">
-        <v>2.6614832640000001</v>
+        <v>0.64111580160000003</v>
       </c>
       <c r="N14" s="10">
-        <v>2.593650432</v>
+        <v>0.78910602240000005</v>
       </c>
       <c r="O14" s="10">
-        <v>2.6304330239999998</v>
+        <v>0.69361459199999997</v>
       </c>
       <c r="P14" s="10">
-        <v>3.0545793024000001</v>
+        <v>0.51223342080000001</v>
       </c>
       <c r="Q14" s="10">
-        <v>4.8108764160000002</v>
+        <v>0.6153202176</v>
       </c>
       <c r="R14" s="10">
-        <v>2.9176238591999999</v>
+        <v>0.44158218240000002</v>
       </c>
       <c r="S14" s="10">
-        <v>4.2403640832000002</v>
+        <v>0.55685022719999999</v>
       </c>
       <c r="T14" s="10">
-        <v>5.1782724095999999</v>
+        <v>0.3919017984</v>
       </c>
       <c r="U14" s="10">
-        <v>3.5603638272000002</v>
+        <v>0.61632337920000002</v>
       </c>
       <c r="V14" s="10">
-        <v>4.4383690751999998</v>
+        <v>0.35273072640000003</v>
       </c>
       <c r="W14" s="10">
-        <v>4.6428229632000004</v>
+        <v>0.33634575360000002</v>
       </c>
       <c r="X14" s="10">
-        <v>3.8660892672</v>
+        <v>0.32129832959999999</v>
       </c>
       <c r="Y14" s="10">
-        <v>5.0878445568000004</v>
+        <v>0.31542266879999997</v>
       </c>
       <c r="Z14" s="10">
-        <v>3.7610439167999998</v>
+        <v>0.29383080960000002</v>
       </c>
       <c r="AA14" s="10">
-        <v>4.9178325504</v>
+        <v>0.28274826240000001</v>
       </c>
       <c r="AB14" s="10">
-        <v>4.1764005888</v>
+        <v>0.27649044480000001</v>
       </c>
       <c r="AC14" s="10">
-        <v>4.5581274623999999</v>
+        <v>0.6043809792</v>
       </c>
       <c r="AD14" s="10">
-        <v>4.1442038783999999</v>
+        <v>0.25298780160000001</v>
       </c>
       <c r="AE14" s="10">
-        <v>4.4559005184</v>
+        <v>0.46766438399999999</v>
       </c>
       <c r="AF14" s="10">
-        <v>7.9751347199999998</v>
+        <v>0.2356952064</v>
       </c>
       <c r="AG14" s="10">
-        <v>5.1199457280000003</v>
+        <v>0.6809078784</v>
       </c>
       <c r="AH14" s="10">
-        <v>4.4852310527999997</v>
+        <v>0.22179425280000001</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>11.0867509248</v>
+        <v>12.039324518400001</v>
       </c>
       <c r="C15" s="10">
-        <v>8.9603349504000001</v>
+        <v>7.0319239680000001</v>
       </c>
       <c r="D15" s="10">
-        <v>5.1420630528000002</v>
+        <v>3.6416676863999999</v>
       </c>
       <c r="E15" s="10">
-        <v>3.935976192</v>
+        <v>2.4339566592000001</v>
       </c>
       <c r="F15" s="10">
-        <v>3.1611055104000001</v>
+        <v>1.8814056960000001</v>
       </c>
       <c r="G15" s="10">
-        <v>2.9273688575999999</v>
+        <v>1.5948358655999999</v>
       </c>
       <c r="H15" s="10">
-        <v>2.5742559744000002</v>
+        <v>1.2617862144000001</v>
       </c>
       <c r="I15" s="10">
-        <v>2.6318183423999999</v>
+        <v>1.0473962496</v>
       </c>
       <c r="J15" s="10">
-        <v>2.5716286464000002</v>
+        <v>0.9080523264</v>
       </c>
       <c r="K15" s="10">
-        <v>2.6386971647999999</v>
+        <v>0.90833894400000004</v>
       </c>
       <c r="L15" s="10">
-        <v>2.8192184831999998</v>
+        <v>0.71520645120000004</v>
       </c>
       <c r="M15" s="10">
-        <v>3.1960250879999998</v>
+        <v>0.75920225279999998</v>
       </c>
       <c r="N15" s="10">
-        <v>2.6091277823999999</v>
+        <v>0.67350359039999996</v>
       </c>
       <c r="O15" s="10">
-        <v>2.9631482880000002</v>
+        <v>0.56153164799999999</v>
       </c>
       <c r="P15" s="10">
-        <v>2.7653821440000002</v>
+        <v>0.51629383679999996</v>
       </c>
       <c r="Q15" s="10">
-        <v>2.6438562816000002</v>
+        <v>0.46957516799999999</v>
       </c>
       <c r="R15" s="10">
-        <v>2.7581211647999999</v>
+        <v>0.4415344128</v>
       </c>
       <c r="S15" s="10">
-        <v>2.8418135040000001</v>
+        <v>0.42428958719999998</v>
       </c>
       <c r="T15" s="10">
-        <v>3.51464832</v>
+        <v>0.54653199360000004</v>
       </c>
       <c r="U15" s="10">
-        <v>3.9504503808</v>
+        <v>0.60060718079999997</v>
       </c>
       <c r="V15" s="10">
-        <v>3.8826653184</v>
+        <v>0.35344727040000001</v>
       </c>
       <c r="W15" s="10">
-        <v>3.7295637504000001</v>
+        <v>0.33677568000000002</v>
       </c>
       <c r="X15" s="10">
-        <v>3.6855679488000002</v>
+        <v>0.55919093760000005</v>
       </c>
       <c r="Y15" s="10">
-        <v>3.9369793536</v>
+        <v>0.32483328</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.233341952</v>
+        <v>0.29426073600000002</v>
       </c>
       <c r="AA15" s="10">
-        <v>4.8840116735999999</v>
+        <v>0.28480235520000002</v>
       </c>
       <c r="AB15" s="10">
-        <v>4.8117362687999998</v>
+        <v>0.27214341120000002</v>
       </c>
       <c r="AC15" s="10">
-        <v>4.2585643007999998</v>
+        <v>0.26220733439999999</v>
       </c>
       <c r="AD15" s="10">
-        <v>3.7847854079999999</v>
+        <v>0.2525578752</v>
       </c>
       <c r="AE15" s="10">
-        <v>4.3887842303999998</v>
+        <v>0.2441504256</v>
       </c>
       <c r="AF15" s="10">
-        <v>5.5656838655999996</v>
+        <v>0.2360773632</v>
       </c>
       <c r="AG15" s="10">
-        <v>4.5223002623999999</v>
+        <v>0.23435765759999999</v>
       </c>
       <c r="AH15" s="10">
-        <v>5.5241720831999999</v>
+        <v>0.54452567039999999</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>11.087228620799999</v>
+        <v>12.039133440000001</v>
       </c>
       <c r="C16" s="10">
-        <v>8.9930571264000001</v>
+        <v>7.0332615167999997</v>
       </c>
       <c r="D16" s="10">
-        <v>5.4102893567999999</v>
+        <v>3.6138180096000001</v>
       </c>
       <c r="E16" s="10">
-        <v>3.8756431872000001</v>
+        <v>2.5138274304000001</v>
       </c>
       <c r="F16" s="10">
-        <v>3.1580004864000002</v>
+        <v>1.9136024063999999</v>
       </c>
       <c r="G16" s="10">
-        <v>2.9781957120000002</v>
+        <v>1.5677505024</v>
       </c>
       <c r="H16" s="10">
-        <v>2.8647906816000002</v>
+        <v>1.3393640447999999</v>
       </c>
       <c r="I16" s="10">
-        <v>2.7835823616000002</v>
+        <v>1.0319188991999999</v>
       </c>
       <c r="J16" s="10">
-        <v>2.7093961728</v>
+        <v>0.98830525440000005</v>
       </c>
       <c r="K16" s="10">
-        <v>2.6145257472000001</v>
+        <v>0.88588723199999997</v>
       </c>
       <c r="L16" s="10">
-        <v>2.2735463424</v>
+        <v>0.70546145280000006</v>
       </c>
       <c r="M16" s="10">
-        <v>2.5214705664000001</v>
+        <v>0.64374312960000002</v>
       </c>
       <c r="N16" s="10">
-        <v>2.4698316288000002</v>
+        <v>0.81337297919999996</v>
       </c>
       <c r="O16" s="10">
-        <v>2.8443452927999999</v>
+        <v>0.54185057280000004</v>
       </c>
       <c r="P16" s="10">
-        <v>3.0227169792000002</v>
+        <v>0.50387374080000003</v>
       </c>
       <c r="Q16" s="10">
-        <v>2.9077833216000002</v>
+        <v>0.47755269119999999</v>
       </c>
       <c r="R16" s="10">
-        <v>2.6387927040000001</v>
+        <v>0.4404834816</v>
       </c>
       <c r="S16" s="10">
-        <v>3.8750221824</v>
+        <v>0.41492674559999998</v>
       </c>
       <c r="T16" s="10">
-        <v>6.5779216896000001</v>
+        <v>0.66901324799999995</v>
       </c>
       <c r="U16" s="10">
-        <v>3.7054401023999999</v>
+        <v>0.47525975040000001</v>
       </c>
       <c r="V16" s="10">
-        <v>3.8968051199999998</v>
+        <v>0.35292180480000002</v>
       </c>
       <c r="W16" s="10">
-        <v>4.1513693183999996</v>
+        <v>0.62974663679999998</v>
       </c>
       <c r="X16" s="10">
-        <v>3.4534554624</v>
+        <v>0.33806545919999997</v>
       </c>
       <c r="Y16" s="10">
-        <v>4.3893574655999998</v>
+        <v>0.31609144319999999</v>
       </c>
       <c r="Z16" s="10">
-        <v>3.5326096896000001</v>
+        <v>0.54256711680000003</v>
       </c>
       <c r="AA16" s="10">
-        <v>4.4783044608000004</v>
+        <v>0.28289157120000002</v>
       </c>
       <c r="AB16" s="10">
-        <v>7.3770115583999996</v>
+        <v>0.27692037120000002</v>
       </c>
       <c r="AC16" s="10">
-        <v>3.8216157696000002</v>
+        <v>0.2625417216</v>
       </c>
       <c r="AD16" s="10">
-        <v>6.8214033407999999</v>
+        <v>0.25461196800000002</v>
       </c>
       <c r="AE16" s="10">
-        <v>6.9461297664000003</v>
+        <v>0.24534466560000001</v>
       </c>
       <c r="AF16" s="10">
-        <v>4.4936385023999996</v>
+        <v>0.24434150399999999</v>
       </c>
       <c r="AG16" s="10">
-        <v>4.1068480512000001</v>
+        <v>0.2280520704</v>
       </c>
       <c r="AH16" s="10">
-        <v>4.6983312383999998</v>
+        <v>0.2224630272</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>11.087228620799999</v>
+        <v>12.039133440000001</v>
       </c>
       <c r="C17" s="10">
-        <v>8.9810191871999994</v>
+        <v>7.0309685760000002</v>
       </c>
       <c r="D17" s="10">
-        <v>5.0773352448000004</v>
+        <v>3.6147256319999999</v>
       </c>
       <c r="E17" s="10">
-        <v>3.9452912640000002</v>
+        <v>2.3870469120000002</v>
       </c>
       <c r="F17" s="10">
-        <v>3.1369340927999998</v>
+        <v>1.8876635136</v>
       </c>
       <c r="G17" s="10">
-        <v>3.0939414528000002</v>
+        <v>1.5409995264</v>
       </c>
       <c r="H17" s="10">
-        <v>2.6677410816</v>
+        <v>1.32202368</v>
       </c>
       <c r="I17" s="10">
-        <v>2.6966416895999998</v>
+        <v>1.030390272</v>
       </c>
       <c r="J17" s="10">
-        <v>2.6354966015999999</v>
+        <v>0.99848017919999998</v>
       </c>
       <c r="K17" s="10">
-        <v>2.4543542783999999</v>
+        <v>0.94354513920000005</v>
       </c>
       <c r="L17" s="10">
-        <v>2.92111104</v>
+        <v>0.71286574079999998</v>
       </c>
       <c r="M17" s="10">
-        <v>2.6536490495999998</v>
+        <v>0.65167288320000005</v>
       </c>
       <c r="N17" s="10">
-        <v>2.378209536</v>
+        <v>0.81060234239999995</v>
       </c>
       <c r="O17" s="10">
-        <v>3.1198803455999999</v>
+        <v>0.54337919999999995</v>
       </c>
       <c r="P17" s="10">
-        <v>2.8806979583999999</v>
+        <v>0.50406481920000001</v>
       </c>
       <c r="Q17" s="10">
-        <v>2.7627548160000002</v>
+        <v>0.4792723968</v>
       </c>
       <c r="R17" s="10">
-        <v>3.2063910912</v>
+        <v>0.44038794240000001</v>
       </c>
       <c r="S17" s="10">
-        <v>3.8459304959999998</v>
+        <v>0.42457620480000002</v>
       </c>
       <c r="T17" s="10">
-        <v>6.1666254336000002</v>
+        <v>0.48772761599999997</v>
       </c>
       <c r="U17" s="10">
-        <v>5.1351364608000001</v>
+        <v>0.39032540160000001</v>
       </c>
       <c r="V17" s="10">
-        <v>4.0707342335999996</v>
+        <v>0.37484805119999998</v>
       </c>
       <c r="W17" s="10">
-        <v>4.7564668416</v>
+        <v>0.33653683200000001</v>
       </c>
       <c r="X17" s="10">
-        <v>4.7794917887999997</v>
+        <v>0.32168048640000002</v>
       </c>
       <c r="Y17" s="10">
-        <v>3.9558961151999998</v>
+        <v>0.3068719104</v>
       </c>
       <c r="Z17" s="10">
-        <v>5.6081032704</v>
+        <v>0.46924078079999998</v>
       </c>
       <c r="AA17" s="10">
-        <v>4.9255234559999996</v>
+        <v>0.28346480639999999</v>
       </c>
       <c r="AB17" s="10">
-        <v>5.5708907520000004</v>
+        <v>0.60920570880000002</v>
       </c>
       <c r="AC17" s="10">
-        <v>3.5716852224000002</v>
+        <v>0.27071032319999999</v>
       </c>
       <c r="AD17" s="10">
-        <v>5.2435734527999998</v>
+        <v>0.33204648959999999</v>
       </c>
       <c r="AE17" s="10">
-        <v>8.3619251711999993</v>
+        <v>0.66977756160000002</v>
       </c>
       <c r="AF17" s="10">
-        <v>5.0553134591999997</v>
+        <v>0.23722383359999999</v>
       </c>
       <c r="AG17" s="10">
-        <v>4.4160606720000004</v>
+        <v>0.22872084479999999</v>
       </c>
       <c r="AH17" s="10">
-        <v>4.8167520768000003</v>
+        <v>0.22107770879999999</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -4395,135 +4403,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>11.093572423679998</v>
+        <v>12.039353180160001</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:L18" si="1">AVERAGE(C13:C17)</f>
-        <v>8.9750479871999982</v>
+        <v>7.0438854758399998</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2032081408000002</v>
+        <v>3.6263145369599998</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8794647551999999</v>
+        <v>2.4445137408000006</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>3.1395327590400002</v>
+        <v>1.8813197107200001</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>3.0657764966400003</v>
+        <v>1.5344168755200001</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>2.7148036915200002</v>
+        <v>1.31551746048</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6614641561600001</v>
+        <v>1.03080109056</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5429191168000003</v>
+        <v>0.94278082560000009</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5590461337599999</v>
+        <v>0.91815081983999991</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6197804031999996</v>
+        <v>0.74135553023999989</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" ref="M18" si="2">AVERAGE(M13:M17)</f>
-        <v>2.6780879769599997</v>
+        <v>0.66885083136000001</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" ref="N18" si="3">AVERAGE(N13:N17)</f>
-        <v>2.5305276825599998</v>
+        <v>0.77067651071999987</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" ref="O18" si="4">AVERAGE(O13:O17)</f>
-        <v>2.99704559616</v>
+        <v>0.57784974336000006</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" ref="P18" si="5">AVERAGE(P13:P17)</f>
-        <v>2.8743923712000004</v>
+        <v>0.50985449472</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" ref="Q18" si="6">AVERAGE(Q13:Q17)</f>
-        <v>3.1777293311999997</v>
+        <v>0.50408392703999994</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" ref="R18" si="7">AVERAGE(R13:R17)</f>
-        <v>2.8603576627200002</v>
+        <v>0.44092296192000002</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" ref="S18" si="8">AVERAGE(S13:S17)</f>
-        <v>3.7547001139199998</v>
+        <v>0.44890048511999997</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" ref="T18" si="9">AVERAGE(T13:T17)</f>
-        <v>4.9230203289599999</v>
+        <v>0.53496219647999987</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" ref="U18" si="10">AVERAGE(U13:U17)</f>
-        <v>4.1955179827200002</v>
+        <v>0.49076576256000004</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" ref="V18" si="11">AVERAGE(V13:V17)</f>
-        <v>4.0518652415999998</v>
+        <v>0.35735482367999999</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" ref="W18" si="12">AVERAGE(W13:W17)</f>
-        <v>5.0910833356799996</v>
+        <v>0.39912456192000001</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" ref="X18" si="13">AVERAGE(X13:X17)</f>
-        <v>3.9511287091200002</v>
+        <v>0.42828312576000005</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" ref="Y18" si="14">AVERAGE(Y13:Y17)</f>
-        <v>4.2210078412800005</v>
+        <v>0.36365085695999999</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" ref="Z18" si="15">AVERAGE(Z13:Z17)</f>
-        <v>4.2543701299199999</v>
+        <v>0.38273003519999999</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" ref="AA18" si="16">AVERAGE(AA13:AA17)</f>
-        <v>5.3145017548800002</v>
+        <v>0.28350302208</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" ref="AB18" si="17">AVERAGE(AB13:AB17)</f>
-        <v>5.9555029094399998</v>
+        <v>0.34147620864</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" ref="AC18" si="18">AVERAGE(AC13:AC17)</f>
-        <v>4.0685368320000004</v>
+        <v>0.332476416</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" ref="AD18" si="19">AVERAGE(AD13:AD17)</f>
-        <v>5.0702175744</v>
+        <v>0.26903838720000001</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" ref="AE18" si="20">AVERAGE(AE13:AE17)</f>
-        <v>6.2250858700799991</v>
+        <v>0.37441812480000003</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" ref="AF18" si="21">AVERAGE(AF13:AF17)</f>
-        <v>5.6872383897600001</v>
+        <v>0.23795948544000001</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" ref="AG18" si="22">AVERAGE(AG13:AG17)</f>
-        <v>4.5786874982399999</v>
+        <v>0.32016141312000002</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" ref="AH18" si="23">AVERAGE(AH13:AH17)</f>
-        <v>4.7989340159999996</v>
+        <v>0.29106017280000002</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -4590,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,515 +4837,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>11.888420352000001</v>
+        <v>11.041226496</v>
       </c>
       <c r="C13" s="10">
-        <v>8.7780461568000003</v>
+        <v>8.0958484992000006</v>
       </c>
       <c r="D13" s="10">
-        <v>5.3447972351999997</v>
+        <v>4.0653840384000004</v>
       </c>
       <c r="E13" s="10">
-        <v>4.0414992384000001</v>
+        <v>2.8179764735999999</v>
       </c>
       <c r="F13" s="10">
-        <v>3.4861298688</v>
+        <v>2.106400512</v>
       </c>
       <c r="G13" s="10">
-        <v>2.9537854464</v>
+        <v>1.7863441920000001</v>
       </c>
       <c r="H13" s="10">
-        <v>2.7915121152000002</v>
+        <v>1.5196942847999999</v>
       </c>
       <c r="I13" s="10">
-        <v>2.6704639488000002</v>
+        <v>1.2897314304</v>
       </c>
       <c r="J13" s="10">
-        <v>2.4344343552000001</v>
+        <v>1.0129065984000001</v>
       </c>
       <c r="K13" s="10">
-        <v>2.6954474496</v>
+        <v>0.92118896640000003</v>
       </c>
       <c r="L13" s="10">
-        <v>2.6065959936</v>
+        <v>0.91024972800000004</v>
       </c>
       <c r="M13" s="10">
-        <v>2.7187112448000001</v>
+        <v>0.88803686400000004</v>
       </c>
       <c r="N13" s="10">
-        <v>2.3021603328000002</v>
+        <v>0.67407682560000004</v>
       </c>
       <c r="O13" s="10">
-        <v>2.5105790976</v>
+        <v>0.62774031360000004</v>
       </c>
       <c r="P13" s="10">
-        <v>3.0441177599999998</v>
+        <v>0.72514252800000001</v>
       </c>
       <c r="Q13" s="10">
-        <v>2.8651250687999998</v>
+        <v>0.54571991040000001</v>
       </c>
       <c r="R13" s="10">
-        <v>2.7120235008</v>
+        <v>0.50358712319999999</v>
       </c>
       <c r="S13" s="10">
-        <v>4.3991980032000004</v>
+        <v>0.47951124480000001</v>
       </c>
       <c r="T13" s="10">
-        <v>4.4262355967999998</v>
+        <v>0.70579583999999995</v>
       </c>
       <c r="U13" s="10">
-        <v>4.3102032383999997</v>
+        <v>0.44287196159999997</v>
       </c>
       <c r="V13" s="10">
-        <v>4.6109606400000001</v>
+        <v>0.4028410368</v>
       </c>
       <c r="W13" s="10">
-        <v>4.2237880319999999</v>
+        <v>0.42319088640000002</v>
       </c>
       <c r="X13" s="10">
-        <v>5.0591350272</v>
+        <v>0.54228049919999999</v>
       </c>
       <c r="Y13" s="10">
-        <v>3.8243864063999999</v>
+        <v>0.35153648640000001</v>
       </c>
       <c r="Z13" s="10">
-        <v>4.3762685952</v>
+        <v>0.51385758719999997</v>
       </c>
       <c r="AA13" s="10">
-        <v>6.6092585471999996</v>
+        <v>0.56888816639999995</v>
       </c>
       <c r="AB13" s="10">
-        <v>5.4000188928000004</v>
+        <v>0.31102786560000001</v>
       </c>
       <c r="AC13" s="10">
-        <v>4.8812410367999997</v>
+        <v>0.29903769600000002</v>
       </c>
       <c r="AD13" s="10">
-        <v>10.647127296000001</v>
+        <v>0.60581406719999997</v>
       </c>
       <c r="AE13" s="10">
-        <v>7.2085281792</v>
+        <v>0.2781623808</v>
       </c>
       <c r="AF13" s="10">
-        <v>8.7196239359999996</v>
+        <v>0.2700893184</v>
       </c>
       <c r="AG13" s="10">
-        <v>4.3403936256</v>
+        <v>0.2607264768</v>
       </c>
       <c r="AH13" s="10">
-        <v>8.5638950400000002</v>
+        <v>0.2573348352</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>11.8870350336</v>
+        <v>11.035732992</v>
       </c>
       <c r="C14" s="10">
-        <v>8.9786784768000008</v>
+        <v>8.0439707136000003</v>
       </c>
       <c r="D14" s="10">
-        <v>5.3426953727999997</v>
+        <v>4.1314016255999997</v>
       </c>
       <c r="E14" s="10">
-        <v>3.7555981824</v>
+        <v>2.7921331199999999</v>
       </c>
       <c r="F14" s="10">
-        <v>3.4094118912</v>
+        <v>2.1166232063999999</v>
       </c>
       <c r="G14" s="10">
-        <v>3.0026059776</v>
+        <v>1.7393389055999999</v>
       </c>
       <c r="H14" s="10">
-        <v>2.9053948416000002</v>
+        <v>1.536748032</v>
       </c>
       <c r="I14" s="10">
-        <v>2.5172190720000001</v>
+        <v>1.1661037056000001</v>
       </c>
       <c r="J14" s="10">
-        <v>2.7045714431999999</v>
+        <v>1.1001816576000001</v>
       </c>
       <c r="K14" s="10">
-        <v>2.8223235072000001</v>
+        <v>1.0291004928</v>
       </c>
       <c r="L14" s="10">
-        <v>5.6972891136000001</v>
+        <v>0.89118965760000002</v>
       </c>
       <c r="M14" s="10">
-        <v>2.6217867263999999</v>
+        <v>0.73956894719999999</v>
       </c>
       <c r="N14" s="10">
-        <v>2.6907182592000001</v>
+        <v>0.68492052479999999</v>
       </c>
       <c r="O14" s="10">
-        <v>2.9656323071999999</v>
+        <v>0.62143472639999997</v>
       </c>
       <c r="P14" s="10">
-        <v>2.5507533312000001</v>
+        <v>0.79459952639999998</v>
       </c>
       <c r="Q14" s="10">
-        <v>2.8005405695999999</v>
+        <v>0.54562437119999996</v>
       </c>
       <c r="R14" s="10">
-        <v>2.9140889088000002</v>
+        <v>0.50315719680000004</v>
       </c>
       <c r="S14" s="10">
-        <v>4.1194592256</v>
+        <v>0.49427205120000001</v>
       </c>
       <c r="T14" s="10">
-        <v>3.3740623872</v>
+        <v>0.45643852800000001</v>
       </c>
       <c r="U14" s="10">
-        <v>3.3790781952</v>
+        <v>0.45256919039999999</v>
       </c>
       <c r="V14" s="10">
-        <v>3.8482234368000001</v>
+        <v>0.40494289919999998</v>
       </c>
       <c r="W14" s="10">
-        <v>4.8753176064000003</v>
+        <v>0.40823900159999998</v>
       </c>
       <c r="X14" s="10">
-        <v>4.6809431039999998</v>
+        <v>0.36768261120000001</v>
       </c>
       <c r="Y14" s="10">
-        <v>5.5059718656000003</v>
+        <v>0.59133987840000002</v>
       </c>
       <c r="Z14" s="10">
-        <v>4.2633890303999999</v>
+        <v>0.33677568000000002</v>
       </c>
       <c r="AA14" s="10">
-        <v>3.9180625920000001</v>
+        <v>0.32320911359999999</v>
       </c>
       <c r="AB14" s="10">
-        <v>6.3121794048000002</v>
+        <v>0.3120787968</v>
       </c>
       <c r="AC14" s="10">
-        <v>4.4330666495999997</v>
+        <v>0.29975424000000001</v>
       </c>
       <c r="AD14" s="10">
-        <v>4.1600633856</v>
+        <v>0.29789122559999998</v>
       </c>
       <c r="AE14" s="10">
-        <v>4.441139712</v>
+        <v>0.65845616640000004</v>
       </c>
       <c r="AF14" s="10">
-        <v>8.5547710464000009</v>
+        <v>0.269659392</v>
       </c>
       <c r="AG14" s="10">
-        <v>5.7738637824000003</v>
+        <v>0.26058316799999998</v>
       </c>
       <c r="AH14" s="10">
-        <v>4.4445313536000004</v>
+        <v>0.25303557119999998</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>11.8899967488</v>
+        <v>11.035732992</v>
       </c>
       <c r="C15" s="10">
-        <v>8.9771498496</v>
+        <v>8.0352288767999998</v>
       </c>
       <c r="D15" s="10">
-        <v>5.2904354303999996</v>
+        <v>4.1124370943999997</v>
       </c>
       <c r="E15" s="10">
-        <v>3.8614556160000002</v>
+        <v>2.8475936256000001</v>
       </c>
       <c r="F15" s="10">
-        <v>3.3030767615999999</v>
+        <v>2.0433446399999999</v>
       </c>
       <c r="G15" s="10">
-        <v>2.9517791232000001</v>
+        <v>1.766519808</v>
       </c>
       <c r="H15" s="10">
-        <v>2.6503529472</v>
+        <v>1.4616064512</v>
       </c>
       <c r="I15" s="10">
-        <v>2.7040459775999999</v>
+        <v>1.3092214272</v>
       </c>
       <c r="J15" s="10">
-        <v>2.9194391039999998</v>
+        <v>1.0047857663999999</v>
       </c>
       <c r="K15" s="10">
-        <v>2.8090913280000001</v>
+        <v>0.92075903999999997</v>
       </c>
       <c r="L15" s="10">
-        <v>2.6713715711999999</v>
+        <v>0.91345029119999999</v>
       </c>
       <c r="M15" s="10">
-        <v>2.3969829888</v>
+        <v>0.80835717119999995</v>
       </c>
       <c r="N15" s="10">
-        <v>3.2857363968</v>
+        <v>0.68788223999999998</v>
       </c>
       <c r="O15" s="10">
-        <v>3.0304078847999998</v>
+        <v>0.62272450560000003</v>
       </c>
       <c r="P15" s="10">
-        <v>2.7338064383999998</v>
+        <v>0.57657907200000003</v>
       </c>
       <c r="Q15" s="10">
-        <v>2.6799700992000002</v>
+        <v>0.54586321920000003</v>
       </c>
       <c r="R15" s="10">
-        <v>2.8901563391999998</v>
+        <v>0.67952256</v>
       </c>
       <c r="S15" s="10">
-        <v>4.2664940543999998</v>
+        <v>0.62501744640000001</v>
       </c>
       <c r="T15" s="10">
-        <v>3.9489217536000001</v>
+        <v>0.45744168959999998</v>
       </c>
       <c r="U15" s="10">
-        <v>4.8713049599999998</v>
+        <v>0.4433496576</v>
       </c>
       <c r="V15" s="10">
-        <v>3.8137337856000002</v>
+        <v>0.40546836479999998</v>
       </c>
       <c r="W15" s="10">
-        <v>3.9423773184000002</v>
+        <v>0.3932871168</v>
       </c>
       <c r="X15" s="10">
-        <v>4.4731931135999998</v>
+        <v>0.36763484159999998</v>
       </c>
       <c r="Y15" s="10">
-        <v>5.1434483711999999</v>
+        <v>0.35994393600000002</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.1127237120000002</v>
+        <v>0.34494428160000001</v>
       </c>
       <c r="AA15" s="10">
-        <v>5.9003099136000001</v>
+        <v>0.32277918719999998</v>
       </c>
       <c r="AB15" s="10">
-        <v>4.0348592639999996</v>
+        <v>0.59879193600000002</v>
       </c>
       <c r="AC15" s="10">
-        <v>6.3785791488000001</v>
+        <v>0.29946762240000002</v>
       </c>
       <c r="AD15" s="10">
-        <v>4.6002602495999998</v>
+        <v>0.28828953600000001</v>
       </c>
       <c r="AE15" s="10">
-        <v>4.9113358847999997</v>
+        <v>0.27926108160000002</v>
       </c>
       <c r="AF15" s="10">
-        <v>10.14029184</v>
+        <v>0.26932500479999999</v>
       </c>
       <c r="AG15" s="10">
-        <v>5.4963701760000001</v>
+        <v>0.27868784639999999</v>
       </c>
       <c r="AH15" s="10">
-        <v>9.0147922943999994</v>
+        <v>0.32263587840000002</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>11.8952036352</v>
+        <v>11.0345865216</v>
       </c>
       <c r="C16" s="10">
-        <v>9.0513360384000006</v>
+        <v>8.0369963519999992</v>
       </c>
       <c r="D16" s="10">
-        <v>5.1289264128000003</v>
+        <v>4.1308761599999997</v>
       </c>
       <c r="E16" s="10">
-        <v>3.822045696</v>
+        <v>2.768964864</v>
       </c>
       <c r="F16" s="10">
-        <v>3.2319955968</v>
+        <v>2.0852385791999999</v>
       </c>
       <c r="G16" s="10">
-        <v>3.0219526656000002</v>
+        <v>1.8006273023999999</v>
       </c>
       <c r="H16" s="10">
-        <v>2.7062433792</v>
+        <v>1.4505716736000001</v>
       </c>
       <c r="I16" s="10">
-        <v>2.5580143103999999</v>
+        <v>1.1956253184000001</v>
       </c>
       <c r="J16" s="10">
-        <v>2.6689830911999999</v>
+        <v>1.0895768064</v>
       </c>
       <c r="K16" s="10">
-        <v>2.6089844736000001</v>
+        <v>0.98171304960000005</v>
       </c>
       <c r="L16" s="10">
-        <v>2.7586944</v>
+        <v>0.9108229632</v>
       </c>
       <c r="M16" s="10">
-        <v>2.6108474880000001</v>
+        <v>0.74061987839999999</v>
       </c>
       <c r="N16" s="10">
-        <v>2.3985593856</v>
+        <v>0.67617868800000003</v>
       </c>
       <c r="O16" s="10">
-        <v>2.8321640447999998</v>
+        <v>0.61899847679999997</v>
       </c>
       <c r="P16" s="10">
-        <v>2.994676224</v>
+        <v>0.79574599680000002</v>
       </c>
       <c r="Q16" s="10">
-        <v>2.9415564287999998</v>
+        <v>0.53721692160000001</v>
       </c>
       <c r="R16" s="10">
-        <v>2.5521864191999999</v>
+        <v>0.65281935359999999</v>
       </c>
       <c r="S16" s="10">
-        <v>3.4151442431999999</v>
+        <v>1.4122604543999999</v>
       </c>
       <c r="T16" s="10">
-        <v>3.5156514816</v>
+        <v>0.7248081408</v>
       </c>
       <c r="U16" s="10">
-        <v>3.6838004735999998</v>
+        <v>0.69203819519999998</v>
       </c>
       <c r="V16" s="10">
-        <v>3.8833340928000002</v>
+        <v>0.40298434560000002</v>
       </c>
       <c r="W16" s="10">
-        <v>4.1231852544000001</v>
+        <v>0.3932871168</v>
       </c>
       <c r="X16" s="10">
-        <v>6.1182348288000004</v>
+        <v>0.36663168000000002</v>
       </c>
       <c r="Y16" s="10">
-        <v>3.4839802367999999</v>
+        <v>0.35898854400000002</v>
       </c>
       <c r="Z16" s="10">
-        <v>3.7081151999999999</v>
+        <v>0.33639352319999999</v>
       </c>
       <c r="AA16" s="10">
-        <v>5.7430523903999999</v>
+        <v>0.32354350079999999</v>
       </c>
       <c r="AB16" s="10">
-        <v>7.6283274240000001</v>
+        <v>0.31050240000000001</v>
       </c>
       <c r="AC16" s="10">
-        <v>5.4411962880000004</v>
+        <v>0.29865553919999999</v>
       </c>
       <c r="AD16" s="10">
-        <v>5.3015657471999997</v>
+        <v>0.30625090560000001</v>
       </c>
       <c r="AE16" s="10">
-        <v>5.5417035264000001</v>
+        <v>0.45624744960000002</v>
       </c>
       <c r="AF16" s="10">
-        <v>4.5891299327999997</v>
+        <v>0.269659392</v>
       </c>
       <c r="AG16" s="10">
-        <v>4.7161970687999997</v>
+        <v>0.71066833920000005</v>
       </c>
       <c r="AH16" s="10">
-        <v>5.3074891775999999</v>
+        <v>0.25427758080000001</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>11.895585792</v>
+        <v>11.038455859200001</v>
       </c>
       <c r="C17" s="10">
-        <v>8.9983595520000001</v>
+        <v>8.0241940992000007</v>
       </c>
       <c r="D17" s="10">
-        <v>5.0742302207999996</v>
+        <v>4.2332464127999998</v>
       </c>
       <c r="E17" s="10">
-        <v>3.8730158592000001</v>
+        <v>2.7863052287999999</v>
       </c>
       <c r="F17" s="10">
-        <v>3.1935410688000001</v>
+        <v>2.1197282303999998</v>
       </c>
       <c r="G17" s="10">
-        <v>2.8438198271999999</v>
+        <v>1.7788921343999999</v>
       </c>
       <c r="H17" s="10">
-        <v>2.9513491967999999</v>
+        <v>1.4386292735999999</v>
       </c>
       <c r="I17" s="10">
-        <v>2.6968805375999998</v>
+        <v>1.1758009344</v>
       </c>
       <c r="J17" s="10">
-        <v>2.6958296063999998</v>
+        <v>1.005072384</v>
       </c>
       <c r="K17" s="10">
-        <v>2.5312633344000002</v>
+        <v>1.0409951232000001</v>
       </c>
       <c r="L17" s="10">
-        <v>2.5313111039999998</v>
+        <v>0.99217459200000002</v>
       </c>
       <c r="M17" s="10">
-        <v>2.5352282112000002</v>
+        <v>0.73976002559999998</v>
       </c>
       <c r="N17" s="10">
-        <v>3.5143617024</v>
+        <v>0.86123811839999997</v>
       </c>
       <c r="O17" s="10">
-        <v>2.9009522687999998</v>
+        <v>0.62057487359999997</v>
       </c>
       <c r="P17" s="10">
-        <v>2.9998831103999999</v>
+        <v>0.57581475839999996</v>
       </c>
       <c r="Q17" s="10">
-        <v>2.8328805888000002</v>
+        <v>0.53807677440000001</v>
       </c>
       <c r="R17" s="10">
-        <v>3.2200054271999998</v>
+        <v>0.74821524480000001</v>
       </c>
       <c r="S17" s="10">
-        <v>2.8037889024</v>
+        <v>0.71592299520000002</v>
       </c>
       <c r="T17" s="10">
-        <v>3.3306875904000002</v>
+        <v>0.79808670719999997</v>
       </c>
       <c r="U17" s="10">
-        <v>3.7671106559999998</v>
+        <v>0.62883901440000001</v>
       </c>
       <c r="V17" s="10">
-        <v>3.6696129023999999</v>
+        <v>0.403175424</v>
       </c>
       <c r="W17" s="10">
-        <v>3.7954857984000001</v>
+        <v>0.38540513279999999</v>
       </c>
       <c r="X17" s="10">
-        <v>4.1611143168</v>
+        <v>0.73197358079999997</v>
       </c>
       <c r="Y17" s="10">
-        <v>4.0430756352000001</v>
+        <v>0.35096325119999999</v>
       </c>
       <c r="Z17" s="10">
-        <v>4.1732000255999999</v>
+        <v>0.42467174400000002</v>
       </c>
       <c r="AA17" s="10">
-        <v>4.2224027136000002</v>
+        <v>0.36366996480000002</v>
       </c>
       <c r="AB17" s="10">
-        <v>4.2760479744</v>
+        <v>0.31948308479999998</v>
       </c>
       <c r="AC17" s="10">
-        <v>5.7752491008</v>
+        <v>0.3002797056</v>
       </c>
       <c r="AD17" s="10">
-        <v>4.5959132159999996</v>
+        <v>0.55470059520000004</v>
       </c>
       <c r="AE17" s="10">
-        <v>11.116941312</v>
+        <v>0.28723860480000002</v>
       </c>
       <c r="AF17" s="10">
-        <v>7.9762334207999999</v>
+        <v>0.26932500479999999</v>
       </c>
       <c r="AG17" s="10">
-        <v>7.0762063872000001</v>
+        <v>0.261060864</v>
       </c>
       <c r="AH17" s="10">
-        <v>5.1230985216000002</v>
+        <v>0.25260564479999997</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -5346,135 +5354,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>11.891248312319998</v>
+        <v>11.037146972159999</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>8.9567140147200011</v>
+        <v>8.0472477081600005</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2362169343999998</v>
+        <v>4.1346690662399999</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8707229183999998</v>
+        <v>2.8025946623999998</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>3.3248310374400005</v>
+        <v>2.0942670336</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>2.9547886079999999</v>
+        <v>1.77434446848</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8009704960000001</v>
+        <v>1.4814499430399999</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6293247692799997</v>
+        <v>1.2272965631999999</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6846515200000001</v>
+        <v>1.04250464256</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6934220185600002</v>
+        <v>0.97875133440000006</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>3.2530524364799995</v>
+        <v>0.92357744640000017</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5767113318399999</v>
+        <v>0.78326857727999999</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8383072153600004</v>
+        <v>0.71685927936000005</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8479471206399998</v>
+        <v>0.62229457919999986</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8646473727999995</v>
+        <v>0.69357637632000002</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8240145510400003</v>
+        <v>0.54250023936000003</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8576921190400002</v>
+        <v>0.61746029568000005</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8008168857600007</v>
+        <v>0.74539683840000004</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="1"/>
-        <v>3.7191117619199998</v>
+        <v>0.62851418112000002</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="1"/>
-        <v>4.0022995046399998</v>
+        <v>0.53193360383999999</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="1"/>
-        <v>3.9651729715199999</v>
+        <v>0.40388241408000003</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1920308019200005</v>
+        <v>0.40068185088000002</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>4.8985240780800003</v>
+        <v>0.47524064256000004</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="1"/>
-        <v>4.4001725030400003</v>
+        <v>0.40255441920000001</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1267393126399998</v>
+        <v>0.39132856319999998</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2786172313600002</v>
+        <v>0.38041798656000003</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>5.5302865920000004</v>
+        <v>0.37037681664000005</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="1"/>
-        <v>5.3818664448</v>
+        <v>0.29943896063999997</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="1"/>
-        <v>5.8609859788800005</v>
+        <v>0.41058926592</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="1"/>
-        <v>6.6439297228800003</v>
+        <v>0.39187313664000001</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="1"/>
-        <v>7.9960100351999994</v>
+        <v>0.26961162240000003</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="1"/>
-        <v>5.4806062079999993</v>
+        <v>0.35434533888000003</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="1"/>
-        <v>6.4907612774400008</v>
+        <v>0.26797790208</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -5541,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,515 +5788,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>27.5432825856</v>
+        <v>27.416358758400001</v>
       </c>
       <c r="C13" s="10">
-        <v>28.221419827199998</v>
+        <v>27.676464230400001</v>
       </c>
       <c r="D13" s="10">
-        <v>14.9907692544</v>
+        <v>14.0923186176</v>
       </c>
       <c r="E13" s="10">
-        <v>10.4264795136</v>
+        <v>9.5260225536000007</v>
       </c>
       <c r="F13" s="10">
-        <v>8.1677895167999992</v>
+        <v>7.0270992383999999</v>
       </c>
       <c r="G13" s="10">
-        <v>7.0844227583999997</v>
+        <v>5.8012835328000003</v>
       </c>
       <c r="H13" s="10">
-        <v>5.9958968832000004</v>
+        <v>4.8141725184000004</v>
       </c>
       <c r="I13" s="10">
-        <v>5.5313852927999996</v>
+        <v>4.1277233663999997</v>
       </c>
       <c r="J13" s="10">
-        <v>4.9242336768000001</v>
+        <v>3.6201235968000001</v>
       </c>
       <c r="K13" s="10">
-        <v>4.8917981183999997</v>
+        <v>3.3431076863999998</v>
       </c>
       <c r="L13" s="10">
-        <v>4.5011860991999999</v>
+        <v>3.0532895232000001</v>
       </c>
       <c r="M13" s="10">
-        <v>4.2844076543999998</v>
+        <v>2.8060340735999998</v>
       </c>
       <c r="N13" s="10">
-        <v>4.3531958784000002</v>
+        <v>2.5039391231999999</v>
       </c>
       <c r="O13" s="10">
-        <v>4.2158582783999998</v>
+        <v>2.3238955008</v>
       </c>
       <c r="P13" s="10">
-        <v>4.2079762943999999</v>
+        <v>2.2650911231999999</v>
       </c>
       <c r="Q13" s="10">
-        <v>4.3312218623999996</v>
+        <v>2.0614970879999999</v>
       </c>
       <c r="R13" s="10">
-        <v>4.2988340736000001</v>
+        <v>2.0389498368000001</v>
       </c>
       <c r="S13" s="10">
-        <v>5.3740800000000002</v>
+        <v>1.9728844800000001</v>
       </c>
       <c r="T13" s="10">
-        <v>4.4433371136000002</v>
+        <v>1.7425394688</v>
       </c>
       <c r="U13" s="10">
-        <v>6.55518336</v>
+        <v>1.7598798336000001</v>
       </c>
       <c r="V13" s="10">
-        <v>4.6589690880000001</v>
+        <v>1.5955524096</v>
       </c>
       <c r="W13" s="10">
-        <v>5.0846439936000003</v>
+        <v>1.5903932928</v>
       </c>
       <c r="X13" s="10">
-        <v>3.9862775807999999</v>
+        <v>1.3367844864</v>
       </c>
       <c r="Y13" s="10">
-        <v>8.4351559680000001</v>
+        <v>1.2356562432</v>
       </c>
       <c r="Z13" s="10">
-        <v>10.179224064</v>
+        <v>1.4561129472000001</v>
       </c>
       <c r="AA13" s="10">
-        <v>5.5471970303999996</v>
+        <v>1.391767296</v>
       </c>
       <c r="AB13" s="10">
-        <v>5.6294562815999996</v>
+        <v>1.0562813952000001</v>
       </c>
       <c r="AC13" s="10">
-        <v>5.2622513664000001</v>
+        <v>1.0267120128</v>
       </c>
       <c r="AD13" s="10">
-        <v>6.9538684416000001</v>
+        <v>0.98223851520000005</v>
       </c>
       <c r="AE13" s="10">
-        <v>4.8477067776</v>
+        <v>0.94736670720000005</v>
       </c>
       <c r="AF13" s="10">
-        <v>8.7960075264000004</v>
+        <v>0.99432422399999998</v>
       </c>
       <c r="AG13" s="10">
-        <v>5.4242380800000003</v>
+        <v>0.978321408</v>
       </c>
       <c r="AH13" s="10">
-        <v>6.0790637568000001</v>
+        <v>1.1352923135999999</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>27.554078515200001</v>
+        <v>27.414447974400002</v>
       </c>
       <c r="C14" s="10">
-        <v>28.5147729408</v>
+        <v>27.562342655999998</v>
       </c>
       <c r="D14" s="10">
-        <v>14.9878075392</v>
+        <v>13.955172096</v>
       </c>
       <c r="E14" s="10">
-        <v>10.4201261568</v>
+        <v>9.1917308928000008</v>
       </c>
       <c r="F14" s="10">
-        <v>8.2724527103999996</v>
+        <v>7.0432931327999997</v>
       </c>
       <c r="G14" s="10">
-        <v>6.8514026495999998</v>
+        <v>5.7026393088000003</v>
       </c>
       <c r="H14" s="10">
-        <v>5.9215673856000004</v>
+        <v>4.6739209728000004</v>
       </c>
       <c r="I14" s="10">
-        <v>5.5771485696000003</v>
+        <v>4.121561088</v>
       </c>
       <c r="J14" s="10">
-        <v>4.9479273984000001</v>
+        <v>3.6601067519999999</v>
       </c>
       <c r="K14" s="10">
-        <v>4.4950715904000003</v>
+        <v>3.3294455807999999</v>
       </c>
       <c r="L14" s="10">
-        <v>4.6073301504000002</v>
+        <v>2.9323368959999998</v>
       </c>
       <c r="M14" s="10">
-        <v>4.6178394624000001</v>
+        <v>2.8057474560000002</v>
       </c>
       <c r="N14" s="10">
-        <v>4.3655682047999997</v>
+        <v>2.4959615999999998</v>
       </c>
       <c r="O14" s="10">
-        <v>4.3691986943999996</v>
+        <v>2.2766035967999998</v>
       </c>
       <c r="P14" s="10">
-        <v>4.3355211263999998</v>
+        <v>2.3340704256000002</v>
       </c>
       <c r="Q14" s="10">
-        <v>4.6845735935999997</v>
+        <v>2.1263204351999998</v>
       </c>
       <c r="R14" s="10">
-        <v>4.2784364544000004</v>
+        <v>1.9439361023999999</v>
       </c>
       <c r="S14" s="10">
-        <v>5.2039246847999996</v>
+        <v>1.8001018367999999</v>
       </c>
       <c r="T14" s="10">
-        <v>7.7987693568000003</v>
+        <v>1.8525528576000001</v>
       </c>
       <c r="U14" s="10">
-        <v>8.8838558207999991</v>
+        <v>1.7354695680000001</v>
       </c>
       <c r="V14" s="10">
-        <v>4.5979195392000003</v>
+        <v>1.6935278592</v>
       </c>
       <c r="W14" s="10">
-        <v>4.8423565823999999</v>
+        <v>1.6035777024</v>
       </c>
       <c r="X14" s="10">
-        <v>5.0855038464</v>
+        <v>1.7153585664</v>
       </c>
       <c r="Y14" s="10">
-        <v>5.7825578495999999</v>
+        <v>1.3974996479999999</v>
       </c>
       <c r="Z14" s="10">
-        <v>7.8363162623999996</v>
+        <v>1.5251400192</v>
       </c>
       <c r="AA14" s="10">
-        <v>7.4734583808000004</v>
+        <v>1.0994651136</v>
       </c>
       <c r="AB14" s="10">
-        <v>4.9727675904000002</v>
+        <v>1.0577622527999999</v>
       </c>
       <c r="AC14" s="10">
-        <v>7.8944996351999999</v>
+        <v>1.3668793344000001</v>
       </c>
       <c r="AD14" s="10">
-        <v>4.7290948608000001</v>
+        <v>1.1396871168</v>
       </c>
       <c r="AE14" s="10">
-        <v>6.5436708864000002</v>
+        <v>1.01152128</v>
       </c>
       <c r="AF14" s="10">
-        <v>9.0258270720000002</v>
+        <v>1.2265800192</v>
       </c>
       <c r="AG14" s="10">
-        <v>5.8842593279999997</v>
+        <v>0.8929571328</v>
       </c>
       <c r="AH14" s="10">
-        <v>6.8058304512000003</v>
+        <v>0.91091850240000005</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>27.628264703999999</v>
+        <v>27.407760230400001</v>
       </c>
       <c r="C15" s="10">
-        <v>28.4008902144</v>
+        <v>27.562772582400001</v>
       </c>
       <c r="D15" s="10">
-        <v>15.3565888512</v>
+        <v>13.712980224000001</v>
       </c>
       <c r="E15" s="10">
-        <v>10.2013413888</v>
+        <v>9.2329560575999992</v>
       </c>
       <c r="F15" s="10">
-        <v>8.3057958912000007</v>
+        <v>7.0539457535999999</v>
       </c>
       <c r="G15" s="10">
-        <v>6.8858923008000001</v>
+        <v>5.682432768</v>
       </c>
       <c r="H15" s="10">
-        <v>6.0383162879999999</v>
+        <v>4.7058310656</v>
       </c>
       <c r="I15" s="10">
-        <v>5.4379001856000002</v>
+        <v>4.2122755584</v>
       </c>
       <c r="J15" s="10">
-        <v>5.0647718399999997</v>
+        <v>3.641954304</v>
       </c>
       <c r="K15" s="10">
-        <v>4.6772648447999998</v>
+        <v>3.3048442368000002</v>
       </c>
       <c r="L15" s="10">
-        <v>4.5019026432000002</v>
+        <v>3.0420636671999999</v>
       </c>
       <c r="M15" s="10">
-        <v>4.4807884800000002</v>
+        <v>2.8118141952000002</v>
       </c>
       <c r="N15" s="10">
-        <v>4.2567012864000002</v>
+        <v>2.4961526784000001</v>
       </c>
       <c r="O15" s="10">
-        <v>4.2336763391999996</v>
+        <v>2.220569856</v>
       </c>
       <c r="P15" s="10">
-        <v>3.8386695168</v>
+        <v>2.2351873536000002</v>
       </c>
       <c r="Q15" s="10">
-        <v>4.2735161856000001</v>
+        <v>2.0868627456</v>
       </c>
       <c r="R15" s="10">
-        <v>4.4527477248</v>
+        <v>2.0355104256000001</v>
       </c>
       <c r="S15" s="10">
-        <v>4.9176414719999997</v>
+        <v>1.8984594431999999</v>
       </c>
       <c r="T15" s="10">
-        <v>4.3089612288000003</v>
+        <v>1.5868583424</v>
       </c>
       <c r="U15" s="10">
-        <v>4.9332143616000002</v>
+        <v>1.7314091519999999</v>
       </c>
       <c r="V15" s="10">
-        <v>4.7477727743999996</v>
+        <v>1.8470593536</v>
       </c>
       <c r="W15" s="10">
-        <v>7.2538137599999999</v>
+        <v>1.6275102720000001</v>
       </c>
       <c r="X15" s="10">
-        <v>7.1543096832000002</v>
+        <v>1.3610514432</v>
       </c>
       <c r="Y15" s="10">
-        <v>8.1887126016000007</v>
+        <v>1.4882141184</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.7830267392000003</v>
+        <v>1.5725752319999999</v>
       </c>
       <c r="AA15" s="10">
-        <v>5.3412622848</v>
+        <v>1.3803503615999999</v>
       </c>
       <c r="AB15" s="10">
-        <v>6.0544624128000004</v>
+        <v>1.4395846656</v>
       </c>
       <c r="AC15" s="10">
-        <v>6.0825509375999998</v>
+        <v>1.3307177472</v>
       </c>
       <c r="AD15" s="10">
-        <v>6.8820229631999998</v>
+        <v>1.3144760832</v>
       </c>
       <c r="AE15" s="10">
-        <v>6.8578515456</v>
+        <v>1.2550984704000001</v>
       </c>
       <c r="AF15" s="10">
-        <v>9.2360610816000008</v>
+        <v>0.92577484799999998</v>
       </c>
       <c r="AG15" s="10">
-        <v>5.2375067136000002</v>
+        <v>1.1796225024</v>
       </c>
       <c r="AH15" s="10">
-        <v>5.4106715135999996</v>
+        <v>0.86496414720000003</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>27.5326777344</v>
+        <v>27.416979763200001</v>
       </c>
       <c r="C16" s="10">
-        <v>28.269380505600001</v>
+        <v>27.5039682048</v>
       </c>
       <c r="D16" s="10">
-        <v>14.9644004352</v>
+        <v>13.733521152</v>
       </c>
       <c r="E16" s="10">
-        <v>10.225560575999999</v>
+        <v>9.1393754111999996</v>
       </c>
       <c r="F16" s="10">
-        <v>8.0929823231999993</v>
+        <v>7.1068267008000001</v>
       </c>
       <c r="G16" s="10">
-        <v>6.8552242176</v>
+        <v>5.6949961727999998</v>
       </c>
       <c r="H16" s="10">
-        <v>6.0990792192000001</v>
+        <v>4.76860032</v>
       </c>
       <c r="I16" s="10">
-        <v>5.4294449664000002</v>
+        <v>4.1659868160000002</v>
       </c>
       <c r="J16" s="10">
-        <v>5.1255825408</v>
+        <v>3.6386582016000002</v>
       </c>
       <c r="K16" s="10">
-        <v>4.7658296831999998</v>
+        <v>3.2830135295999998</v>
       </c>
       <c r="L16" s="10">
-        <v>4.6529023487999996</v>
+        <v>2.8973217791999999</v>
       </c>
       <c r="M16" s="10">
-        <v>4.3147413504000003</v>
+        <v>2.7278352384</v>
       </c>
       <c r="N16" s="10">
-        <v>4.5277937664000003</v>
+        <v>2.3244209664</v>
       </c>
       <c r="O16" s="10">
-        <v>4.2885158399999996</v>
+        <v>2.4946240512000002</v>
       </c>
       <c r="P16" s="10">
-        <v>4.2137564159999998</v>
+        <v>2.3582896128000002</v>
       </c>
       <c r="Q16" s="10">
-        <v>4.1778336767999997</v>
+        <v>1.9784735231999999</v>
       </c>
       <c r="R16" s="10">
-        <v>3.9314380799999999</v>
+        <v>2.0474528256000002</v>
       </c>
       <c r="S16" s="10">
-        <v>5.1838136832000004</v>
+        <v>2.015160576</v>
       </c>
       <c r="T16" s="10">
-        <v>4.497030144</v>
+        <v>1.7924109312000001</v>
       </c>
       <c r="U16" s="10">
-        <v>4.6959427584000002</v>
+        <v>1.4767016448000001</v>
       </c>
       <c r="V16" s="10">
-        <v>4.8774672384000004</v>
+        <v>1.3894743552</v>
       </c>
       <c r="W16" s="10">
-        <v>4.7901921792</v>
+        <v>1.3961143296</v>
       </c>
       <c r="X16" s="10">
-        <v>7.1665387008000003</v>
+        <v>1.4623707647999999</v>
       </c>
       <c r="Y16" s="10">
-        <v>4.6356097535999998</v>
+        <v>1.4934687743999999</v>
       </c>
       <c r="Z16" s="10">
-        <v>5.0809657344000003</v>
+        <v>1.3695544319999999</v>
       </c>
       <c r="AA16" s="10">
-        <v>4.6454025216000003</v>
+        <v>1.5078951936</v>
       </c>
       <c r="AB16" s="10">
-        <v>8.4559357439999996</v>
+        <v>1.3518319104000001</v>
       </c>
       <c r="AC16" s="10">
-        <v>6.6006600192000002</v>
+        <v>1.0195943424</v>
       </c>
       <c r="AD16" s="10">
-        <v>4.8421177344000004</v>
+        <v>0.98691993600000005</v>
       </c>
       <c r="AE16" s="10">
-        <v>5.9092428288000001</v>
+        <v>1.2314047487999999</v>
       </c>
       <c r="AF16" s="10">
-        <v>5.2626335231999999</v>
+        <v>0.92415068160000002</v>
       </c>
       <c r="AG16" s="10">
-        <v>6.7060875264000002</v>
+        <v>0.91263820799999995</v>
       </c>
       <c r="AH16" s="10">
-        <v>6.8641571327999999</v>
+        <v>1.2076154880000001</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>27.5254645248</v>
+        <v>27.418030694399999</v>
       </c>
       <c r="C17" s="10">
-        <v>28.392721612799999</v>
+        <v>27.454478899200002</v>
       </c>
       <c r="D17" s="10">
-        <v>15.1678511616</v>
+        <v>13.730081740799999</v>
       </c>
       <c r="E17" s="10">
-        <v>10.5652979712</v>
+        <v>9.3822360576000001</v>
       </c>
       <c r="F17" s="10">
-        <v>8.1568980480000004</v>
+        <v>7.0626875904000004</v>
       </c>
       <c r="G17" s="10">
-        <v>6.9599351807999996</v>
+        <v>5.6668598784000004</v>
       </c>
       <c r="H17" s="10">
-        <v>5.9336530944000003</v>
+        <v>4.7927717375999999</v>
       </c>
       <c r="I17" s="10">
-        <v>5.4632180736000002</v>
+        <v>4.1847602687999998</v>
       </c>
       <c r="J17" s="10">
-        <v>5.0895642623999997</v>
+        <v>3.6410466815999998</v>
       </c>
       <c r="K17" s="10">
-        <v>5.3287944192000003</v>
+        <v>3.2067254784000001</v>
       </c>
       <c r="L17" s="10">
-        <v>5.8237830144</v>
+        <v>2.9058725376000001</v>
       </c>
       <c r="M17" s="10">
-        <v>4.1612576256000002</v>
+        <v>2.9420341248000001</v>
       </c>
       <c r="N17" s="10">
-        <v>4.1366085119999996</v>
+        <v>2.4854045184000002</v>
       </c>
       <c r="O17" s="10">
-        <v>4.3705362432000001</v>
+        <v>2.1784370688000001</v>
       </c>
       <c r="P17" s="10">
-        <v>3.9342087168000002</v>
+        <v>2.2317001728000001</v>
       </c>
       <c r="Q17" s="10">
-        <v>3.8797513727999999</v>
+        <v>2.0938371072000002</v>
       </c>
       <c r="R17" s="10">
-        <v>4.2062565887999996</v>
+        <v>1.9789989887999999</v>
       </c>
       <c r="S17" s="10">
-        <v>4.2224504832000003</v>
+        <v>1.8977906687999999</v>
       </c>
       <c r="T17" s="10">
-        <v>4.6655612927999996</v>
+        <v>1.8795426816</v>
       </c>
       <c r="U17" s="10">
-        <v>6.9462253055999996</v>
+        <v>1.773924096</v>
       </c>
       <c r="V17" s="10">
-        <v>5.7051710976000001</v>
+        <v>2.1020534783999998</v>
       </c>
       <c r="W17" s="10">
-        <v>7.3575215615999996</v>
+        <v>1.3448097792</v>
       </c>
       <c r="X17" s="10">
-        <v>7.6105571328000003</v>
+        <v>1.5302035968000001</v>
       </c>
       <c r="Y17" s="10">
-        <v>6.7790794751999996</v>
+        <v>1.2056569344000001</v>
       </c>
       <c r="Z17" s="10">
-        <v>5.5589961215999999</v>
+        <v>1.161278976</v>
       </c>
       <c r="AA17" s="10">
-        <v>5.4279163392000003</v>
+        <v>1.4524824575999999</v>
       </c>
       <c r="AB17" s="10">
-        <v>5.9407707647999999</v>
+        <v>1.3442843136</v>
       </c>
       <c r="AC17" s="10">
-        <v>9.1399486464000006</v>
+        <v>1.0180657152000001</v>
       </c>
       <c r="AD17" s="10">
-        <v>7.6070699519999998</v>
+        <v>1.2973267968</v>
       </c>
       <c r="AE17" s="10">
-        <v>6.3407456256000003</v>
+        <v>0.95567861759999995</v>
       </c>
       <c r="AF17" s="10">
-        <v>7.6151907840000002</v>
+        <v>1.1555466240000001</v>
       </c>
       <c r="AG17" s="10">
-        <v>9.0071013888000007</v>
+        <v>1.2910212096</v>
       </c>
       <c r="AH17" s="10">
-        <v>5.9294016000000003</v>
+        <v>0.86185912320000002</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -6297,135 +6305,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>27.556753612800001</v>
+        <v>27.414715484160002</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>28.359837020159993</v>
+        <v>27.552005314559999</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>15.093483448320001</v>
+        <v>13.844814766080001</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>10.367761121280001</v>
+        <v>9.2944641945600015</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>8.1991836979200006</v>
+        <v>7.0587704832</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>6.9273754214399998</v>
+        <v>5.7096423321599996</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>5.9977025740799998</v>
+        <v>4.7510593228799998</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>5.4878194175999999</v>
+        <v>4.1624614195199996</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>5.0304159436799996</v>
+        <v>3.6403779072</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>4.8317517311999998</v>
+        <v>3.2934273024</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>4.8174208512000005</v>
+        <v>2.96617688064</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>4.3718069145599996</v>
+        <v>2.8186930175999998</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>4.3279735295999995</v>
+        <v>2.4611757772799998</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>4.2955570790399999</v>
+        <v>2.2988260147200004</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1060264140800005</v>
+        <v>2.2848677375999999</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>4.2693793382400003</v>
+        <v>2.0693981798399999</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="1"/>
-        <v>4.2335425843200003</v>
+        <v>2.0089696358399998</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
-        <v>4.9803820646399997</v>
+        <v>1.9168794009599999</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="1"/>
-        <v>5.1427318272000004</v>
+        <v>1.77078085632</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="1"/>
-        <v>6.4028843212800002</v>
+        <v>1.69547685888</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="1"/>
-        <v>4.9174599475200003</v>
+        <v>1.7255334911999998</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="1"/>
-        <v>5.8657056153600005</v>
+        <v>1.5124810752000002</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>6.2006373887999997</v>
+        <v>1.4811537715200001</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="1"/>
-        <v>6.7642231296000004</v>
+        <v>1.3640991436800001</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="1"/>
-        <v>6.6877057843199994</v>
+        <v>1.41693232128</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="1"/>
-        <v>5.6870473113599997</v>
+        <v>1.3663920844799999</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>6.2106785587199997</v>
+        <v>1.2499489075200001</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="1"/>
-        <v>6.9959821209599991</v>
+        <v>1.1523938304000001</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="1"/>
-        <v>6.2028347904000007</v>
+        <v>1.1441296896000002</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="1"/>
-        <v>6.0998435327999996</v>
+        <v>1.0802139648</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="1"/>
-        <v>7.9871439974400005</v>
+        <v>1.04527527936</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="1"/>
-        <v>6.45183860736</v>
+        <v>1.0509120921600001</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="1"/>
-        <v>6.2178248908800002</v>
+        <v>0.99612991488000002</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -6493,7 +6501,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6731,515 +6739,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>7.0710472704000003</v>
+        <v>7.0251406848000002</v>
       </c>
       <c r="C13" s="10">
-        <v>9.2678756351999994</v>
+        <v>8.0341779455999998</v>
       </c>
       <c r="D13" s="10">
-        <v>5.1840047615999998</v>
+        <v>4.1037430272000002</v>
       </c>
       <c r="E13" s="10">
-        <v>4.0630910976000001</v>
+        <v>2.7229627392000002</v>
       </c>
       <c r="F13" s="10">
-        <v>3.6216044543999999</v>
+        <v>2.1177219072</v>
       </c>
       <c r="G13" s="10">
-        <v>3.0160770048000001</v>
+        <v>1.7419184640000001</v>
       </c>
       <c r="H13" s="10">
-        <v>2.9816828927999999</v>
+        <v>1.4340911616000001</v>
       </c>
       <c r="I13" s="10">
-        <v>2.822227968</v>
+        <v>1.1743200767999999</v>
       </c>
       <c r="J13" s="10">
-        <v>2.5477438464</v>
+        <v>1.0327309823999999</v>
       </c>
       <c r="K13" s="10">
-        <v>2.7362426879999999</v>
+        <v>1.0944015359999999</v>
       </c>
       <c r="L13" s="10">
-        <v>2.5581576192000002</v>
+        <v>0.82627077120000003</v>
       </c>
       <c r="M13" s="10">
-        <v>2.8151580672000001</v>
+        <v>0.73240350720000003</v>
       </c>
       <c r="N13" s="10">
-        <v>3.3545723904</v>
+        <v>0.67641753599999999</v>
       </c>
       <c r="O13" s="10">
-        <v>2.7752226815999999</v>
+        <v>0.81146219519999996</v>
       </c>
       <c r="P13" s="10">
-        <v>3.3892053504000001</v>
+        <v>0.58369674240000002</v>
       </c>
       <c r="Q13" s="10">
-        <v>2.8161134591999999</v>
+        <v>0.53726469119999998</v>
       </c>
       <c r="R13" s="10">
-        <v>2.5473616896000002</v>
+        <v>0.5047813632</v>
       </c>
       <c r="S13" s="10">
-        <v>3.8936045568000002</v>
+        <v>0.4830939648</v>
       </c>
       <c r="T13" s="10">
-        <v>3.4011477503999998</v>
+        <v>0.44884316159999998</v>
       </c>
       <c r="U13" s="10">
-        <v>3.6515559936000002</v>
+        <v>0.4509927936</v>
       </c>
       <c r="V13" s="10">
-        <v>3.9422340095999999</v>
+        <v>0.43169387520000002</v>
       </c>
       <c r="W13" s="10">
-        <v>4.1131058688</v>
+        <v>0.67737292800000004</v>
       </c>
       <c r="X13" s="10">
-        <v>4.2696468479999998</v>
+        <v>0.37059655679999998</v>
       </c>
       <c r="Y13" s="10">
-        <v>3.9480619008</v>
+        <v>0.3517275648</v>
       </c>
       <c r="Z13" s="10">
-        <v>3.4734231551999999</v>
+        <v>0.33634575360000002</v>
       </c>
       <c r="AA13" s="10">
-        <v>4.1614487039999997</v>
+        <v>0.3319509504</v>
       </c>
       <c r="AB13" s="10">
-        <v>3.9902902272</v>
+        <v>0.31284311040000001</v>
       </c>
       <c r="AC13" s="10">
-        <v>4.7808771072000003</v>
+        <v>0.29894215680000003</v>
       </c>
       <c r="AD13" s="10">
-        <v>5.4133943807999998</v>
+        <v>0.29010478080000002</v>
       </c>
       <c r="AE13" s="10">
-        <v>7.0484044800000003</v>
+        <v>0.27878338559999999</v>
       </c>
       <c r="AF13" s="10">
-        <v>7.5031233023999997</v>
+        <v>0.27109248000000002</v>
       </c>
       <c r="AG13" s="10">
-        <v>7.4063898624000002</v>
+        <v>0.26053539840000001</v>
       </c>
       <c r="AH13" s="10">
-        <v>7.8526056960000004</v>
+        <v>0.2780668416</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>7.0801234944000004</v>
+        <v>7.0281979392</v>
       </c>
       <c r="C14" s="10">
-        <v>9.0464157695999994</v>
+        <v>8.0836672511999996</v>
       </c>
       <c r="D14" s="10">
-        <v>5.2340673023999997</v>
+        <v>4.1217043968000002</v>
       </c>
       <c r="E14" s="10">
-        <v>3.7772855808000001</v>
+        <v>2.7181380096000001</v>
       </c>
       <c r="F14" s="10">
-        <v>3.2949559295999999</v>
+        <v>2.1144258048000002</v>
       </c>
       <c r="G14" s="10">
-        <v>3.0536239103999998</v>
+        <v>1.6815376896000001</v>
       </c>
       <c r="H14" s="10">
-        <v>2.8602048</v>
+        <v>1.4578326528000001</v>
       </c>
       <c r="I14" s="10">
-        <v>2.784251136</v>
+        <v>1.1653393919999999</v>
       </c>
       <c r="J14" s="10">
-        <v>2.6742377471999998</v>
+        <v>1.1761353215999999</v>
       </c>
       <c r="K14" s="10">
-        <v>2.6969283071999999</v>
+        <v>0.90122127360000004</v>
       </c>
       <c r="L14" s="10">
-        <v>2.3774929920000001</v>
+        <v>0.81299082239999998</v>
       </c>
       <c r="M14" s="10">
-        <v>2.5863416832000001</v>
+        <v>0.73254681600000005</v>
       </c>
       <c r="N14" s="10">
-        <v>2.7893624832000001</v>
+        <v>0.77510952960000001</v>
       </c>
       <c r="O14" s="10">
-        <v>3.0243411455999998</v>
+        <v>0.62358435840000004</v>
       </c>
       <c r="P14" s="10">
-        <v>2.8271004672000002</v>
+        <v>0.57509821439999997</v>
       </c>
       <c r="Q14" s="10">
-        <v>2.8421001216000001</v>
+        <v>0.53716915200000004</v>
       </c>
       <c r="R14" s="10">
-        <v>2.7802384895999999</v>
+        <v>0.51524290559999997</v>
       </c>
       <c r="S14" s="10">
-        <v>3.3731069952000001</v>
+        <v>0.47439989760000001</v>
       </c>
       <c r="T14" s="10">
-        <v>3.3877244927999999</v>
+        <v>0.47602406400000002</v>
       </c>
       <c r="U14" s="10">
-        <v>3.7132743168000002</v>
+        <v>0.42385966079999998</v>
       </c>
       <c r="V14" s="10">
-        <v>3.9198778368</v>
+        <v>0.46274411519999997</v>
       </c>
       <c r="W14" s="10">
-        <v>3.7426048511999999</v>
+        <v>0.6271193088</v>
       </c>
       <c r="X14" s="10">
-        <v>5.2620602879999998</v>
+        <v>0.36634506239999998</v>
       </c>
       <c r="Y14" s="10">
-        <v>3.8630797823999998</v>
+        <v>0.59540029439999997</v>
       </c>
       <c r="Z14" s="10">
-        <v>3.6623996928000002</v>
+        <v>0.33668014080000003</v>
       </c>
       <c r="AA14" s="10">
-        <v>4.2524497920000002</v>
+        <v>0.32416450559999999</v>
       </c>
       <c r="AB14" s="10">
-        <v>6.9906988031999999</v>
+        <v>0.31403735040000003</v>
       </c>
       <c r="AC14" s="10">
-        <v>5.4265787903999998</v>
+        <v>0.29975424000000001</v>
       </c>
       <c r="AD14" s="10">
-        <v>5.5523083776000002</v>
+        <v>0.28881500160000001</v>
       </c>
       <c r="AE14" s="10">
-        <v>6.7316920319999998</v>
+        <v>0.27949992959999997</v>
       </c>
       <c r="AF14" s="10">
-        <v>7.1169060864000002</v>
+        <v>0.26961162239999997</v>
       </c>
       <c r="AG14" s="10">
-        <v>7.4809582079999997</v>
+        <v>0.26086978560000001</v>
       </c>
       <c r="AH14" s="10">
-        <v>4.497030144</v>
+        <v>0.25370434559999999</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>7.0773528576000002</v>
+        <v>7.024997376</v>
       </c>
       <c r="C15" s="10">
-        <v>9.0577371648000007</v>
+        <v>8.0486999039999993</v>
       </c>
       <c r="D15" s="10">
-        <v>5.1031308288000004</v>
+        <v>4.0976762879999997</v>
       </c>
       <c r="E15" s="10">
-        <v>3.8472202752000002</v>
+        <v>2.7339975168000001</v>
       </c>
       <c r="F15" s="10">
-        <v>3.2759436287999999</v>
+        <v>2.1203014655999999</v>
       </c>
       <c r="G15" s="10">
-        <v>3.1141479936000001</v>
+        <v>1.7163139584</v>
       </c>
       <c r="H15" s="10">
-        <v>3.0676681727999999</v>
+        <v>1.4441227776000001</v>
       </c>
       <c r="I15" s="10">
-        <v>2.5577754624</v>
+        <v>1.1899885055999999</v>
       </c>
       <c r="J15" s="10">
-        <v>2.5154038272000001</v>
+        <v>1.1049586175999999</v>
       </c>
       <c r="K15" s="10">
-        <v>2.6378373119999998</v>
+        <v>1.0455810048</v>
       </c>
       <c r="L15" s="10">
-        <v>2.3794515455999998</v>
+        <v>0.81289528320000004</v>
       </c>
       <c r="M15" s="10">
-        <v>2.5305945599999999</v>
+        <v>0.73283343359999997</v>
       </c>
       <c r="N15" s="10">
-        <v>2.8487400960000002</v>
+        <v>0.80477445120000002</v>
       </c>
       <c r="O15" s="10">
-        <v>2.7700157952</v>
+        <v>0.62282004479999997</v>
       </c>
       <c r="P15" s="10">
-        <v>2.8117664256000001</v>
+        <v>0.59363281919999999</v>
       </c>
       <c r="Q15" s="10">
-        <v>3.1997511167999999</v>
+        <v>0.54858608639999995</v>
       </c>
       <c r="R15" s="10">
-        <v>2.7348573695999998</v>
+        <v>0.5028705792</v>
       </c>
       <c r="S15" s="10">
-        <v>3.0696744960000002</v>
+        <v>0.50454251520000004</v>
       </c>
       <c r="T15" s="10">
-        <v>3.3365632511999999</v>
+        <v>0.46766438399999999</v>
       </c>
       <c r="U15" s="10">
-        <v>3.7459009536000001</v>
+        <v>0.44201210880000003</v>
       </c>
       <c r="V15" s="10">
-        <v>4.7126143487999999</v>
+        <v>0.42323865599999999</v>
       </c>
       <c r="W15" s="10">
-        <v>4.2283261440000004</v>
+        <v>0.66371082240000001</v>
       </c>
       <c r="X15" s="10">
-        <v>3.9468198912000001</v>
+        <v>0.3669182976</v>
       </c>
       <c r="Y15" s="10">
-        <v>4.9806018048</v>
+        <v>0.35153648640000001</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.1159242752000003</v>
+        <v>0.33629798399999999</v>
       </c>
       <c r="AA15" s="10">
-        <v>3.8388605951999999</v>
+        <v>0.32383011839999998</v>
       </c>
       <c r="AB15" s="10">
-        <v>4.8526270464000003</v>
+        <v>0.31222210560000002</v>
       </c>
       <c r="AC15" s="10">
-        <v>5.6002690560000001</v>
+        <v>0.29870330880000001</v>
       </c>
       <c r="AD15" s="10">
-        <v>6.5615844864000001</v>
+        <v>0.28824176639999999</v>
       </c>
       <c r="AE15" s="10">
-        <v>8.3614952448000004</v>
+        <v>0.45070617600000001</v>
       </c>
       <c r="AF15" s="10">
-        <v>5.6890249728000004</v>
+        <v>0.26937277440000001</v>
       </c>
       <c r="AG15" s="10">
-        <v>5.316995328</v>
+        <v>0.26096532480000001</v>
       </c>
       <c r="AH15" s="10">
-        <v>5.2035902975999999</v>
+        <v>0.25375211520000002</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>7.0798846464</v>
+        <v>7.0259527679999998</v>
       </c>
       <c r="C16" s="10">
-        <v>8.9722295808000005</v>
+        <v>8.0444006399999992</v>
       </c>
       <c r="D16" s="10">
-        <v>5.2187810303999997</v>
+        <v>4.1325003263999998</v>
       </c>
       <c r="E16" s="10">
-        <v>3.844975104</v>
+        <v>2.7146030591999999</v>
       </c>
       <c r="F16" s="10">
-        <v>3.4886616575999998</v>
+        <v>2.1363998207999999</v>
       </c>
       <c r="G16" s="10">
-        <v>3.0138796031999999</v>
+        <v>1.7723476992</v>
       </c>
       <c r="H16" s="10">
-        <v>2.7168482304000001</v>
+        <v>1.47846912</v>
       </c>
       <c r="I16" s="10">
-        <v>2.7451278335999998</v>
+        <v>1.1487633408</v>
       </c>
       <c r="J16" s="10">
-        <v>2.7601274880000002</v>
+        <v>1.0936372223999999</v>
       </c>
       <c r="K16" s="10">
-        <v>2.6994600960000001</v>
+        <v>1.0540362240000001</v>
       </c>
       <c r="L16" s="10">
-        <v>2.3496910847999999</v>
+        <v>0.81275197440000002</v>
       </c>
       <c r="M16" s="10">
-        <v>2.6156722175999998</v>
+        <v>0.73235573759999995</v>
       </c>
       <c r="N16" s="10">
-        <v>2.7214818815999999</v>
+        <v>0.6724048896</v>
       </c>
       <c r="O16" s="10">
-        <v>2.9372093952</v>
+        <v>0.62721484800000005</v>
       </c>
       <c r="P16" s="10">
-        <v>3.3042710016000001</v>
+        <v>0.60586183680000005</v>
       </c>
       <c r="Q16" s="10">
-        <v>3.0257742336</v>
+        <v>0.53683476480000003</v>
       </c>
       <c r="R16" s="10">
-        <v>2.9748518399999999</v>
+        <v>0.51161241599999996</v>
       </c>
       <c r="S16" s="10">
-        <v>3.6155854848</v>
+        <v>0.60371220479999999</v>
       </c>
       <c r="T16" s="10">
-        <v>3.2138909184000002</v>
+        <v>0.46389058560000002</v>
       </c>
       <c r="U16" s="10">
-        <v>4.5463761407999996</v>
+        <v>0.43761730560000001</v>
       </c>
       <c r="V16" s="10">
-        <v>4.0562600448000001</v>
+        <v>0.62396651520000002</v>
       </c>
       <c r="W16" s="10">
-        <v>5.9318378495999999</v>
+        <v>0.38406758400000002</v>
       </c>
       <c r="X16" s="10">
-        <v>4.5958654464000004</v>
+        <v>0.37666329599999998</v>
       </c>
       <c r="Y16" s="10">
-        <v>4.0644764159999998</v>
+        <v>0.35946623999999999</v>
       </c>
       <c r="Z16" s="10">
-        <v>4.6767393791999998</v>
+        <v>0.36825584639999998</v>
       </c>
       <c r="AA16" s="10">
-        <v>3.8116319232000002</v>
+        <v>0.34074055679999998</v>
       </c>
       <c r="AB16" s="10">
-        <v>6.0224567807999998</v>
+        <v>0.31045463039999999</v>
       </c>
       <c r="AC16" s="10">
-        <v>4.3848193536000002</v>
+        <v>0.30023193599999998</v>
       </c>
       <c r="AD16" s="10">
-        <v>8.1117080064000007</v>
+        <v>0.2885761536</v>
       </c>
       <c r="AE16" s="10">
-        <v>5.1568238592000002</v>
+        <v>0.59372835840000004</v>
       </c>
       <c r="AF16" s="10">
-        <v>4.9668919296</v>
+        <v>0.2692294656</v>
       </c>
       <c r="AG16" s="10">
-        <v>6.4780354559999997</v>
+        <v>0.26134748159999999</v>
       </c>
       <c r="AH16" s="10">
-        <v>4.1959861248000001</v>
+        <v>0.25427758080000001</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>7.0796935679999997</v>
+        <v>7.0226566655999996</v>
       </c>
       <c r="C17" s="10">
-        <v>9.1926862848000006</v>
+        <v>8.044878336</v>
       </c>
       <c r="D17" s="10">
-        <v>5.1797532671999997</v>
+        <v>4.1199369215999999</v>
       </c>
       <c r="E17" s="10">
-        <v>4.1329302527999996</v>
+        <v>2.7677228544000001</v>
       </c>
       <c r="F17" s="10">
-        <v>3.3372797952000002</v>
+        <v>2.1091233792000001</v>
       </c>
       <c r="G17" s="10">
-        <v>3.1558030848</v>
+        <v>1.7357561855999999</v>
       </c>
       <c r="H17" s="10">
-        <v>2.5869149184000002</v>
+        <v>1.4209545215999999</v>
       </c>
       <c r="I17" s="10">
-        <v>2.8668447744000001</v>
+        <v>1.2702892031999999</v>
       </c>
       <c r="J17" s="10">
-        <v>2.4737487360000001</v>
+        <v>1.1865013248</v>
       </c>
       <c r="K17" s="10">
-        <v>3.1310106624</v>
+        <v>1.0876660224000001</v>
       </c>
       <c r="L17" s="10">
-        <v>2.555434752</v>
+        <v>0.80582538240000001</v>
       </c>
       <c r="M17" s="10">
-        <v>2.5881569280000001</v>
+        <v>0.84160481279999999</v>
       </c>
       <c r="N17" s="10">
-        <v>2.8098556416</v>
+        <v>0.813993984</v>
       </c>
       <c r="O17" s="10">
-        <v>3.1066003968000002</v>
+        <v>0.63910947839999999</v>
       </c>
       <c r="P17" s="10">
-        <v>3.1963117055999999</v>
+        <v>0.57614914559999997</v>
       </c>
       <c r="Q17" s="10">
-        <v>3.057970944</v>
+        <v>0.53888885760000005</v>
       </c>
       <c r="R17" s="10">
-        <v>3.3499865087999998</v>
+        <v>0.51156464639999999</v>
       </c>
       <c r="S17" s="10">
-        <v>3.278905344</v>
+        <v>0.47358781439999997</v>
       </c>
       <c r="T17" s="10">
-        <v>3.723162624</v>
+        <v>0.47000509439999999</v>
       </c>
       <c r="U17" s="10">
-        <v>3.9024419328</v>
+        <v>0.4240029696</v>
       </c>
       <c r="V17" s="10">
-        <v>6.3899960831999998</v>
+        <v>0.40456074240000001</v>
       </c>
       <c r="W17" s="10">
-        <v>3.8904995327999998</v>
+        <v>0.38421089279999998</v>
       </c>
       <c r="X17" s="10">
-        <v>8.5264436735999993</v>
+        <v>0.57046456320000005</v>
       </c>
       <c r="Y17" s="10">
-        <v>3.7635757056000001</v>
+        <v>0.58020956160000003</v>
       </c>
       <c r="Z17" s="10">
-        <v>4.1538055680000001</v>
+        <v>0.3456608256</v>
       </c>
       <c r="AA17" s="10">
-        <v>5.3387304960000002</v>
+        <v>0.47205918720000001</v>
       </c>
       <c r="AB17" s="10">
-        <v>4.6001169408000004</v>
+        <v>0.31059793920000001</v>
       </c>
       <c r="AC17" s="10">
-        <v>5.6955216383999998</v>
+        <v>0.3078273024</v>
       </c>
       <c r="AD17" s="10">
-        <v>4.4312514048000002</v>
+        <v>0.54333143039999998</v>
       </c>
       <c r="AE17" s="10">
-        <v>7.0616366592000004</v>
+        <v>0.28255718400000002</v>
       </c>
       <c r="AF17" s="10">
-        <v>4.5719806464000001</v>
+        <v>0.38454527999999999</v>
       </c>
       <c r="AG17" s="10">
-        <v>5.0111743488</v>
+        <v>0.64431636479999999</v>
       </c>
       <c r="AH17" s="10">
-        <v>5.9690025984000004</v>
+        <v>0.2525578752</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -7248,135 +7256,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>7.0776203673600007</v>
+        <v>7.0253890867199997</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>9.107388887039999</v>
+        <v>8.0511648153599999</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>5.1839474380799997</v>
+        <v>4.1151121919999998</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>3.9331004620800001</v>
+        <v>2.7314848358400003</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>3.4036890931199997</v>
+        <v>2.11959447552</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>3.0707063193600002</v>
+        <v>1.7295747993599999</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8426638028799998</v>
+        <v>1.44709404672</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>2.75524543488</v>
+        <v>1.1897401036799999</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5942523289600006</v>
+        <v>1.1187926937600001</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>2.7802958131199995</v>
+        <v>1.0365812121600002</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>2.4440455987199998</v>
+        <v>0.81414684672000015</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6271846912000001</v>
+        <v>0.75434886143999991</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>2.9048024985599996</v>
+        <v>0.74854007808000012</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>2.92267788288</v>
+        <v>0.66483818496000002</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>3.1057309900800001</v>
+        <v>0.58688775168000007</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>2.98834197504</v>
+        <v>0.53974871039999994</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8774591795199997</v>
+        <v>0.50921438208000003</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
-        <v>3.4461753753600006</v>
+        <v>0.50786727935999998</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="1"/>
-        <v>3.4124978073599999</v>
+        <v>0.46528545791999998</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="1"/>
-        <v>3.9119098675199999</v>
+        <v>0.43569696768000005</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="1"/>
-        <v>4.6041964646399993</v>
+        <v>0.46924078079999998</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="1"/>
-        <v>4.3812748492799996</v>
+        <v>0.5472963072</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>5.32016722944</v>
+        <v>0.41019755520000006</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1239591219200005</v>
+        <v>0.44766802943999995</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="1"/>
-        <v>4.0164584140800006</v>
+        <v>0.34464811007999996</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="1"/>
-        <v>4.2806243020800006</v>
+        <v>0.35854906368</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2912379596800001</v>
+        <v>0.31203102720000003</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="1"/>
-        <v>5.1776131891199997</v>
+        <v>0.30109178880000004</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="1"/>
-        <v>6.0140493312000007</v>
+        <v>0.33981382656000003</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="1"/>
-        <v>6.8720104550399999</v>
+        <v>0.37705500671999997</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="1"/>
-        <v>5.9695853875199996</v>
+        <v>0.29277032448000001</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="1"/>
-        <v>6.3387106406400004</v>
+        <v>0.33760687104000003</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="1"/>
-        <v>5.5436429721599998</v>
+        <v>0.25847175167999997</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -7444,7 +7452,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,515 +7690,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>4.3606957056000004</v>
+        <v>5.3453227007999997</v>
       </c>
       <c r="C13" s="10">
-        <v>8.0411045376000008</v>
+        <v>7.0217968127999999</v>
       </c>
       <c r="D13" s="10">
-        <v>4.7762434560000004</v>
+        <v>3.5333740032000001</v>
       </c>
       <c r="E13" s="10">
-        <v>3.7255033343999999</v>
+        <v>2.4650546688000001</v>
       </c>
       <c r="F13" s="10">
-        <v>2.9025764351999999</v>
+        <v>1.8899564544</v>
       </c>
       <c r="G13" s="10">
-        <v>2.9001401856000002</v>
+        <v>1.4335179264</v>
       </c>
       <c r="H13" s="10">
-        <v>2.8121485823999999</v>
+        <v>1.29694464</v>
       </c>
       <c r="I13" s="10">
-        <v>2.6439040511999998</v>
+        <v>1.0700390399999999</v>
       </c>
       <c r="J13" s="10">
-        <v>2.4043395072</v>
+        <v>1.0703256576</v>
       </c>
       <c r="K13" s="10">
-        <v>2.5875359231999999</v>
+        <v>0.79264097280000001</v>
       </c>
       <c r="L13" s="10">
-        <v>2.6005770240000001</v>
+        <v>0.72041333760000004</v>
       </c>
       <c r="M13" s="10">
-        <v>2.5827111935999998</v>
+        <v>0.8598050304</v>
       </c>
       <c r="N13" s="10">
-        <v>2.6407512575999998</v>
+        <v>0.59578245119999995</v>
       </c>
       <c r="O13" s="10">
-        <v>2.6646360576000001</v>
+        <v>0.54337919999999995</v>
       </c>
       <c r="P13" s="10">
-        <v>2.5808959487999998</v>
+        <v>0.73020610559999999</v>
       </c>
       <c r="Q13" s="10">
-        <v>2.8621155840000001</v>
+        <v>0.47903354879999999</v>
       </c>
       <c r="R13" s="10">
-        <v>3.1143390719999999</v>
+        <v>0.43322240309999999</v>
       </c>
       <c r="S13" s="10">
-        <v>3.9204510720000001</v>
+        <v>0.43317473280000002</v>
       </c>
       <c r="T13" s="10">
-        <v>3.5675770367999999</v>
+        <v>0.40007039999999999</v>
       </c>
       <c r="U13" s="10">
-        <v>4.5148959743999999</v>
+        <v>0.3716952576</v>
       </c>
       <c r="V13" s="10">
-        <v>3.4557484031999999</v>
+        <v>0.37131310080000002</v>
       </c>
       <c r="W13" s="10">
-        <v>5.3183806463999996</v>
+        <v>0.34685506560000001</v>
       </c>
       <c r="X13" s="10">
-        <v>2.9921922047999998</v>
+        <v>0.32220595200000002</v>
       </c>
       <c r="Y13" s="10">
-        <v>4.7501134848</v>
+        <v>0.31126671360000002</v>
       </c>
       <c r="Z13" s="10">
-        <v>6.8511638016000003</v>
+        <v>0.2941174272</v>
       </c>
       <c r="AA13" s="10">
-        <v>3.3329805312</v>
+        <v>0.53148456960000001</v>
       </c>
       <c r="AB13" s="10">
-        <v>4.6439216639999996</v>
+        <v>0.27214341120000002</v>
       </c>
       <c r="AC13" s="10">
-        <v>4.4422384128000001</v>
+        <v>0.26258949120000002</v>
       </c>
       <c r="AD13" s="10">
-        <v>7.8011100671999998</v>
+        <v>0.25704821760000002</v>
       </c>
       <c r="AE13" s="10">
-        <v>4.4545629696000004</v>
+        <v>0.24400711680000001</v>
       </c>
       <c r="AF13" s="10">
-        <v>7.1230683647999999</v>
+        <v>0.23684167680000001</v>
       </c>
       <c r="AG13" s="10">
-        <v>5.4412918271999997</v>
+        <v>0.22886415360000001</v>
       </c>
       <c r="AH13" s="10">
-        <v>7.816539648</v>
+        <v>0.22122101759999999</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>4.3563009024000001</v>
+        <v>5.3348133887999998</v>
       </c>
       <c r="C14" s="10">
-        <v>8.0137325568000009</v>
+        <v>7.0237075967999996</v>
       </c>
       <c r="D14" s="10">
-        <v>4.7012929536000003</v>
+        <v>3.5255875583999998</v>
       </c>
       <c r="E14" s="10">
-        <v>3.6019711488000001</v>
+        <v>2.4062025216</v>
       </c>
       <c r="F14" s="10">
-        <v>2.8324506623999999</v>
+        <v>1.8985072128</v>
       </c>
       <c r="G14" s="10">
-        <v>2.7377713151999998</v>
+        <v>1.4597434368</v>
       </c>
       <c r="H14" s="10">
-        <v>2.771353344</v>
+        <v>1.3026292224</v>
       </c>
       <c r="I14" s="10">
-        <v>2.4737009664</v>
+        <v>1.1173309440000001</v>
       </c>
       <c r="J14" s="10">
-        <v>2.2017008640000002</v>
+        <v>0.90771793919999999</v>
       </c>
       <c r="K14" s="10">
-        <v>2.4140367359999999</v>
+        <v>0.8112233472</v>
       </c>
       <c r="L14" s="10">
-        <v>2.2267321344000002</v>
+        <v>0.83849978879999998</v>
       </c>
       <c r="M14" s="10">
-        <v>2.5316454911999999</v>
+        <v>0.64837678080000005</v>
       </c>
       <c r="N14" s="10">
-        <v>2.7076764672000002</v>
+        <v>0.59645122559999997</v>
       </c>
       <c r="O14" s="10">
-        <v>4.7471995392000004</v>
+        <v>0.58861701119999998</v>
       </c>
       <c r="P14" s="10">
-        <v>2.9275121664000001</v>
+        <v>0.50282280960000003</v>
       </c>
       <c r="Q14" s="10">
-        <v>2.6306241024000001</v>
+        <v>0.4788424704</v>
       </c>
       <c r="R14" s="10">
-        <v>2.7359083007999998</v>
+        <v>0.44279855359999998</v>
       </c>
       <c r="S14" s="10">
-        <v>3.1962639359999998</v>
+        <v>0.41526113279999999</v>
       </c>
       <c r="T14" s="10">
-        <v>3.4822127616</v>
+        <v>0.5969289216</v>
       </c>
       <c r="U14" s="10">
-        <v>6.3679742976</v>
+        <v>0.38167910399999999</v>
       </c>
       <c r="V14" s="10">
-        <v>4.3591670783999996</v>
+        <v>0.3522530304</v>
       </c>
       <c r="W14" s="10">
-        <v>5.2335896063999998</v>
+        <v>0.34637736959999998</v>
       </c>
       <c r="X14" s="10">
-        <v>4.5866936832</v>
+        <v>0.33930746880000001</v>
       </c>
       <c r="Y14" s="10">
-        <v>7.4996361216</v>
+        <v>0.31594813440000002</v>
       </c>
       <c r="Z14" s="10">
-        <v>3.8441152511999999</v>
+        <v>0.29550274560000001</v>
       </c>
       <c r="AA14" s="10">
-        <v>4.6625040383999998</v>
+        <v>0.28384696320000002</v>
       </c>
       <c r="AB14" s="10">
-        <v>4.3767462911999999</v>
+        <v>0.27171348480000002</v>
       </c>
       <c r="AC14" s="10">
-        <v>4.3901695488000003</v>
+        <v>0.2615863296</v>
       </c>
       <c r="AD14" s="10">
-        <v>5.1888294911999999</v>
+        <v>0.25251010559999998</v>
       </c>
       <c r="AE14" s="10">
-        <v>4.2814937088000002</v>
+        <v>0.25336995839999998</v>
       </c>
       <c r="AF14" s="10">
-        <v>6.5972206079999998</v>
+        <v>0.43236264959999998</v>
       </c>
       <c r="AG14" s="10">
-        <v>8.2671025151999995</v>
+        <v>0.22838645760000001</v>
       </c>
       <c r="AH14" s="10">
-        <v>7.2915517440000004</v>
+        <v>0.221889792</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>4.1239973375999996</v>
+        <v>4.9240903679999999</v>
       </c>
       <c r="C15" s="10">
-        <v>8.0774094335999997</v>
+        <v>7.0309208064000002</v>
       </c>
       <c r="D15" s="10">
-        <v>4.6674243072000001</v>
+        <v>3.5150304767999998</v>
       </c>
       <c r="E15" s="10">
-        <v>3.5185654272</v>
+        <v>2.4083521536000001</v>
       </c>
       <c r="F15" s="10">
-        <v>3.0536716799999999</v>
+        <v>1.8797815296</v>
       </c>
       <c r="G15" s="10">
-        <v>2.8442497536000002</v>
+        <v>1.4402056703999999</v>
       </c>
       <c r="H15" s="10">
-        <v>2.9622406656</v>
+        <v>1.1980137984000001</v>
       </c>
       <c r="I15" s="10">
-        <v>2.6461492224000001</v>
+        <v>1.1602758144</v>
       </c>
       <c r="J15" s="10">
-        <v>2.4154220544</v>
+        <v>0.88015487999999997</v>
       </c>
       <c r="K15" s="10">
-        <v>2.6063571456000001</v>
+        <v>0.81351628799999998</v>
       </c>
       <c r="L15" s="10">
-        <v>2.4395457023999998</v>
+        <v>0.71262689280000002</v>
       </c>
       <c r="M15" s="10">
-        <v>3.1700861952000001</v>
+        <v>0.65826508800000005</v>
       </c>
       <c r="N15" s="10">
-        <v>2.7191889408000001</v>
+        <v>0.59606906879999999</v>
       </c>
       <c r="O15" s="10">
-        <v>2.5583964672000001</v>
+        <v>0.68358297599999995</v>
       </c>
       <c r="P15" s="10">
-        <v>2.789266944</v>
+        <v>0.50420812800000003</v>
       </c>
       <c r="Q15" s="10">
-        <v>2.9754250752</v>
+        <v>0.47148595199999999</v>
       </c>
       <c r="R15" s="10">
-        <v>3.2641923072000001</v>
+        <v>0.44029240320000002</v>
       </c>
       <c r="S15" s="10">
-        <v>3.1822196736000001</v>
+        <v>0.43379573760000001</v>
       </c>
       <c r="T15" s="10">
-        <v>4.4063634432000001</v>
+        <v>0.40112133119999999</v>
       </c>
       <c r="U15" s="10">
-        <v>3.6652658688000002</v>
+        <v>0.412729344</v>
       </c>
       <c r="V15" s="10">
-        <v>3.3746356224</v>
+        <v>0.35440266240000001</v>
       </c>
       <c r="W15" s="10">
-        <v>3.5473227264</v>
+        <v>0.33639352319999999</v>
       </c>
       <c r="X15" s="10">
-        <v>3.5929426944</v>
+        <v>0.32139386879999998</v>
       </c>
       <c r="Y15" s="10">
-        <v>3.7073986560000001</v>
+        <v>0.56067179519999999</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.7192543232000004</v>
+        <v>0.29440404479999999</v>
       </c>
       <c r="AA15" s="10">
-        <v>5.484188928</v>
+        <v>0.28470681599999997</v>
       </c>
       <c r="AB15" s="10">
-        <v>4.1217521664000003</v>
+        <v>0.27171348480000002</v>
       </c>
       <c r="AC15" s="10">
-        <v>5.0006172672</v>
+        <v>0.26602890239999999</v>
       </c>
       <c r="AD15" s="10">
-        <v>5.0591350272</v>
+        <v>0.25743037439999999</v>
       </c>
       <c r="AE15" s="10">
-        <v>4.1686619136000003</v>
+        <v>0.24840192</v>
       </c>
       <c r="AF15" s="10">
-        <v>6.507174912</v>
+        <v>0.24567905279999999</v>
       </c>
       <c r="AG15" s="10">
-        <v>4.1705249279999999</v>
+        <v>0.229055232</v>
       </c>
       <c r="AH15" s="10">
-        <v>4.0513397759999998</v>
+        <v>0.22227194880000001</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>4.4218407936000004</v>
+        <v>4.6484597760000002</v>
       </c>
       <c r="C16" s="10">
-        <v>8.0983325183999995</v>
+        <v>7.0217490431999998</v>
       </c>
       <c r="D16" s="10">
-        <v>4.6332690432000003</v>
+        <v>3.5153170943999998</v>
       </c>
       <c r="E16" s="10">
-        <v>3.3861958656</v>
+        <v>2.4308994047999999</v>
       </c>
       <c r="F16" s="10">
-        <v>3.0187043328000001</v>
+        <v>1.8697021439999999</v>
       </c>
       <c r="G16" s="10">
-        <v>2.8103333375999999</v>
+        <v>1.4228175359999999</v>
       </c>
       <c r="H16" s="10">
-        <v>2.7812416512000002</v>
+        <v>1.2164528640000001</v>
       </c>
       <c r="I16" s="10">
-        <v>2.7576912384000001</v>
+        <v>1.1638585344000001</v>
       </c>
       <c r="J16" s="10">
-        <v>2.2585944576000001</v>
+        <v>0.87958164480000001</v>
       </c>
       <c r="K16" s="10">
-        <v>2.32996224</v>
+        <v>0.78915379200000002</v>
       </c>
       <c r="L16" s="10">
-        <v>2.7396820991999999</v>
+        <v>0.71281797120000001</v>
       </c>
       <c r="M16" s="10">
-        <v>2.6563719168</v>
+        <v>0.64102026239999998</v>
       </c>
       <c r="N16" s="10">
-        <v>5.2552770047999999</v>
+        <v>0.58904693760000004</v>
       </c>
       <c r="O16" s="10">
-        <v>3.0075262463999999</v>
+        <v>0.71568414719999995</v>
       </c>
       <c r="P16" s="10">
-        <v>2.6046852095999999</v>
+        <v>0.50473359360000003</v>
       </c>
       <c r="Q16" s="10">
-        <v>3.0752635391999998</v>
+        <v>0.46957516799999999</v>
       </c>
       <c r="R16" s="10">
-        <v>3.4588534272000002</v>
+        <v>0.44979855359999998</v>
       </c>
       <c r="S16" s="10">
-        <v>3.1165842432000002</v>
+        <v>0.59602129920000002</v>
       </c>
       <c r="T16" s="10">
-        <v>3.5130719232000001</v>
+        <v>0.4107230208</v>
       </c>
       <c r="U16" s="10">
-        <v>4.2477683712000003</v>
+        <v>0.37126533119999999</v>
       </c>
       <c r="V16" s="10">
-        <v>3.5897899008</v>
+        <v>0.36242795519999998</v>
       </c>
       <c r="W16" s="10">
-        <v>7.4416438272000001</v>
+        <v>0.99045488640000001</v>
       </c>
       <c r="X16" s="10">
-        <v>3.4757160960000002</v>
+        <v>0.37714099200000001</v>
       </c>
       <c r="Y16" s="10">
-        <v>4.0953833472000003</v>
+        <v>0.30806615040000002</v>
       </c>
       <c r="Z16" s="10">
-        <v>4.4662187519999996</v>
+        <v>0.29383080960000002</v>
       </c>
       <c r="AA16" s="10">
-        <v>4.8176596992</v>
+        <v>0.50396927999999996</v>
       </c>
       <c r="AB16" s="10">
-        <v>4.6611187200000002</v>
+        <v>0.2714746368</v>
       </c>
       <c r="AC16" s="10">
-        <v>6.7516119551999996</v>
+        <v>0.26225510400000002</v>
       </c>
       <c r="AD16" s="10">
-        <v>4.4669352959999999</v>
+        <v>0.25298780160000001</v>
       </c>
       <c r="AE16" s="10">
-        <v>4.3378140672000001</v>
+        <v>0.54505113599999999</v>
       </c>
       <c r="AF16" s="10">
-        <v>4.6748763648000002</v>
+        <v>0.23593405440000001</v>
       </c>
       <c r="AG16" s="10">
-        <v>6.6712157184</v>
+        <v>0.53903216639999996</v>
       </c>
       <c r="AH16" s="10">
-        <v>5.5027713024000002</v>
+        <v>0.22203310079999999</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>4.1981357568000002</v>
+        <v>5.3435074560000002</v>
       </c>
       <c r="C17" s="10">
-        <v>8.2395872255999993</v>
+        <v>7.0215579648000004</v>
       </c>
       <c r="D17" s="10">
-        <v>4.5745124351999999</v>
+        <v>3.5155559423999998</v>
       </c>
       <c r="E17" s="10">
-        <v>3.3704318976000001</v>
+        <v>2.4772836863999999</v>
       </c>
       <c r="F17" s="10">
-        <v>3.1694651904</v>
+        <v>1.8844629503999999</v>
       </c>
       <c r="G17" s="10">
-        <v>2.5259609088000001</v>
+        <v>1.4318937599999999</v>
       </c>
       <c r="H17" s="10">
-        <v>2.4702137855999999</v>
+        <v>1.2179814912</v>
       </c>
       <c r="I17" s="10">
-        <v>2.4838758911999999</v>
+        <v>1.1597025792</v>
       </c>
       <c r="J17" s="10">
-        <v>2.4913279488</v>
+        <v>0.88029818879999999</v>
       </c>
       <c r="K17" s="10">
-        <v>2.6145735168000002</v>
+        <v>0.81041126399999996</v>
       </c>
       <c r="L17" s="10">
-        <v>2.6397003263999999</v>
+        <v>0.72179865600000004</v>
       </c>
       <c r="M17" s="10">
-        <v>2.5834277376000001</v>
+        <v>0.64866339839999998</v>
       </c>
       <c r="N17" s="10">
-        <v>3.5727361536000002</v>
+        <v>0.61412597759999998</v>
       </c>
       <c r="O17" s="10">
-        <v>3.1386537984</v>
+        <v>0.54151618560000003</v>
       </c>
       <c r="P17" s="10">
-        <v>2.7349051391999999</v>
+        <v>0.53105464319999995</v>
       </c>
       <c r="Q17" s="10">
-        <v>2.7260677632000001</v>
+        <v>0.4783170048</v>
       </c>
       <c r="R17" s="10">
-        <v>3.2041459200000002</v>
+        <v>0.44903423999999997</v>
       </c>
       <c r="S17" s="10">
-        <v>4.0134584832</v>
+        <v>0.43193272319999998</v>
       </c>
       <c r="T17" s="10">
-        <v>5.5768141823999997</v>
+        <v>0.39194956800000003</v>
       </c>
       <c r="U17" s="10">
-        <v>3.7992118272000002</v>
+        <v>0.37174302720000002</v>
       </c>
       <c r="V17" s="10">
-        <v>3.8410102272</v>
+        <v>0.35335173120000002</v>
       </c>
       <c r="W17" s="10">
-        <v>5.6626083840000003</v>
+        <v>0.33648906239999998</v>
       </c>
       <c r="X17" s="10">
-        <v>4.3329893375999999</v>
+        <v>0.32980131839999999</v>
       </c>
       <c r="Y17" s="10">
-        <v>4.1380893696000003</v>
+        <v>0.31504051199999999</v>
       </c>
       <c r="Z17" s="10">
-        <v>6.2432956415999996</v>
+        <v>0.51357096960000004</v>
       </c>
       <c r="AA17" s="10">
-        <v>4.6620263423999999</v>
+        <v>0.28394250240000002</v>
       </c>
       <c r="AB17" s="10">
-        <v>5.6565416447999999</v>
+        <v>0.27247779840000003</v>
       </c>
       <c r="AC17" s="10">
-        <v>4.2266064384000002</v>
+        <v>0.26263726079999999</v>
       </c>
       <c r="AD17" s="10">
-        <v>6.17183232</v>
+        <v>0.25251010559999998</v>
       </c>
       <c r="AE17" s="10">
-        <v>5.1224297472</v>
+        <v>0.24434150399999999</v>
       </c>
       <c r="AF17" s="10">
-        <v>7.3505472000000003</v>
+        <v>0.23631621119999999</v>
       </c>
       <c r="AG17" s="10">
-        <v>6.8279955456000003</v>
+        <v>0.22843422720000001</v>
       </c>
       <c r="AH17" s="10">
-        <v>4.7301935616000002</v>
+        <v>0.22117324799999999</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -8199,135 +8207,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>4.2921940992000005</v>
+        <v>5.1192387379199999</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>8.0940332543999993</v>
+        <v>7.0239464448000009</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>4.6705484390400001</v>
+        <v>3.52097301504</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>3.5205335347199997</v>
+        <v>2.4375584870399996</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>2.9953736601600003</v>
+        <v>1.8844820582400001</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>2.76369110016</v>
+        <v>1.4376356659199998</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>2.7594396057599999</v>
+        <v>1.2464044031999999</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6010642739200001</v>
+        <v>1.1342413824000002</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>2.3542769664000001</v>
+        <v>0.92361566208000012</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5104931123199998</v>
+        <v>0.80338913280000013</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>2.5292474572799999</v>
+        <v>0.74123132928000002</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>2.7048485068799999</v>
+        <v>0.69122611200000006</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>3.3791259648</v>
+        <v>0.59829513215999997</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>3.2232824217599996</v>
+        <v>0.61455590400000004</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>2.7274530815999998</v>
+        <v>0.55460505599999999</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>2.8538992128</v>
+        <v>0.4754508288</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="1"/>
-        <v>3.1554878054400004</v>
+        <v>0.44302923069999994</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
-        <v>3.4857954816000003</v>
+        <v>0.46203712512</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1092078694400005</v>
+        <v>0.4401586483199999</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="1"/>
-        <v>4.5190232678399997</v>
+        <v>0.38182241279999996</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="1"/>
-        <v>3.7240702463999993</v>
+        <v>0.35874969600000001</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="1"/>
-        <v>5.4407090380799996</v>
+        <v>0.47131398143999997</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>3.7961068031999998</v>
+        <v>0.33796991999999998</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="1"/>
-        <v>4.8381241958400008</v>
+        <v>0.36219866111999999</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2248095539200001</v>
+        <v>0.33828519936000001</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="1"/>
-        <v>4.5918719078399999</v>
+        <v>0.37759002623999999</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>4.6920160972800007</v>
+        <v>0.2719045632</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="1"/>
-        <v>4.9622487244800002</v>
+        <v>0.26301941760000003</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="1"/>
-        <v>5.7375684403199996</v>
+        <v>0.25449732096</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="1"/>
-        <v>4.4729924812800004</v>
+        <v>0.30703432703999994</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="1"/>
-        <v>6.4505774899199988</v>
+        <v>0.27742672895999998</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="1"/>
-        <v>6.275626106879999</v>
+        <v>0.29075444736</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="1"/>
-        <v>5.8784792063999998</v>
+        <v>0.22171782144000002</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -8395,7 +8403,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,515 +8641,515 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>22.1171814912</v>
+        <v>22.068599807999998</v>
       </c>
       <c r="C13" s="10">
-        <v>22.831432550399999</v>
+        <v>22.1140764672</v>
       </c>
       <c r="D13" s="10">
-        <v>12.267376588799999</v>
+        <v>11.233260288</v>
       </c>
       <c r="E13" s="10">
-        <v>8.6637335039999996</v>
+        <v>7.5433453055999999</v>
       </c>
       <c r="F13" s="10">
-        <v>6.6642891263999999</v>
+        <v>5.5663048703999998</v>
       </c>
       <c r="G13" s="10">
-        <v>5.7265241087999996</v>
+        <v>4.5900853248000004</v>
       </c>
       <c r="H13" s="10">
-        <v>5.1694828032000002</v>
+        <v>3.923317248</v>
       </c>
       <c r="I13" s="10">
-        <v>4.9195044864000002</v>
+        <v>3.2885070336000002</v>
       </c>
       <c r="J13" s="10">
-        <v>4.5062974463999996</v>
+        <v>2.9668265472000002</v>
       </c>
       <c r="K13" s="10">
-        <v>4.2419404800000002</v>
+        <v>2.7389177856</v>
       </c>
       <c r="L13" s="10">
-        <v>4.2380711423999999</v>
+        <v>2.4764238336000002</v>
       </c>
       <c r="M13" s="10">
-        <v>4.0293657600000001</v>
+        <v>2.1870833664</v>
       </c>
       <c r="N13" s="10">
-        <v>3.6575271936</v>
+        <v>1.8994626048000001</v>
       </c>
       <c r="O13" s="10">
-        <v>3.8970439680000002</v>
+        <v>1.772729856</v>
       </c>
       <c r="P13" s="10">
-        <v>3.8345135616000001</v>
+        <v>1.8025380864</v>
       </c>
       <c r="Q13" s="10">
-        <v>3.9737141760000001</v>
+        <v>1.5933550080000001</v>
       </c>
       <c r="R13" s="10">
-        <v>4.1244272640000004</v>
+        <v>1.38173568</v>
       </c>
       <c r="S13" s="10">
-        <v>5.1036562944000003</v>
+        <v>1.4360497152</v>
       </c>
       <c r="T13" s="10">
-        <v>4.2801083903999997</v>
+        <v>1.4262569472</v>
       </c>
       <c r="U13" s="10">
-        <v>4.6938408960000002</v>
+        <v>1.4220054527999999</v>
       </c>
       <c r="V13" s="10">
-        <v>5.1361396224</v>
+        <v>1.181342208</v>
       </c>
       <c r="W13" s="10">
-        <v>4.2996461567999997</v>
+        <v>1.0564247040000001</v>
       </c>
       <c r="X13" s="10">
-        <v>4.8334236671999999</v>
+        <v>1.2764514816000001</v>
       </c>
       <c r="Y13" s="10">
-        <v>4.6441127423999999</v>
+        <v>0.96614016000000003</v>
       </c>
       <c r="Z13" s="10">
-        <v>4.2475295231999999</v>
+        <v>1.2915466752</v>
       </c>
       <c r="AA13" s="10">
-        <v>4.6393357823999999</v>
+        <v>0.97072604159999998</v>
       </c>
       <c r="AB13" s="10">
-        <v>4.2999327744000002</v>
+        <v>0.85607900159999994</v>
       </c>
       <c r="AC13" s="10">
-        <v>9.4000541183999999</v>
+        <v>0.81982187520000005</v>
       </c>
       <c r="AD13" s="10">
-        <v>6.0570419712000003</v>
+        <v>0.7928320512</v>
       </c>
       <c r="AE13" s="10">
-        <v>5.2633500672000002</v>
+        <v>1.0716154367999999</v>
       </c>
       <c r="AF13" s="10">
-        <v>5.9044658688</v>
+        <v>0.83625461759999997</v>
       </c>
       <c r="AG13" s="10">
-        <v>5.2464873984000002</v>
+        <v>0.94110888960000005</v>
       </c>
       <c r="AH13" s="10">
-        <v>5.8909948416000004</v>
+        <v>0.69285027840000002</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10">
-        <v>22.155158323199998</v>
+        <v>22.0685520384</v>
       </c>
       <c r="C14" s="10">
-        <v>22.915841433600001</v>
+        <v>22.124776857600001</v>
       </c>
       <c r="D14" s="10">
-        <v>12.3585209856</v>
+        <v>11.387603865599999</v>
       </c>
       <c r="E14" s="10">
-        <v>8.5554875904000003</v>
+        <v>7.5115785215999997</v>
       </c>
       <c r="F14" s="10">
-        <v>6.7691911679999999</v>
+        <v>5.6123069952</v>
       </c>
       <c r="G14" s="10">
-        <v>5.8700717567999998</v>
+        <v>4.6339378175999997</v>
       </c>
       <c r="H14" s="10">
-        <v>5.2469650944000001</v>
+        <v>3.8315518464</v>
       </c>
       <c r="I14" s="10">
-        <v>5.1347543040000003</v>
+        <v>3.3281080319999998</v>
       </c>
       <c r="J14" s="10">
-        <v>4.2131354111999997</v>
+        <v>3.0898332672</v>
       </c>
       <c r="K14" s="10">
-        <v>4.2240746496000003</v>
+        <v>2.6864667648</v>
       </c>
       <c r="L14" s="10">
-        <v>3.8507074559999999</v>
+        <v>2.4163296768000002</v>
       </c>
       <c r="M14" s="10">
-        <v>3.5721629184000001</v>
+        <v>2.1611444735999998</v>
       </c>
       <c r="N14" s="10">
-        <v>3.7658208767999999</v>
+        <v>2.0818947072</v>
       </c>
       <c r="O14" s="10">
-        <v>3.6545654783999999</v>
+        <v>1.9035707904000001</v>
       </c>
       <c r="P14" s="10">
-        <v>3.9763415040000001</v>
+        <v>1.7864875008000001</v>
       </c>
       <c r="Q14" s="10">
-        <v>4.1741076479999997</v>
+        <v>1.4753163264</v>
       </c>
       <c r="R14" s="10">
-        <v>3.7100737536000001</v>
+        <v>1.6477645824</v>
       </c>
       <c r="S14" s="10">
-        <v>4.3615555584000001</v>
+        <v>1.5384677376</v>
       </c>
       <c r="T14" s="10">
-        <v>4.8215290368000003</v>
+        <v>1.5121944575999999</v>
       </c>
       <c r="U14" s="10">
-        <v>4.2077852160000004</v>
+        <v>1.4638993920000001</v>
       </c>
       <c r="V14" s="10">
-        <v>4.8498564096000001</v>
+        <v>1.4047606271999999</v>
       </c>
       <c r="W14" s="10">
-        <v>8.2076771328000007</v>
+        <v>1.0539406847999999</v>
       </c>
       <c r="X14" s="10">
-        <v>7.9067286528</v>
+        <v>1.3054953984</v>
       </c>
       <c r="Y14" s="10">
-        <v>5.0100756479999999</v>
+        <v>1.3163868672000001</v>
       </c>
       <c r="Z14" s="10">
-        <v>5.3244473856000001</v>
+        <v>0.92438952959999998</v>
       </c>
       <c r="AA14" s="10">
-        <v>5.2124276735999997</v>
+        <v>0.88598277120000002</v>
       </c>
       <c r="AB14" s="10">
-        <v>6.4975254527999997</v>
+        <v>1.1846383104</v>
       </c>
       <c r="AC14" s="10">
-        <v>6.4135942655999996</v>
+        <v>1.1451806207999999</v>
       </c>
       <c r="AD14" s="10">
-        <v>4.6219954176</v>
+        <v>0.79163781119999999</v>
       </c>
       <c r="AE14" s="10">
-        <v>5.6762704896000002</v>
+        <v>0.76335820799999998</v>
       </c>
       <c r="AF14" s="10">
-        <v>5.7372244991999999</v>
+        <v>0.83181204480000004</v>
       </c>
       <c r="AG14" s="10">
-        <v>6.1541575679999996</v>
+        <v>1.1060573184</v>
       </c>
       <c r="AH14" s="10">
-        <v>6.6473309183999998</v>
+        <v>0.72117765119999999</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>22.119235583999998</v>
+        <v>22.0685520384</v>
       </c>
       <c r="C15" s="10">
-        <v>22.930888857599999</v>
+        <v>22.221462528</v>
       </c>
       <c r="D15" s="10">
-        <v>12.2193203712</v>
+        <v>11.125014374399999</v>
       </c>
       <c r="E15" s="10">
-        <v>8.5539589631999995</v>
+        <v>7.6177703424000001</v>
       </c>
       <c r="F15" s="10">
-        <v>6.6694960127999998</v>
+        <v>5.7032125440000003</v>
       </c>
       <c r="G15" s="10">
-        <v>5.8987335168000001</v>
+        <v>4.6136357376000001</v>
       </c>
       <c r="H15" s="10">
-        <v>5.1674287104000003</v>
+        <v>3.7897056768000001</v>
       </c>
       <c r="I15" s="10">
-        <v>4.7188243967999997</v>
+        <v>3.3260061695999998</v>
       </c>
       <c r="J15" s="10">
-        <v>4.5812479487999997</v>
+        <v>2.9789122560000001</v>
       </c>
       <c r="K15" s="10">
-        <v>4.1328347136000003</v>
+        <v>2.6227898879999998</v>
       </c>
       <c r="L15" s="10">
-        <v>3.9682206720000002</v>
+        <v>2.3339748864000001</v>
       </c>
       <c r="M15" s="10">
-        <v>4.1097142271999996</v>
+        <v>2.2934662656000002</v>
       </c>
       <c r="N15" s="10">
-        <v>4.0950011903999997</v>
+        <v>2.0536628736</v>
       </c>
       <c r="O15" s="10">
-        <v>3.7589898239999999</v>
+        <v>2.2050447360000001</v>
       </c>
       <c r="P15" s="10">
-        <v>3.7857408000000001</v>
+        <v>1.8949722624000001</v>
       </c>
       <c r="Q15" s="10">
-        <v>3.7687348223999999</v>
+        <v>1.6815854591999999</v>
       </c>
       <c r="R15" s="10">
-        <v>3.6301552128000001</v>
+        <v>1.5393275903999999</v>
       </c>
       <c r="S15" s="10">
-        <v>4.1681364480000003</v>
+        <v>1.6005204479999999</v>
       </c>
       <c r="T15" s="10">
-        <v>4.8915592704000002</v>
+        <v>1.2632193024</v>
       </c>
       <c r="U15" s="10">
-        <v>4.3203781632</v>
+        <v>1.3558445567999999</v>
       </c>
       <c r="V15" s="10">
-        <v>5.0295656447999999</v>
+        <v>1.1065350143999999</v>
       </c>
       <c r="W15" s="10">
-        <v>4.3986247680000004</v>
+        <v>1.1265027072</v>
       </c>
       <c r="X15" s="10">
-        <v>4.9014953472</v>
+        <v>1.0416638976000001</v>
       </c>
       <c r="Y15" s="10">
-        <v>4.9982765567999996</v>
+        <v>1.1862147072</v>
       </c>
       <c r="Z15" s="10">
-        <v>4.4406620160000001</v>
+        <v>1.2113415167999999</v>
       </c>
       <c r="AA15" s="10">
-        <v>6.6215353343999999</v>
+        <v>0.89391252480000005</v>
       </c>
       <c r="AB15" s="10">
-        <v>5.2325386751999998</v>
+        <v>0.85794201599999997</v>
       </c>
       <c r="AC15" s="10">
-        <v>5.7827011584000001</v>
+        <v>0.82350013440000003</v>
       </c>
       <c r="AD15" s="10">
-        <v>4.5022370303999999</v>
+        <v>1.1570752512</v>
       </c>
       <c r="AE15" s="10">
-        <v>6.4884492288000004</v>
+        <v>1.0788286464000001</v>
       </c>
       <c r="AF15" s="10">
-        <v>5.6803786752000001</v>
+        <v>0.73842247679999995</v>
       </c>
       <c r="AG15" s="10">
-        <v>5.2925372927999996</v>
+        <v>0.71831147520000005</v>
       </c>
       <c r="AH15" s="10">
-        <v>6.1786633728</v>
+        <v>0.83319736320000004</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
-        <v>22.149569280000001</v>
+        <v>22.0674533376</v>
       </c>
       <c r="C16" s="10">
-        <v>23.090534860799998</v>
+        <v>22.097834803200001</v>
       </c>
       <c r="D16" s="10">
-        <v>12.491893708799999</v>
+        <v>11.078247936</v>
       </c>
       <c r="E16" s="10">
-        <v>8.5758374400000008</v>
+        <v>7.6022929919999997</v>
       </c>
       <c r="F16" s="10">
-        <v>7.0938811391999996</v>
+        <v>5.7285782016000004</v>
       </c>
       <c r="G16" s="10">
-        <v>5.6403955200000002</v>
+        <v>4.6418675711999997</v>
       </c>
       <c r="H16" s="10">
-        <v>5.0469537791999999</v>
+        <v>3.7441812479999999</v>
       </c>
       <c r="I16" s="10">
-        <v>4.84980864</v>
+        <v>3.3169777152000002</v>
       </c>
       <c r="J16" s="10">
-        <v>4.5308987904000002</v>
+        <v>2.9951539199999999</v>
       </c>
       <c r="K16" s="10">
-        <v>4.2226893311999998</v>
+        <v>2.6397003263999999</v>
       </c>
       <c r="L16" s="10">
-        <v>4.0019460096000001</v>
+        <v>2.4438449663999999</v>
       </c>
       <c r="M16" s="10">
-        <v>4.126815744</v>
+        <v>2.266428672</v>
       </c>
       <c r="N16" s="10">
-        <v>4.1003513855999998</v>
+        <v>2.0845220352</v>
       </c>
       <c r="O16" s="10">
-        <v>3.9451001855999999</v>
+        <v>1.8722817024</v>
       </c>
       <c r="P16" s="10">
-        <v>3.8928880127999999</v>
+        <v>1.8478236671999999</v>
       </c>
       <c r="Q16" s="10">
-        <v>3.4218319872</v>
+        <v>1.7345619456000001</v>
       </c>
       <c r="R16" s="10">
-        <v>6.2543781887999996</v>
+        <v>1.6577961984</v>
       </c>
       <c r="S16" s="10">
-        <v>4.9542329856</v>
+        <v>1.4960005632</v>
       </c>
       <c r="T16" s="10">
-        <v>4.1415765503999999</v>
+        <v>1.3717518336000001</v>
       </c>
       <c r="U16" s="10">
-        <v>4.7834088960000001</v>
+        <v>1.2120102911999999</v>
       </c>
       <c r="V16" s="10">
-        <v>4.2951080448000001</v>
+        <v>1.2544296960000001</v>
       </c>
       <c r="W16" s="10">
-        <v>5.6666688000000001</v>
+        <v>1.2499393536000001</v>
       </c>
       <c r="X16" s="10">
-        <v>4.3310307840000002</v>
+        <v>1.3232656895999999</v>
       </c>
       <c r="Y16" s="10">
-        <v>4.2256510464000003</v>
+        <v>0.9623663616</v>
       </c>
       <c r="Z16" s="10">
-        <v>4.4935429632000004</v>
+        <v>1.2972790272000001</v>
       </c>
       <c r="AA16" s="10">
-        <v>9.0343300608000003</v>
+        <v>0.89400806399999999</v>
       </c>
       <c r="AB16" s="10">
-        <v>4.7427091967999999</v>
+        <v>1.0548483071999999</v>
       </c>
       <c r="AC16" s="10">
-        <v>5.5749033984</v>
+        <v>0.82072949760000002</v>
       </c>
       <c r="AD16" s="10">
-        <v>8.5470801408000003</v>
+        <v>1.1790492671999999</v>
       </c>
       <c r="AE16" s="10">
-        <v>5.2692257280000003</v>
+        <v>1.0688447999999999</v>
       </c>
       <c r="AF16" s="10">
-        <v>7.9320943104000001</v>
+        <v>0.81700346879999997</v>
       </c>
       <c r="AG16" s="10">
-        <v>5.5792026624000002</v>
+        <v>1.0073175552</v>
       </c>
       <c r="AH16" s="10">
-        <v>7.3899093504</v>
+        <v>0.69533429759999998</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
-        <v>22.149569280000001</v>
+        <v>22.065924710400001</v>
       </c>
       <c r="C17" s="10">
-        <v>23.055137587200001</v>
+        <v>22.105143552000001</v>
       </c>
       <c r="D17" s="10">
-        <v>12.366498508799999</v>
+        <v>11.063582668800001</v>
       </c>
       <c r="E17" s="10">
-        <v>8.6216007167999997</v>
+        <v>7.6325311488000001</v>
       </c>
       <c r="F17" s="10">
-        <v>6.7462139904000002</v>
+        <v>5.7155848703999999</v>
       </c>
       <c r="G17" s="10">
-        <v>5.7291992063999997</v>
+        <v>4.5871713792</v>
       </c>
       <c r="H17" s="10">
-        <v>5.2842731519999999</v>
+        <v>3.7867917312000001</v>
       </c>
       <c r="I17" s="10">
-        <v>4.7508300288000003</v>
+        <v>3.4128035327999999</v>
       </c>
       <c r="J17" s="10">
-        <v>4.2804905472000003</v>
+        <v>3.0413471232</v>
       </c>
       <c r="K17" s="10">
-        <v>4.1257170431999999</v>
+        <v>2.5987617792000002</v>
       </c>
       <c r="L17" s="10">
-        <v>4.4109493247999998</v>
+        <v>2.3923015680000002</v>
       </c>
       <c r="M17" s="10">
-        <v>3.9477752831999999</v>
+        <v>2.2101560831999998</v>
       </c>
       <c r="N17" s="10">
-        <v>3.8174598143999998</v>
+        <v>1.9949540351999999</v>
       </c>
       <c r="O17" s="10">
-        <v>3.7747537919999998</v>
+        <v>1.8110410751999999</v>
       </c>
       <c r="P17" s="10">
-        <v>4.3990546944000002</v>
+        <v>1.730931456</v>
       </c>
       <c r="Q17" s="10">
-        <v>3.7219206144000001</v>
+        <v>1.7149764096</v>
       </c>
       <c r="R17" s="10">
-        <v>3.7904222208</v>
+        <v>1.7563448831999999</v>
       </c>
       <c r="S17" s="10">
-        <v>3.9958315008</v>
+        <v>1.5197898240000001</v>
       </c>
       <c r="T17" s="10">
-        <v>4.1693784575999997</v>
+        <v>1.3120398336000001</v>
       </c>
       <c r="U17" s="10">
-        <v>4.6685230080000002</v>
+        <v>1.4079611904</v>
       </c>
       <c r="V17" s="10">
-        <v>4.0042867199999996</v>
+        <v>1.106343936</v>
       </c>
       <c r="W17" s="10">
-        <v>4.3007448575999998</v>
+        <v>1.2992853503999999</v>
       </c>
       <c r="X17" s="10">
-        <v>4.3719693311999999</v>
+        <v>1.0544661503999999</v>
       </c>
       <c r="Y17" s="10">
-        <v>5.0737047551999996</v>
+        <v>0.96805094400000002</v>
       </c>
       <c r="Z17" s="10">
-        <v>7.2482247168000002</v>
+        <v>1.3077405696</v>
       </c>
       <c r="AA17" s="10">
-        <v>4.8252072960000003</v>
+        <v>0.90270213119999998</v>
       </c>
       <c r="AB17" s="10">
-        <v>7.3123792895999999</v>
+        <v>1.1896063487999999</v>
       </c>
       <c r="AC17" s="10">
-        <v>6.9436457471999997</v>
+        <v>0.8205861888</v>
       </c>
       <c r="AD17" s="10">
-        <v>6.7258163711999996</v>
+        <v>0.79627146240000002</v>
       </c>
       <c r="AE17" s="10">
-        <v>4.7959723007999999</v>
+        <v>0.76956825600000001</v>
       </c>
       <c r="AF17" s="10">
-        <v>8.2141737983999992</v>
+        <v>0.74014218239999996</v>
       </c>
       <c r="AG17" s="10">
-        <v>5.5665437184000002</v>
+        <v>0.73780147200000001</v>
       </c>
       <c r="AH17" s="10">
-        <v>6.2986128384000004</v>
+        <v>0.69552537599999997</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -9150,135 +9158,135 @@
       </c>
       <c r="B18" s="10">
         <f>AVERAGE(B13:B17)</f>
-        <v>22.138142791680004</v>
+        <v>22.067816386560001</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>22.96476705792</v>
+        <v>22.132658841600001</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
-        <v>12.340722032639999</v>
+        <v>11.177541826560001</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>8.5941236428800014</v>
+        <v>7.5815036620800003</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>6.7886142873599997</v>
+        <v>5.6651974963200002</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>5.7729848217599997</v>
+        <v>4.6133395660799996</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>5.1830207078399999</v>
+        <v>3.8151095500800003</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>4.8747443712000003</v>
+        <v>3.3344804966399999</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>4.4224140287999996</v>
+        <v>3.0144146227199999</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1894512435199998</v>
+        <v>2.6573273088000002</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>4.0939789209599997</v>
+        <v>2.4125749862400001</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>3.9571667865599998</v>
+        <v>2.2236557721599999</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8872320921600001</v>
+        <v>2.0228992511999997</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8060906496000002</v>
+        <v>1.9129336320000001</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>3.9777077145600002</v>
+        <v>1.81255059456</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>3.8120618496000005</v>
+        <v>1.63995902976</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="1"/>
-        <v>4.301891328</v>
+        <v>1.59659378688</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
-        <v>4.5166825574400002</v>
+        <v>1.5181656576</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="1"/>
-        <v>4.4608303411200003</v>
+        <v>1.37709247488</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="1"/>
-        <v>4.5347872358400005</v>
+        <v>1.37234417664</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="1"/>
-        <v>4.6629912883199998</v>
+        <v>1.2106822963200001</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="1"/>
-        <v>5.3746723430399994</v>
+        <v>1.15721856</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>5.2689295564799998</v>
+        <v>1.2002685235200001</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="1"/>
-        <v>4.7903641497599994</v>
+        <v>1.079831808</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="1"/>
-        <v>5.15088132096</v>
+        <v>1.2064594636800001</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="1"/>
-        <v>6.0665672294400013</v>
+        <v>0.90946630656000005</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>5.6170170777599999</v>
+        <v>1.0286227967999999</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="1"/>
-        <v>6.822979737599999</v>
+        <v>0.88596366335999988</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="1"/>
-        <v>6.0908341862400004</v>
+        <v>0.94337316863999998</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="1"/>
-        <v>5.4986535628800004</v>
+        <v>0.95044306944000001</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="1"/>
-        <v>6.6936674303999997</v>
+        <v>0.79272695808000004</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="1"/>
-        <v>5.5677857279999996</v>
+        <v>0.90211934208000011</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="1"/>
-        <v>6.4811022643200005</v>
+        <v>0.72761699328000007</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -9434,7 +9442,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -9442,7 +9450,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11">
         <v>11.085843302400001</v>
       </c>
@@ -9490,7 +9498,7 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -9498,13 +9506,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>27.377283225599999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6">
         <v>27.4674244608</v>
       </c>
@@ -9534,7 +9542,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4">
@@ -9546,7 +9554,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9758,7 +9766,7 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10">
@@ -9859,7 +9867,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="10">
         <v>8.8186503167999994</v>
       </c>
@@ -10709,7 +10717,7 @@
       <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="10">
@@ -10810,7 +10818,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="10">
         <v>27.461596569600001</v>
       </c>
@@ -10909,7 +10917,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10">
         <v>27.461548799999999</v>
       </c>
@@ -11710,7 +11718,7 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="10">
@@ -11843,7 +11851,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>

--- a/archived/henschel/zcatoggleTest/ZCACost.xlsx
+++ b/archived/henschel/zcatoggleTest/ZCACost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20610" windowHeight="11655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20610" windowHeight="11640" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Overview ZCA" sheetId="9" r:id="rId1"/>
@@ -17,15 +17,17 @@
     <sheet name="LoopActivatedNotify" sheetId="8" r:id="rId8"/>
     <sheet name="EmpFunc_Dynaprof_no_backoff" sheetId="11" r:id="rId9"/>
     <sheet name="Loop_Dynaprof_no_backoff" sheetId="12" r:id="rId10"/>
-    <sheet name="old_Serial" sheetId="1" r:id="rId11"/>
-    <sheet name="old_OpenMP Parallel" sheetId="2" r:id="rId12"/>
+    <sheet name="EmpFunc_fixed_backoff" sheetId="13" r:id="rId11"/>
+    <sheet name="DynaProf_Init_Overhead" sheetId="14" r:id="rId12"/>
+    <sheet name="old_Serial" sheetId="1" r:id="rId13"/>
+    <sheet name="old_OpenMP Parallel" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="94">
   <si>
     <t>Machine</t>
   </si>
@@ -261,6 +263,57 @@
   <si>
     <t>Empty loop with DynaProf NO-BACKOFF</t>
   </si>
+  <si>
+    <t>23_ActivatedNotifyFunction.cpp</t>
+  </si>
+  <si>
+    <t>export DYN_STRATEGY="FIXED_BACKOFF"</t>
+  </si>
+  <si>
+    <t>Back-Off Value</t>
+  </si>
+  <si>
+    <t>31_StartProfilerOverhead.cp1, 31_StartProfilerOverhead.cp2 and run_31.sh</t>
+  </si>
+  <si>
+    <t>The source code has an increasing number of functions with __notify_intrinsics</t>
+  </si>
+  <si>
+    <t>Functions with _notify_intrinsics</t>
+  </si>
+  <si>
+    <t>Number of __notify_intrinsics</t>
+  </si>
+  <si>
+    <t>Cycles for start_profiler()</t>
+  </si>
+  <si>
+    <t>This test is only done in serial.</t>
+  </si>
+  <si>
+    <t>Run "run_31.sh" to put the source together and run one test.</t>
+  </si>
+  <si>
+    <t>This test measures the time it takes to activate all __notify_intrinsics using DynaProf, with an increasing number of functions.</t>
+  </si>
+  <si>
+    <t>This test measures the time it takes to call a function that contains 2 activated __notify_intrinsic from a for loop with an increase FIXED_BACKOFF value.</t>
+  </si>
+  <si>
+    <t>export DYN_SAMPLE_SIZE="&lt;BACK_OFF_VALUE&gt;"</t>
+  </si>
+  <si>
+    <t>This test was only done in serial.</t>
+  </si>
+  <si>
+    <t>Avg Runtime in micro sec</t>
+  </si>
+  <si>
+    <t>Avg Runtime in milli sec</t>
+  </si>
+  <si>
+    <t>Avg [cycles] per Function</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,14 +404,17 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,11 +1833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118413568"/>
-        <c:axId val="118419840"/>
+        <c:axId val="118341632"/>
+        <c:axId val="118343552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118413568"/>
+        <c:axId val="118341632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,14 +1859,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118419840"/>
+        <c:crossAx val="118343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118419840"/>
+        <c:axId val="118343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,21 +1896,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118413568"/>
+        <c:crossAx val="118341632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1900,7 +1953,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2167,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118498048"/>
-        <c:axId val="118499968"/>
+        <c:axId val="119942144"/>
+        <c:axId val="119944320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118498048"/>
+        <c:axId val="119942144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,14 +2245,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118499968"/>
+        <c:crossAx val="119944320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118499968"/>
+        <c:axId val="119944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,21 +2282,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118498048"/>
+        <c:crossAx val="119942144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2285,12 +2334,742 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>DynaProf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fixed Back-Off</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EmpFunc_fixed_backoff!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg [cycles]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EmpFunc_fixed_backoff!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EmpFunc_fixed_backoff!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.041369057280001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.041388165120001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.050913423360001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.09175643136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.543819264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.906960773119998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.773077463039996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>509.54306558975998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="118810496"/>
+        <c:axId val="120258560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="118810496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Back-Off Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120258560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120258560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Function Call</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118810496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DynaProf Fixed Back-Off</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EmpFunc_fixed_backoff!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg [cycles]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EmpFunc_fixed_backoff!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EmpFunc_fixed_backoff!$B$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.041235302400001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.091070136319999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.54574352384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.98621829119998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207.48842317824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.20080475136001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308.02022470655999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.07293826047999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>407.04607048703997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.32186956800007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>498.06584595455996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="120291328"/>
+        <c:axId val="120293248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120291328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Back-Off Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120293248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120293248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Function Call</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120291328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Overhead in Cycles per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Function with 2 __notify_intrinsics using DynaProf</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DynaProf_Init_Overhead!$C$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DynaProf_Init_Overhead!$C$21:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8551677.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4024387.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1959171.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1064434.5249999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524708.27500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>269873.15000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153286.03125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94344.009374999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62296.990624999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46875.760546874997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38466.182812500003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32141.880273437499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30107.228222656249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28910.848681640626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29153.394970703124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="120408320"/>
+        <c:axId val="120410496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120408320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120410496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120410496"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120408320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Cycles per Function Call</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2570,11 +3349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118874112"/>
-        <c:axId val="118876032"/>
+        <c:axId val="120351744"/>
+        <c:axId val="120353920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118874112"/>
+        <c:axId val="120351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,13 +3375,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118876032"/>
+        <c:crossAx val="120353920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2610,7 +3388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118876032"/>
+        <c:axId val="120353920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,21 +3411,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118874112"/>
+        <c:crossAx val="120351744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2735,6 +3511,108 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4114,7 +4992,7 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +5232,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -4415,7 +5293,7 @@
       <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3">
         <v>503.89413841919998</v>
       </c>
@@ -4850,6 +5728,1737 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>100000</v>
+      </c>
+      <c r="H12">
+        <v>100000</v>
+      </c>
+      <c r="I12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12.042286233600001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>12.041569689599999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>12.047731968000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12.095071641600001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12.576207052799999</v>
+      </c>
+      <c r="G13" s="10">
+        <v>16.934562048</v>
+      </c>
+      <c r="H13" s="10">
+        <v>60.6494784</v>
+      </c>
+      <c r="I13" s="10">
+        <v>518.42259348480002</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="10">
+        <v>12.041235302400001</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12.0428594688</v>
+      </c>
+      <c r="D14" s="10">
+        <v>12.045868953599999</v>
+      </c>
+      <c r="E14" s="10">
+        <v>12.090867916800001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>12.525905664</v>
+      </c>
+      <c r="G14" s="10">
+        <v>16.895629824</v>
+      </c>
+      <c r="H14" s="10">
+        <v>60.834155673600002</v>
+      </c>
+      <c r="I14" s="10">
+        <v>498.7238435328</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10">
+        <v>12.041378611200001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12.0407098368</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12.045773414399999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>12.089960294400001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>12.5346952704</v>
+      </c>
+      <c r="G15" s="10">
+        <v>16.9052315136</v>
+      </c>
+      <c r="H15" s="10">
+        <v>60.862721894400003</v>
+      </c>
+      <c r="I15" s="10">
+        <v>524.83494574079998</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10">
+        <v>12.041235302400001</v>
+      </c>
+      <c r="C16" s="10">
+        <v>12.041235302400001</v>
+      </c>
+      <c r="D16" s="10">
+        <v>12.044722483199999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>12.094402867199999</v>
+      </c>
+      <c r="F16" s="10">
+        <v>12.535889510400001</v>
+      </c>
+      <c r="G16" s="10">
+        <v>16.901075558399999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>60.715066060799998</v>
+      </c>
+      <c r="I16" s="10">
+        <v>507.51173022720002</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10">
+        <v>12.0407098368</v>
+      </c>
+      <c r="C17" s="10">
+        <v>12.040566527999999</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12.0704702976</v>
+      </c>
+      <c r="E17" s="10">
+        <v>12.0884794368</v>
+      </c>
+      <c r="F17" s="10">
+        <v>12.5463988224</v>
+      </c>
+      <c r="G17" s="10">
+        <v>16.898304921600001</v>
+      </c>
+      <c r="H17" s="10">
+        <v>60.8039652864</v>
+      </c>
+      <c r="I17" s="10">
+        <v>498.22221496319997</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10">
+        <f>AVERAGE(B13:B17)</f>
+        <v>12.041369057280001</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:I18" si="0">AVERAGE(C13:C17)</f>
+        <v>12.041388165120001</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>12.050913423360001</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>12.09175643136</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>12.543819264</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>16.906960773119998</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>60.773077463039996</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>509.54306558975998</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1000000</v>
+      </c>
+      <c r="D20">
+        <f>C20+1000000</f>
+        <v>2000000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:L20" si="1">D20+1000000</f>
+        <v>3000000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>7000000</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>8000000</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="10">
+        <v>12.041569689599999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>60.617424998399997</v>
+      </c>
+      <c r="D21" s="10">
+        <v>109.26331054080001</v>
+      </c>
+      <c r="E21" s="10">
+        <v>158.02226672640001</v>
+      </c>
+      <c r="F21" s="10">
+        <v>211.42012876800001</v>
+      </c>
+      <c r="G21" s="10">
+        <v>255.08866083839999</v>
+      </c>
+      <c r="H21" s="10">
+        <v>312.16320568319998</v>
+      </c>
+      <c r="I21" s="10">
+        <v>352.35969991680003</v>
+      </c>
+      <c r="J21">
+        <v>419.79184051200002</v>
+      </c>
+      <c r="K21">
+        <v>450.00224317440001</v>
+      </c>
+      <c r="L21">
+        <v>498.20573445119999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="10">
+        <v>12.0428116992</v>
+      </c>
+      <c r="C22" s="10">
+        <v>62.516792064000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>111.13993927680001</v>
+      </c>
+      <c r="E22" s="10">
+        <v>167.6110585344</v>
+      </c>
+      <c r="F22" s="10">
+        <v>206.56425338880001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>254.85903237119999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>303.74519900159999</v>
+      </c>
+      <c r="I22" s="10">
+        <v>351.89943982080001</v>
+      </c>
+      <c r="J22">
+        <v>407.26545715200001</v>
+      </c>
+      <c r="K22">
+        <v>449.55836805119998</v>
+      </c>
+      <c r="L22">
+        <v>498.16976394239998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10">
+        <v>12.0409486848</v>
+      </c>
+      <c r="C23" s="10">
+        <v>60.939392102399999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>108.9140192256</v>
+      </c>
+      <c r="E23" s="10">
+        <v>158.675802624</v>
+      </c>
+      <c r="F23" s="10">
+        <v>206.49427092479999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>255.0904760832</v>
+      </c>
+      <c r="H23" s="10">
+        <v>316.65092075519999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>352.62324480000001</v>
+      </c>
+      <c r="J23">
+        <v>401.94664657919998</v>
+      </c>
+      <c r="K23">
+        <v>449.55927567359998</v>
+      </c>
+      <c r="L23">
+        <v>498.18399928320002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10">
+        <v>12.0398022144</v>
+      </c>
+      <c r="C24" s="10">
+        <v>60.778026393600001</v>
+      </c>
+      <c r="D24" s="10">
+        <v>109.14049489919999</v>
+      </c>
+      <c r="E24" s="10">
+        <v>157.87628282879999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>206.54003420160001</v>
+      </c>
+      <c r="G24" s="10">
+        <v>254.87508295679999</v>
+      </c>
+      <c r="H24" s="10">
+        <v>303.81155097599998</v>
+      </c>
+      <c r="I24" s="10">
+        <v>352.38143508479999</v>
+      </c>
+      <c r="J24">
+        <v>405.58946073599998</v>
+      </c>
+      <c r="K24">
+        <v>452.143085568</v>
+      </c>
+      <c r="L24">
+        <v>497.54594073599998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10">
+        <v>12.041044224</v>
+      </c>
+      <c r="C25" s="10">
+        <v>60.603715123199997</v>
+      </c>
+      <c r="D25" s="10">
+        <v>109.2709536768</v>
+      </c>
+      <c r="E25" s="10">
+        <v>157.7456807424</v>
+      </c>
+      <c r="F25" s="10">
+        <v>206.42342860799999</v>
+      </c>
+      <c r="G25" s="10">
+        <v>256.09077150719997</v>
+      </c>
+      <c r="H25" s="10">
+        <v>303.7302471168</v>
+      </c>
+      <c r="I25" s="10">
+        <v>356.10087168000001</v>
+      </c>
+      <c r="J25">
+        <v>400.63694745599997</v>
+      </c>
+      <c r="K25">
+        <v>450.34637537280003</v>
+      </c>
+      <c r="L25">
+        <v>498.22379136000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10">
+        <f>AVERAGE(B21:B25)</f>
+        <v>12.041235302400001</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26" si="2">AVERAGE(C21:C25)</f>
+        <v>61.091070136319999</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26" si="3">AVERAGE(D21:D25)</f>
+        <v>109.54574352384</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26" si="4">AVERAGE(E21:E25)</f>
+        <v>159.98621829119998</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26" si="5">AVERAGE(F21:F25)</f>
+        <v>207.48842317824</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" ref="G26" si="6">AVERAGE(G21:G25)</f>
+        <v>255.20080475136001</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" ref="H26" si="7">AVERAGE(H21:H25)</f>
+        <v>308.02022470655999</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" ref="I26" si="8">AVERAGE(I21:I25)</f>
+        <v>353.07293826047999</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" ref="J26" si="9">AVERAGE(J21:J25)</f>
+        <v>407.04607048703997</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ref="K26" si="10">AVERAGE(K21:K25)</f>
+        <v>450.32186956800007</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" ref="L26" si="11">AVERAGE(L21:L25)</f>
+        <v>498.06584595455996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="15" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>16</v>
+      </c>
+      <c r="H12" s="19">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19">
+        <v>64</v>
+      </c>
+      <c r="J12" s="19">
+        <v>128</v>
+      </c>
+      <c r="K12" s="19">
+        <v>256</v>
+      </c>
+      <c r="L12" s="19">
+        <v>512</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1024</v>
+      </c>
+      <c r="N12" s="19">
+        <v>2048</v>
+      </c>
+      <c r="O12" s="19">
+        <v>4096</v>
+      </c>
+      <c r="P12" s="19">
+        <v>8192</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>P13</f>
+        <v>16384</v>
+      </c>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="11">
+        <f>B12*2</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" ref="C13:D13" si="0">C12*2</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E13" si="1">E12*2</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" ref="F13" si="2">F12*2</f>
+        <v>16</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" ref="G13" si="3">G12*2</f>
+        <v>32</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13" si="4">H12*2</f>
+        <v>64</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" ref="I13:Q13" si="5">I12*2</f>
+        <v>128</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="5"/>
+        <v>4096</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8160468</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8653060</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9568778</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7807376</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9246982</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8980436</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8275392</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10075600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12410068</v>
+      </c>
+      <c r="K14" s="3">
+        <v>18245388</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25344014</v>
+      </c>
+      <c r="M14" s="3">
+        <v>41597178</v>
+      </c>
+      <c r="N14" s="3">
+        <v>64885226</v>
+      </c>
+      <c r="O14" s="3">
+        <v>123904394</v>
+      </c>
+      <c r="P14" s="3">
+        <v>238588902</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>478629334</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3">
+        <v>8185950</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8520220</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7573852</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8340484</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8516249</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8332722</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9199898</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10056382</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11764362</v>
+      </c>
+      <c r="K15" s="3">
+        <v>15245754</v>
+      </c>
+      <c r="L15" s="3">
+        <v>24363630</v>
+      </c>
+      <c r="M15" s="3">
+        <v>38298470</v>
+      </c>
+      <c r="N15" s="3">
+        <v>65122674</v>
+      </c>
+      <c r="O15" s="3">
+        <v>122268444</v>
+      </c>
+      <c r="P15" s="3">
+        <v>235434672</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>475354288</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3">
+        <v>8375510</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8557578</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7560244</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7705778</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8991308</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8189608</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8513922</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10137076</v>
+      </c>
+      <c r="J16" s="3">
+        <v>11729308</v>
+      </c>
+      <c r="K16" s="3">
+        <v>14451168</v>
+      </c>
+      <c r="L16" s="3">
+        <v>23625939</v>
+      </c>
+      <c r="M16" s="3">
+        <v>40923692</v>
+      </c>
+      <c r="N16" s="3">
+        <v>67283898</v>
+      </c>
+      <c r="O16" s="3">
+        <v>125339660</v>
+      </c>
+      <c r="P16" s="3">
+        <v>235965154</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>477649124</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3">
+        <v>8447284</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8513764</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7659052</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7457082</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7882546</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8684714</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8375626</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9154050</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12125492</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15325486</v>
+      </c>
+      <c r="L17" s="3">
+        <v>23452614</v>
+      </c>
+      <c r="M17" s="3">
+        <v>38319854</v>
+      </c>
+      <c r="N17" s="3">
+        <v>66607130</v>
+      </c>
+      <c r="O17" s="3">
+        <v>122252136</v>
+      </c>
+      <c r="P17" s="3">
+        <v>236994510</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>480067040</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3">
+        <v>8176264</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8513764</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7881948</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7872708</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7940296</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7789182</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8814866</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9628422</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12350936</v>
+      </c>
+      <c r="K18" s="3">
+        <v>16472352</v>
+      </c>
+      <c r="L18" s="3">
+        <v>23215750</v>
+      </c>
+      <c r="M18" s="3">
+        <v>37807662</v>
+      </c>
+      <c r="N18" s="3">
+        <v>65233926</v>
+      </c>
+      <c r="O18" s="3">
+        <v>122831400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>237205124</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>476546330</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B14:B18)</f>
+        <v>8269095.2000000002</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:L19" si="6">AVERAGE(C14:C18)</f>
+        <v>8551677.1999999993</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>8048774.7999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>7836685.5999999996</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>8515476.1999999993</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="6"/>
+        <v>8395332.4000000004</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
+        <v>8635940.8000000007</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="6"/>
+        <v>9810306</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="6"/>
+        <v>12076033.199999999</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="6"/>
+        <v>15948029.6</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="6"/>
+        <v>24000389.399999999</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19:N19" si="7">AVERAGE(M14:M18)</f>
+        <v>39389371.200000003</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="7"/>
+        <v>65826570.799999997</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19:P19" si="8">AVERAGE(O14:O18)</f>
+        <v>123319206.8</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="8"/>
+        <v>236837672.40000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="9">AVERAGE(Q14:Q18)</f>
+        <v>477649223.19999999</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="10">
+        <f>B19*0.5359056806/1000/1000</f>
+        <v>4.431455091102193</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:Q20" si="10">C19*0.5359056806/1000/1000</f>
+        <v>4.582892390137502</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="10"/>
+        <v>4.3133841371901287</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="10"/>
+        <v>4.1997243301162186</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="10"/>
+        <v>4.5634920685941003</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="10"/>
+        <v>4.4991063236852318</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="10"/>
+        <v>4.6280497320453087</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="10"/>
+        <v>5.2573987138242639</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="10"/>
+        <v>6.4716147909941952</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="10"/>
+        <v>8.5466396570169447</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="10"/>
+        <v>12.861945016072024</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="10"/>
+        <v>21.108987781342037</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="10"/>
+        <v>35.276833226138088</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="10"/>
+        <v>66.087463451206148</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="10"/>
+        <v>126.92265401924183</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="10"/>
+        <v>255.97493204705731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>C19/C12</f>
+        <v>8551677.1999999993</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21:Q21" si="11">D19/D12</f>
+        <v>4024387.4</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="11"/>
+        <v>1959171.4</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="11"/>
+        <v>1064434.5249999999</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="11"/>
+        <v>524708.27500000002</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="11"/>
+        <v>269873.15000000002</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="11"/>
+        <v>153286.03125</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="11"/>
+        <v>94344.009374999994</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="11"/>
+        <v>62296.990624999999</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="11"/>
+        <v>46875.760546874997</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="11"/>
+        <v>38466.182812500003</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="11"/>
+        <v>32141.880273437499</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="11"/>
+        <v>30107.228222656249</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="11"/>
+        <v>28910.848681640626</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="11"/>
+        <v>29153.394970703124</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10">
+        <f>C21*0.5359056806/1000</f>
+        <v>4582.8923901375019</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:Q22" si="12">D21*0.5359056806/1000</f>
+        <v>2156.6920685950645</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="12"/>
+        <v>1049.9310825290547</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="12"/>
+        <v>570.43650857426258</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="12"/>
+        <v>281.19414523032697</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="12"/>
+        <v>144.6265541264159</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="12"/>
+        <v>82.146854903504121</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="12"/>
+        <v>50.559490554642153</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="12"/>
+        <v>33.385311160222443</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="12"/>
+        <v>25.120986359515673</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="12"/>
+        <v>20.614245880216835</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="12"/>
+        <v>17.225016223700237</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="12"/>
+        <v>16.134634631642125</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="12"/>
+        <v>15.493488039458231</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="12"/>
+        <v>15.623469973575276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4941,7 +7550,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4949,7 +7558,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="21"/>
       <c r="B11">
         <v>11.085843302400001</v>
       </c>
@@ -4997,7 +7606,7 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -5005,13 +7614,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20">
         <v>27.377283225599999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="6">
         <v>27.4674244608</v>
       </c>
@@ -5041,7 +7650,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4">
@@ -5053,7 +7662,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -5073,7 +7682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
@@ -5265,7 +7874,7 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10">
@@ -5366,7 +7975,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10">
         <v>8.8186503167999994</v>
       </c>
@@ -6216,7 +8825,7 @@
       <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="10">
@@ -6317,7 +8926,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10">
         <v>27.461596569600001</v>
       </c>
@@ -6416,7 +9025,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10">
         <v>27.461548799999999</v>
       </c>
@@ -7217,7 +9826,7 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="10">
@@ -7350,7 +9959,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -7375,8 +9984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8270,12 +10879,12 @@
       <c r="AH8" s="10"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="10"/>
@@ -8550,7 +11159,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -8654,7 +11263,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>12.039611136</v>
       </c>
@@ -9501,7 +12110,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -9605,7 +12214,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>11.035732992</v>
       </c>
@@ -10452,7 +13061,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -10556,7 +13165,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>27.414447974400002</v>
       </c>
@@ -11401,7 +14010,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -11505,7 +14114,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>7.0281979392</v>
       </c>
@@ -12352,7 +14961,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -12456,7 +15065,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>5.3348133887999998</v>
       </c>
@@ -13303,7 +15912,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -13407,7 +16016,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10">
         <v>22.0685520384</v>
       </c>
@@ -14254,7 +16863,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -14333,7 +16942,7 @@
       <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3">
         <v>502.24551398400001</v>
       </c>

--- a/archived/henschel/zcatoggleTest/ZCACost.xlsx
+++ b/archived/henschel/zcatoggleTest/ZCACost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20610" windowHeight="11640" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20610" windowHeight="11640" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Overview ZCA" sheetId="9" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Loop_Dynaprof_no_backoff" sheetId="12" r:id="rId10"/>
     <sheet name="EmpFunc_fixed_backoff" sheetId="13" r:id="rId11"/>
     <sheet name="DynaProf_Init_Overhead" sheetId="14" r:id="rId12"/>
-    <sheet name="old_Serial" sheetId="1" r:id="rId13"/>
-    <sheet name="old_OpenMP Parallel" sheetId="2" r:id="rId14"/>
+    <sheet name="ZCA_Init_Overhead" sheetId="15" r:id="rId13"/>
+    <sheet name="old_Serial" sheetId="1" r:id="rId14"/>
+    <sheet name="old_OpenMP Parallel" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="99">
   <si>
     <t>Machine</t>
   </si>
@@ -314,16 +315,32 @@
   <si>
     <t>Avg [cycles] per Function</t>
   </si>
+  <si>
+    <t>32_StartProfilerOverhead.cp1, 32_StartProfilerOverhead.cp2 and run_32.sh</t>
+  </si>
+  <si>
+    <t>This test measures the time it takes to activate all __notify_intrinsics using ZCA_toggle, with an increasing number of functions.</t>
+  </si>
+  <si>
+    <t>% of Functions recorded</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Run "32_run.sh" to put the source together and run one test.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +378,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -409,6 +434,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -416,8 +444,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1833,11 +1862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118341632"/>
-        <c:axId val="118343552"/>
+        <c:axId val="118767616"/>
+        <c:axId val="118769536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118341632"/>
+        <c:axId val="118767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118343552"/>
+        <c:crossAx val="118769536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1873,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118343552"/>
+        <c:axId val="118769536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118341632"/>
+        <c:crossAx val="118767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,7 +2249,7 @@
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="119942144"/>
-        <c:axId val="119944320"/>
+        <c:axId val="119948416"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="119942144"/>
@@ -2251,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119944320"/>
+        <c:crossAx val="119948416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119944320"/>
+        <c:axId val="119948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2423,7 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
@@ -2447,11 +2476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118810496"/>
-        <c:axId val="120258560"/>
+        <c:axId val="120264576"/>
+        <c:axId val="120270848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118810496"/>
+        <c:axId val="120264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120258560"/>
+        <c:crossAx val="120270848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120258560"/>
+        <c:axId val="120270848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2519,7 +2548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118810496"/>
+        <c:crossAx val="120264576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,11 +2722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120291328"/>
-        <c:axId val="120293248"/>
+        <c:axId val="120295424"/>
+        <c:axId val="120297344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120291328"/>
+        <c:axId val="120295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120293248"/>
+        <c:crossAx val="120297344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +2763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120293248"/>
+        <c:axId val="120297344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120291328"/>
+        <c:crossAx val="120295424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2892,49 +2921,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8551677.1999999993</c:v>
+                  <c:v>10413030.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4024387.4</c:v>
+                  <c:v>4829792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1959171.4</c:v>
+                  <c:v>2460000.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1064434.5249999999</c:v>
+                  <c:v>1249048.3999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>524708.27500000002</c:v>
+                  <c:v>688108.92500000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>269873.15000000002</c:v>
+                  <c:v>349842.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153286.03125</c:v>
+                  <c:v>192688.41250000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94344.009374999994</c:v>
+                  <c:v>118407.18124999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62296.990624999999</c:v>
+                  <c:v>78464.326562500006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46875.760546874997</c:v>
+                  <c:v>57899.762499999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38466.182812500003</c:v>
+                  <c:v>49210.464062500003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32141.880273437499</c:v>
+                  <c:v>43530.63671875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30107.228222656249</c:v>
+                  <c:v>40248.027441406251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28910.848681640626</c:v>
+                  <c:v>39084.197607421876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29153.394970703124</c:v>
+                  <c:v>39549.359362792966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,11 +2980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120408320"/>
-        <c:axId val="120410496"/>
+        <c:axId val="120015104"/>
+        <c:axId val="120017280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120408320"/>
+        <c:axId val="120015104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +3013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120410496"/>
+        <c:crossAx val="120017280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2992,7 +3021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120410496"/>
+        <c:axId val="120017280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3023,7 +3052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120408320"/>
+        <c:crossAx val="120015104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,6 +3070,265 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Overhead in Cycles per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Function with 2 __notify_intrinsics using ZCA-Toggle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ZCA_Init_Overhead!$C$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ZCA_Init_Overhead!$C$21:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9662772.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5170380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2504167.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1302394.3999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>699286.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374122.42499999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201434.02499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119765.9375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80748.814062499994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61555.171875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48854.099414062497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43075.541406249999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40225.4833984375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39018.0068359375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39619.580541992189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="120086912"/>
+        <c:axId val="120088832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120086912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120088832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120088832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles per Function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120086912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3349,11 +3637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120351744"/>
-        <c:axId val="120353920"/>
+        <c:axId val="86277504"/>
+        <c:axId val="86291968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120351744"/>
+        <c:axId val="86277504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120353920"/>
+        <c:crossAx val="86291968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3388,7 +3676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120353920"/>
+        <c:axId val="86291968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120351744"/>
+        <c:crossAx val="86277504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3613,6 +3901,43 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3936,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,13 +5317,13 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -5232,7 +5557,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -5293,7 +5618,7 @@
       <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3">
         <v>503.89413841919998</v>
       </c>
@@ -5728,16 +6053,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -5785,9 +6112,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5795,9 +6120,6 @@
       </c>
       <c r="B6" t="s">
         <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -5856,14 +6178,14 @@
         <v>100000</v>
       </c>
       <c r="H12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I12">
         <v>10000000</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -5918,7 +6240,7 @@
       <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>12.041235302400001</v>
       </c>
@@ -6244,7 +6566,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="10">
@@ -6282,7 +6604,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="10">
         <v>12.0428116992</v>
       </c>
@@ -6493,6 +6815,177 @@
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="20">
+        <f>B20/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="20">
+        <f>C20/10000000</f>
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="20">
+        <f t="shared" ref="D44:L44" si="12">D20/10000000</f>
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="I44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="J44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="21">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20">
+        <f>(C26-$B$26)/$B$26</f>
+        <v>4.0734886082778923</v>
+      </c>
+      <c r="D45" s="20">
+        <f t="shared" ref="D45:L45" si="13">(D26-$B$26)/$B$26</f>
+        <v>8.0975502739329315</v>
+      </c>
+      <c r="E45" s="20">
+        <f t="shared" si="13"/>
+        <v>12.286528688573364</v>
+      </c>
+      <c r="F45" s="20">
+        <f t="shared" si="13"/>
+        <v>16.231489790493871</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" si="13"/>
+        <v>20.193905636948614</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="13"/>
+        <v>24.580450590909628</v>
+      </c>
+      <c r="I45" s="20">
+        <f t="shared" si="13"/>
+        <v>28.32198644022073</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" si="13"/>
+        <v>32.804344842086884</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" si="13"/>
+        <v>36.39831157341839</v>
+      </c>
+      <c r="L45" s="20">
+        <f t="shared" si="13"/>
+        <v>40.3633513046031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="22">
+        <f>B12/10000000</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C47" s="22">
+        <f>C12/10000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D47" s="22">
+        <f t="shared" ref="D47:I47" si="14">D12/10000000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="14"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F47" s="22">
+        <f t="shared" si="14"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="22">
+        <f>(B18-$B$18)/$B$18</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="22">
+        <f>(C18-$B$18)/$B$18</f>
+        <v>1.5868494611482669E-6</v>
+      </c>
+      <c r="D48" s="22">
+        <f t="shared" ref="D48:I48" si="15">(D18-$B$18)/$B$18</f>
+        <v>7.9263130584223166E-4</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="15"/>
+        <v>4.1845220290408986E-3</v>
+      </c>
+      <c r="F48" s="22">
+        <f t="shared" si="15"/>
+        <v>4.1727000005553884E-2</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="15"/>
+        <v>0.40407296651192215</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="15"/>
+        <v>4.0470239035068571</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" si="15"/>
+        <v>41.316040905805401</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6508,8 +7001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,53 +7232,51 @@
       <c r="A14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="3">
-        <v>8160468</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>8653060</v>
+        <v>11894916</v>
       </c>
       <c r="D14" s="3">
-        <v>9568778</v>
+        <v>10531056</v>
       </c>
       <c r="E14" s="3">
-        <v>7807376</v>
+        <v>9760652</v>
       </c>
       <c r="F14" s="3">
-        <v>9246982</v>
+        <v>10039528</v>
       </c>
       <c r="G14" s="3">
-        <v>8980436</v>
+        <v>12306982</v>
       </c>
       <c r="H14" s="3">
-        <v>8275392</v>
+        <v>10808992</v>
       </c>
       <c r="I14" s="3">
-        <v>10075600</v>
+        <v>12217840</v>
       </c>
       <c r="J14" s="3">
-        <v>12410068</v>
+        <v>15795144</v>
       </c>
       <c r="K14" s="3">
-        <v>18245388</v>
+        <v>19840988</v>
       </c>
       <c r="L14" s="3">
-        <v>25344014</v>
+        <v>29915920</v>
       </c>
       <c r="M14" s="3">
-        <v>41597178</v>
+        <v>54462516</v>
       </c>
       <c r="N14" s="3">
-        <v>64885226</v>
+        <v>89765616</v>
       </c>
       <c r="O14" s="3">
-        <v>123904394</v>
+        <v>165811724</v>
       </c>
       <c r="P14" s="3">
-        <v>238588902</v>
+        <v>319903784</v>
       </c>
       <c r="Q14" s="3">
-        <v>478629334</v>
+        <v>650504416</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -6808,53 +7299,51 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="3">
-        <v>8185950</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>8520220</v>
+        <v>10626088</v>
       </c>
       <c r="D15" s="3">
-        <v>7573852</v>
+        <v>9776176</v>
       </c>
       <c r="E15" s="3">
-        <v>8340484</v>
+        <v>9803568</v>
       </c>
       <c r="F15" s="3">
-        <v>8516249</v>
+        <v>9478972</v>
       </c>
       <c r="G15" s="3">
-        <v>8332722</v>
+        <v>10722492</v>
       </c>
       <c r="H15" s="3">
-        <v>9199898</v>
+        <v>11290188</v>
       </c>
       <c r="I15" s="3">
-        <v>10056382</v>
+        <v>12759928</v>
       </c>
       <c r="J15" s="3">
-        <v>11764362</v>
+        <v>16044434</v>
       </c>
       <c r="K15" s="3">
-        <v>15245754</v>
+        <v>19913300</v>
       </c>
       <c r="L15" s="3">
-        <v>24363630</v>
+        <v>30037144</v>
       </c>
       <c r="M15" s="3">
-        <v>38298470</v>
+        <v>48645316</v>
       </c>
       <c r="N15" s="3">
-        <v>65122674</v>
+        <v>89564780</v>
       </c>
       <c r="O15" s="3">
-        <v>122268444</v>
+        <v>165467860</v>
       </c>
       <c r="P15" s="3">
-        <v>235434672</v>
+        <v>319146568</v>
       </c>
       <c r="Q15" s="3">
-        <v>475354288</v>
+        <v>646743844</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6877,53 +7366,51 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3">
-        <v>8375510</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>8557578</v>
+        <v>9463224</v>
       </c>
       <c r="D16" s="3">
-        <v>7560244</v>
+        <v>9390812</v>
       </c>
       <c r="E16" s="3">
-        <v>7705778</v>
+        <v>9703366</v>
       </c>
       <c r="F16" s="3">
-        <v>8991308</v>
+        <v>10040184</v>
       </c>
       <c r="G16" s="3">
-        <v>8189608</v>
+        <v>10867148</v>
       </c>
       <c r="H16" s="3">
-        <v>8513922</v>
+        <v>11160480</v>
       </c>
       <c r="I16" s="3">
-        <v>10137076</v>
+        <v>12596792</v>
       </c>
       <c r="J16" s="3">
-        <v>11729308</v>
+        <v>15245444</v>
       </c>
       <c r="K16" s="3">
-        <v>14451168</v>
+        <v>19662704</v>
       </c>
       <c r="L16" s="3">
-        <v>23625939</v>
+        <v>29561940</v>
       </c>
       <c r="M16" s="3">
-        <v>40923692</v>
+        <v>49756136</v>
       </c>
       <c r="N16" s="3">
-        <v>67283898</v>
+        <v>89016212</v>
       </c>
       <c r="O16" s="3">
-        <v>125339660</v>
+        <v>164394342</v>
       </c>
       <c r="P16" s="3">
-        <v>235965154</v>
+        <v>319518056</v>
       </c>
       <c r="Q16" s="3">
-        <v>477649124</v>
+        <v>647797616</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -6946,53 +7433,51 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3">
-        <v>8447284</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>8513764</v>
+        <v>9946532</v>
       </c>
       <c r="D17" s="3">
-        <v>7659052</v>
+        <v>9353860</v>
       </c>
       <c r="E17" s="3">
-        <v>7457082</v>
+        <v>9779920</v>
       </c>
       <c r="F17" s="3">
-        <v>7882546</v>
+        <v>10427012</v>
       </c>
       <c r="G17" s="3">
-        <v>8684714</v>
+        <v>10378744</v>
       </c>
       <c r="H17" s="3">
-        <v>8375626</v>
+        <v>11576508</v>
       </c>
       <c r="I17" s="3">
-        <v>9154050</v>
+        <v>11963328</v>
       </c>
       <c r="J17" s="3">
-        <v>12125492</v>
+        <v>14530618</v>
       </c>
       <c r="K17" s="3">
-        <v>15325486</v>
+        <v>20162762</v>
       </c>
       <c r="L17" s="3">
-        <v>23452614</v>
+        <v>29249304</v>
       </c>
       <c r="M17" s="3">
-        <v>38319854</v>
+        <v>49593944</v>
       </c>
       <c r="N17" s="3">
-        <v>66607130</v>
+        <v>88533556</v>
       </c>
       <c r="O17" s="3">
-        <v>122252136</v>
+        <v>164072848</v>
       </c>
       <c r="P17" s="3">
-        <v>236994510</v>
+        <v>321527844</v>
       </c>
       <c r="Q17" s="3">
-        <v>480067040</v>
+        <v>647268992</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -7015,53 +7500,51 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3">
-        <v>8176264</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3">
-        <v>8513764</v>
+        <v>10134392</v>
       </c>
       <c r="D18" s="3">
-        <v>7881948</v>
+        <v>9246016</v>
       </c>
       <c r="E18" s="3">
-        <v>7872708</v>
+        <v>10152496</v>
       </c>
       <c r="F18" s="3">
-        <v>7940296</v>
+        <v>9976240</v>
       </c>
       <c r="G18" s="3">
-        <v>7789182</v>
+        <v>10773348</v>
       </c>
       <c r="H18" s="3">
-        <v>8814866</v>
+        <v>11138560</v>
       </c>
       <c r="I18" s="3">
-        <v>9628422</v>
+        <v>12122404</v>
       </c>
       <c r="J18" s="3">
-        <v>12350936</v>
+        <v>14164956</v>
       </c>
       <c r="K18" s="3">
-        <v>16472352</v>
+        <v>20854584</v>
       </c>
       <c r="L18" s="3">
-        <v>23215750</v>
+        <v>29459084</v>
       </c>
       <c r="M18" s="3">
-        <v>37807662</v>
+        <v>49499664</v>
       </c>
       <c r="N18" s="3">
-        <v>65233926</v>
+        <v>88873556</v>
       </c>
       <c r="O18" s="3">
-        <v>122831400</v>
+        <v>164532828</v>
       </c>
       <c r="P18" s="3">
-        <v>237205124</v>
+        <v>320792482</v>
       </c>
       <c r="Q18" s="3">
-        <v>476546330</v>
+        <v>647568651</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -7086,69 +7569,69 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="e">
         <f>AVERAGE(B14:B18)</f>
-        <v>8269095.2000000002</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ref="C19:L19" si="6">AVERAGE(C14:C18)</f>
-        <v>8551677.1999999993</v>
+        <v>10413030.4</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="6"/>
-        <v>8048774.7999999998</v>
+        <v>9659584</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="6"/>
-        <v>7836685.5999999996</v>
+        <v>9840000.4000000004</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="6"/>
-        <v>8515476.1999999993</v>
+        <v>9992387.1999999993</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="6"/>
-        <v>8395332.4000000004</v>
+        <v>11009742.800000001</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="6"/>
-        <v>8635940.8000000007</v>
+        <v>11194945.6</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="6"/>
-        <v>9810306</v>
+        <v>12332058.4</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="6"/>
-        <v>12076033.199999999</v>
+        <v>15156119.199999999</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="6"/>
-        <v>15948029.6</v>
+        <v>20086867.600000001</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="6"/>
-        <v>24000389.399999999</v>
+        <v>29644678.399999999</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ref="M19:N19" si="7">AVERAGE(M14:M18)</f>
-        <v>39389371.200000003</v>
+        <v>50391515.200000003</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="7"/>
-        <v>65826570.799999997</v>
+        <v>89150744</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" ref="O19:P19" si="8">AVERAGE(O14:O18)</f>
-        <v>123319206.8</v>
+        <v>164855920.40000001</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="8"/>
-        <v>236837672.40000001</v>
+        <v>320177746.80000001</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" ref="Q19" si="9">AVERAGE(Q14:Q18)</f>
-        <v>477649223.19999999</v>
+        <v>647976703.79999995</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -7173,69 +7656,69 @@
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="10" t="e">
         <f>B19*0.5359056806/1000/1000</f>
-        <v>4.431455091102193</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" ref="C20:Q20" si="10">C19*0.5359056806/1000/1000</f>
-        <v>4.582892390137502</v>
+        <v>5.58040214362049</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="10"/>
-        <v>4.3133841371901287</v>
+        <v>5.1766259378328705</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="10"/>
-        <v>4.1997243301162186</v>
+        <v>5.2733121114662724</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="10"/>
-        <v>4.5634920685941003</v>
+        <v>5.3549770632347284</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="10"/>
-        <v>4.4991063236852318</v>
+        <v>5.9001837084649509</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="10"/>
-        <v>4.6280497320453087</v>
+        <v>5.9994349410479746</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="10"/>
-        <v>5.2573987138242639</v>
+        <v>6.6088201500509474</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="10"/>
-        <v>6.4716147909941952</v>
+        <v>8.1222503751307276</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="10"/>
-        <v>8.5466396570169447</v>
+        <v>10.764666452300089</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="10"/>
-        <v>12.861945016072024</v>
+        <v>15.886751554120117</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="10"/>
-        <v>21.108987781342037</v>
+        <v>27.005099249721248</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="10"/>
-        <v>35.276833226138088</v>
+        <v>47.776390139316369</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="10"/>
-        <v>66.087463451206148</v>
+        <v>88.347224222901417</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="10"/>
-        <v>126.92265401924183</v>
+        <v>171.58507331182847</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="10"/>
-        <v>255.97493204705731</v>
+        <v>347.25439646288356</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -7247,63 +7730,63 @@
       </c>
       <c r="C21" s="3">
         <f>C19/C12</f>
-        <v>8551677.1999999993</v>
+        <v>10413030.4</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ref="D21:Q21" si="11">D19/D12</f>
-        <v>4024387.4</v>
+        <v>4829792</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="11"/>
-        <v>1959171.4</v>
+        <v>2460000.1</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="11"/>
-        <v>1064434.5249999999</v>
+        <v>1249048.3999999999</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="11"/>
-        <v>524708.27500000002</v>
+        <v>688108.92500000005</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="11"/>
-        <v>269873.15000000002</v>
+        <v>349842.05</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="11"/>
-        <v>153286.03125</v>
+        <v>192688.41250000001</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="11"/>
-        <v>94344.009374999994</v>
+        <v>118407.18124999999</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="11"/>
-        <v>62296.990624999999</v>
+        <v>78464.326562500006</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="11"/>
-        <v>46875.760546874997</v>
+        <v>57899.762499999997</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="11"/>
-        <v>38466.182812500003</v>
+        <v>49210.464062500003</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="11"/>
-        <v>32141.880273437499</v>
+        <v>43530.63671875</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="11"/>
-        <v>30107.228222656249</v>
+        <v>40248.027441406251</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="11"/>
-        <v>28910.848681640626</v>
+        <v>39084.197607421876</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="11"/>
-        <v>29153.394970703124</v>
+        <v>39549.359362792966</v>
       </c>
       <c r="R21" s="3"/>
     </row>
@@ -7314,63 +7797,63 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10">
         <f>C21*0.5359056806/1000</f>
-        <v>4582.8923901375019</v>
+        <v>5580.4021436204903</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" ref="D22:Q22" si="12">D21*0.5359056806/1000</f>
-        <v>2156.6920685950645</v>
+        <v>2588.3129689164352</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="12"/>
-        <v>1049.9310825290547</v>
+        <v>1318.3280278665682</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="12"/>
-        <v>570.43650857426258</v>
+        <v>669.37213290434102</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="12"/>
-        <v>281.19414523032697</v>
+        <v>368.76148177905941</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="12"/>
-        <v>144.6265541264159</v>
+        <v>187.4823419077492</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="12"/>
-        <v>82.146854903504121</v>
+        <v>103.26281484454606</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="12"/>
-        <v>50.559490554642153</v>
+        <v>63.455081055708803</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="12"/>
-        <v>33.385311160222443</v>
+        <v>42.049478329297223</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="12"/>
-        <v>25.120986359515673</v>
+        <v>31.028811629140854</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="12"/>
-        <v>20.614245880216835</v>
+        <v>26.372167236055905</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="12"/>
-        <v>17.225016223700237</v>
+        <v>23.328315497713071</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="12"/>
-        <v>16.134634631642125</v>
+        <v>21.569146538794293</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="12"/>
-        <v>15.493488039458231</v>
+        <v>20.945443519510309</v>
       </c>
       <c r="Q22" s="10">
         <f t="shared" si="12"/>
-        <v>15.623469973575276</v>
+        <v>21.194726346611546</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -7458,6 +7941,944 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="15" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>16</v>
+      </c>
+      <c r="H12" s="19">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19">
+        <v>64</v>
+      </c>
+      <c r="J12" s="19">
+        <v>128</v>
+      </c>
+      <c r="K12" s="19">
+        <v>256</v>
+      </c>
+      <c r="L12" s="19">
+        <v>512</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1024</v>
+      </c>
+      <c r="N12" s="19">
+        <v>2048</v>
+      </c>
+      <c r="O12" s="19">
+        <v>4096</v>
+      </c>
+      <c r="P12" s="19">
+        <v>8192</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>P13</f>
+        <v>16384</v>
+      </c>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="11">
+        <f>B12*2</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" ref="C13:Q13" si="0">C12*2</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>8887196</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10834356</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10344532</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11214652</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12190912</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14474216</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13404600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14080148</v>
+      </c>
+      <c r="K14" s="3">
+        <v>19033070</v>
+      </c>
+      <c r="L14" s="3">
+        <v>33930360</v>
+      </c>
+      <c r="M14" s="3">
+        <v>47374840</v>
+      </c>
+      <c r="N14" s="3">
+        <v>87951676</v>
+      </c>
+      <c r="O14" s="3">
+        <v>165268730</v>
+      </c>
+      <c r="P14" s="3">
+        <v>319593008</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>649710368</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>10552132</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10000888</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10233072</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10903532</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10521296</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13607084</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12648996</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15779824</v>
+      </c>
+      <c r="K15" s="3">
+        <v>22184604</v>
+      </c>
+      <c r="L15" s="3">
+        <v>31621036</v>
+      </c>
+      <c r="M15" s="3">
+        <v>50582244</v>
+      </c>
+      <c r="N15" s="3">
+        <v>88286084</v>
+      </c>
+      <c r="O15" s="3">
+        <v>166925584</v>
+      </c>
+      <c r="P15" s="3">
+        <v>319608488</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>648123260</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>9717080</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10135940</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9857480</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9948912</v>
+      </c>
+      <c r="G16" s="3">
+        <v>11764164</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10440380</v>
+      </c>
+      <c r="I16" s="3">
+        <v>13653404</v>
+      </c>
+      <c r="J16" s="3">
+        <v>16407596</v>
+      </c>
+      <c r="K16" s="3">
+        <v>20346844</v>
+      </c>
+      <c r="L16" s="3">
+        <v>29257332</v>
+      </c>
+      <c r="M16" s="3">
+        <v>50865916</v>
+      </c>
+      <c r="N16" s="3">
+        <v>89581496</v>
+      </c>
+      <c r="O16" s="3">
+        <v>165903914</v>
+      </c>
+      <c r="P16" s="3">
+        <v>319190392</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>647375666</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>9677932</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9696388</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9731764</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9964792</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11241412</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10653444</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12526664</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15225832</v>
+      </c>
+      <c r="K17" s="3">
+        <v>19717784</v>
+      </c>
+      <c r="L17" s="3">
+        <v>31519912</v>
+      </c>
+      <c r="M17" s="3">
+        <v>50964425</v>
+      </c>
+      <c r="N17" s="3">
+        <v>86757940</v>
+      </c>
+      <c r="O17" s="3">
+        <v>162892336</v>
+      </c>
+      <c r="P17" s="3">
+        <v>319318220</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>648277556</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>9479522</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11036228</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9916504</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10063888</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10225132</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10684464</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12225224</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15156800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>22076180</v>
+      </c>
+      <c r="L18" s="3">
+        <v>31252600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>50345564</v>
+      </c>
+      <c r="N18" s="3">
+        <v>88516348</v>
+      </c>
+      <c r="O18" s="3">
+        <v>162827336</v>
+      </c>
+      <c r="P18" s="3">
+        <v>320467452</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>652149188</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="e">
+        <f>AVERAGE(B14:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:Q19" si="1">AVERAGE(C14:C18)</f>
+        <v>9662772.4000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>10340760</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>10016670.4</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>10419155.199999999</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>11188583.199999999</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>11971917.6</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>12891777.6</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>15330040</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>20671696.399999999</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>31516248</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>50026597.799999997</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>88218708.799999997</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>164763580</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="1"/>
+        <v>319635512</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="1"/>
+        <v>649127207.60000002</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="10" t="e">
+        <f>B19*0.5359056806/1000/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:Q20" si="2">C19*0.5359056806/1000/1000</f>
+        <v>5.1783346195048958</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="2"/>
+        <v>5.5416720257212555</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="2"/>
+        <v>5.3679905680578743</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
+        <v>5.5836844587330292</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="2"/>
+        <v>5.996025294745726</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>6.4158186495151188</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>6.9087768488718346</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="2"/>
+        <v>8.2154555198252233</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="2"/>
+        <v>11.07807952839857</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>16.889736334398389</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>26.809537942111461</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="2"/>
+        <v>47.276907181117203</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="2"/>
+        <v>88.297738477992553</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="2"/>
+        <v>171.29448660228945</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="2"/>
+        <v>347.87095798485547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>C19/C12</f>
+        <v>9662772.4000000004</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21:Q21" si="3">D19/D12</f>
+        <v>5170380</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="3"/>
+        <v>2504167.6</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="3"/>
+        <v>1302394.3999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>699286.45</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>374122.42499999999</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>201434.02499999999</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="3"/>
+        <v>119765.9375</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
+        <v>80748.814062499994</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="3"/>
+        <v>61555.171875</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="3"/>
+        <v>48854.099414062497</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>43075.541406249999</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="3"/>
+        <v>40225.4833984375</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="3"/>
+        <v>39018.0068359375</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>39619.580541992189</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10">
+        <f>C21*0.5359056806/1000</f>
+        <v>5178.3346195048962</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:Q22" si="4">D21*0.5359056806/1000</f>
+        <v>2770.8360128606278</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="4"/>
+        <v>1341.9976420144685</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="4"/>
+        <v>697.9605573416286</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="4"/>
+        <v>374.75158092160785</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="4"/>
+        <v>200.49433279734745</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="4"/>
+        <v>107.94963826362242</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="4"/>
+        <v>64.183246248634561</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="4"/>
+        <v>43.273748157806914</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="4"/>
+        <v>32.987766278121853</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="4"/>
+        <v>26.181189396593226</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
+        <v>23.084427334529884</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="4"/>
+        <v>21.55706505810365</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="4"/>
+        <v>20.909971509068537</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="4"/>
+        <v>21.232358275442838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -7550,7 +8971,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7558,7 +8979,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11">
         <v>11.085843302400001</v>
       </c>
@@ -7606,7 +9027,7 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -7614,13 +9035,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="23"/>
       <c r="B20">
         <v>27.377283225599999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="6">
         <v>27.4674244608</v>
       </c>
@@ -7650,7 +9071,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4">
@@ -7662,7 +9083,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -7682,7 +9103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
@@ -7874,7 +9295,7 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10">
@@ -7975,7 +9396,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="10">
         <v>8.8186503167999994</v>
       </c>
@@ -8825,7 +10246,7 @@
       <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="10">
@@ -8926,7 +10347,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="10">
         <v>27.461596569600001</v>
       </c>
@@ -9025,7 +10446,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>27.461548799999999</v>
       </c>
@@ -9826,7 +11247,7 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="10">
@@ -9959,7 +11380,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -11159,7 +12580,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -11263,7 +12684,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>12.039611136</v>
       </c>
@@ -11871,7 +13292,958 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>C12+1</f>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:AH12" si="0">D12+1</f>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11.041226496</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8.0958484992000006</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4.0653840384000004</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.8179764735999999</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2.106400512</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.7863441920000001</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.5196942847999999</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1.2897314304</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.0129065984000001</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.92118896640000003</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.91024972800000004</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.88803686400000004</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.67407682560000004</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.62774031360000004</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.72514252800000001</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.54571991040000001</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.50358712319999999</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.47951124480000001</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0.70579583999999995</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0.44287196159999997</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0.4028410368</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0.42319088640000002</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0.54228049919999999</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0.35153648640000001</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0.51385758719999997</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.56888816639999995</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0.31102786560000001</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>0.29903769600000002</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>0.60581406719999997</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>0.2781623808</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0.2700893184</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0.2607264768</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>0.2573348352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="10">
+        <v>11.035732992</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8.0439707136000003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.1314016255999997</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2.7921331199999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.1166232063999999</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.7393389055999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.536748032</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.1661037056000001</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.1001816576000001</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1.0291004928</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.89118965760000002</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.73956894719999999</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.68492052479999999</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.62143472639999997</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.79459952639999998</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0.54562437119999996</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0.50315719680000004</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.49427205120000001</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.45643852800000001</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0.45256919039999999</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0.40494289919999998</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0.40823900159999998</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0.36768261120000001</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0.59133987840000002</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.33677568000000002</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.32320911359999999</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0.3120787968</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>0.29975424000000001</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>0.29789122559999998</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>0.65845616640000004</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0.269659392</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>0.26058316799999998</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>0.25303557119999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10">
+        <v>11.035732992</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8.0352288767999998</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.1124370943999997</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.8475936256000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2.0433446399999999</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.766519808</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.4616064512</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1.3092214272</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.0047857663999999</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.92075903999999997</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.91345029119999999</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.80835717119999995</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.68788223999999998</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.62272450560000003</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0.57657907200000003</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.54586321920000003</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0.67952256</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.62501744640000001</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0.45744168959999998</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0.4433496576</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0.40546836479999998</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0.3932871168</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0.36763484159999998</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>0.35994393600000002</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>0.34494428160000001</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.32277918719999998</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0.59879193600000002</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>0.29946762240000002</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>0.28828953600000001</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>0.27926108160000002</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0.26932500479999999</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0.27868784639999999</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>0.32263587840000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10">
+        <v>11.0345865216</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8.0369963519999992</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.1308761599999997</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.768964864</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2.0852385791999999</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.8006273023999999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.4505716736000001</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1.1956253184000001</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1.0895768064</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.98171304960000005</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.9108229632</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.74061987839999999</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0.67617868800000003</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.61899847679999997</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.79574599680000002</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.53721692160000001</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0.65281935359999999</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1.4122604543999999</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.7248081408</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0.69203819519999998</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.40298434560000002</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.3932871168</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0.36663168000000002</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0.35898854400000002</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>0.33639352319999999</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>0.32354350079999999</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0.31050240000000001</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0.29865553919999999</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>0.30625090560000001</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>0.45624744960000002</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.269659392</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0.71066833920000005</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>0.25427758080000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10">
+        <v>11.038455859200001</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8.0241940992000007</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.2332464127999998</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.7863052287999999</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2.1197282303999998</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.7788921343999999</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.4386292735999999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1.1758009344</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1.005072384</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1.0409951232000001</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.99217459200000002</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.73976002559999998</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0.86123811839999997</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.62057487359999997</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0.57581475839999996</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.53807677440000001</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0.74821524480000001</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0.71592299520000002</v>
+      </c>
+      <c r="T17" s="10">
+        <v>0.79808670719999997</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0.62883901440000001</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0.403175424</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0.38540513279999999</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0.73197358079999997</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>0.35096325119999999</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>0.42467174400000002</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>0.36366996480000002</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0.31948308479999998</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0.3002797056</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>0.55470059520000004</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>0.28723860480000002</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>0.26932500479999999</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>0.261060864</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>0.25260564479999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10">
+        <f>AVERAGE(B13:B17)</f>
+        <v>11.037146972159999</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
+        <v>8.0472477081600005</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1346690662399999</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8025946623999998</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0942670336</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.77434446848</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4814499430399999</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2272965631999999</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.04250464256</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97875133440000006</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.92357744640000017</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.78326857727999999</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.71685927936000005</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.62229457919999986</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.69357637632000002</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.54250023936000003</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61746029568000005</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.74539683840000004</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.62851418112000002</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.53193360383999999</v>
+      </c>
+      <c r="V18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.40388241408000003</v>
+      </c>
+      <c r="W18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.40068185088000002</v>
+      </c>
+      <c r="X18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.47524064256000004</v>
+      </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.40255441920000001</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.39132856319999998</v>
+      </c>
+      <c r="AA18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38041798656000003</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37037681664000005</v>
+      </c>
+      <c r="AC18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29943896063999997</v>
+      </c>
+      <c r="AD18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.41058926592</v>
+      </c>
+      <c r="AE18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.39187313664000001</v>
+      </c>
+      <c r="AF18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26961162240000003</v>
+      </c>
+      <c r="AG18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35434533888000003</v>
+      </c>
+      <c r="AH18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26797790208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -11886,7 +14258,7 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -11894,7 +14266,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -11935,7 +14307,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -12110,958 +14482,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10">
-        <v>11.041226496</v>
-      </c>
-      <c r="C13" s="10">
-        <v>8.0958484992000006</v>
-      </c>
-      <c r="D13" s="10">
-        <v>4.0653840384000004</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2.8179764735999999</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2.106400512</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1.7863441920000001</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.5196942847999999</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1.2897314304</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1.0129065984000001</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.92118896640000003</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.91024972800000004</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0.88803686400000004</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0.67407682560000004</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0.62774031360000004</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0.72514252800000001</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0.54571991040000001</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0.50358712319999999</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0.47951124480000001</v>
-      </c>
-      <c r="T13" s="10">
-        <v>0.70579583999999995</v>
-      </c>
-      <c r="U13" s="10">
-        <v>0.44287196159999997</v>
-      </c>
-      <c r="V13" s="10">
-        <v>0.4028410368</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0.42319088640000002</v>
-      </c>
-      <c r="X13" s="10">
-        <v>0.54228049919999999</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>0.35153648640000001</v>
-      </c>
-      <c r="Z13" s="10">
-        <v>0.51385758719999997</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>0.56888816639999995</v>
-      </c>
-      <c r="AB13" s="10">
-        <v>0.31102786560000001</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>0.29903769600000002</v>
-      </c>
-      <c r="AD13" s="10">
-        <v>0.60581406719999997</v>
-      </c>
-      <c r="AE13" s="10">
-        <v>0.2781623808</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>0.2700893184</v>
-      </c>
-      <c r="AG13" s="10">
-        <v>0.2607264768</v>
-      </c>
-      <c r="AH13" s="10">
-        <v>0.2573348352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="10">
-        <v>11.035732992</v>
-      </c>
-      <c r="C14" s="10">
-        <v>8.0439707136000003</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4.1314016255999997</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2.7921331199999999</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2.1166232063999999</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1.7393389055999999</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1.536748032</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1.1661037056000001</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1.1001816576000001</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1.0291004928</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.89118965760000002</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.73956894719999999</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.68492052479999999</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.62143472639999997</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.79459952639999998</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0.54562437119999996</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0.50315719680000004</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0.49427205120000001</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0.45643852800000001</v>
-      </c>
-      <c r="U14" s="10">
-        <v>0.45256919039999999</v>
-      </c>
-      <c r="V14" s="10">
-        <v>0.40494289919999998</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0.40823900159999998</v>
-      </c>
-      <c r="X14" s="10">
-        <v>0.36768261120000001</v>
-      </c>
-      <c r="Y14" s="10">
-        <v>0.59133987840000002</v>
-      </c>
-      <c r="Z14" s="10">
-        <v>0.33677568000000002</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>0.32320911359999999</v>
-      </c>
-      <c r="AB14" s="10">
-        <v>0.3120787968</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>0.29975424000000001</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>0.29789122559999998</v>
-      </c>
-      <c r="AE14" s="10">
-        <v>0.65845616640000004</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>0.269659392</v>
-      </c>
-      <c r="AG14" s="10">
-        <v>0.26058316799999998</v>
-      </c>
-      <c r="AH14" s="10">
-        <v>0.25303557119999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10">
-        <v>11.035732992</v>
-      </c>
-      <c r="C15" s="10">
-        <v>8.0352288767999998</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4.1124370943999997</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.8475936256000001</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2.0433446399999999</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1.766519808</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1.4616064512</v>
-      </c>
-      <c r="I15" s="10">
-        <v>1.3092214272</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1.0047857663999999</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.92075903999999997</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.91345029119999999</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.80835717119999995</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.68788223999999998</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.62272450560000003</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.57657907200000003</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0.54586321920000003</v>
-      </c>
-      <c r="R15" s="10">
-        <v>0.67952256</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0.62501744640000001</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0.45744168959999998</v>
-      </c>
-      <c r="U15" s="10">
-        <v>0.4433496576</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0.40546836479999998</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0.3932871168</v>
-      </c>
-      <c r="X15" s="10">
-        <v>0.36763484159999998</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>0.35994393600000002</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>0.34494428160000001</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>0.32277918719999998</v>
-      </c>
-      <c r="AB15" s="10">
-        <v>0.59879193600000002</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>0.29946762240000002</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>0.28828953600000001</v>
-      </c>
-      <c r="AE15" s="10">
-        <v>0.27926108160000002</v>
-      </c>
-      <c r="AF15" s="10">
-        <v>0.26932500479999999</v>
-      </c>
-      <c r="AG15" s="10">
-        <v>0.27868784639999999</v>
-      </c>
-      <c r="AH15" s="10">
-        <v>0.32263587840000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10">
-        <v>11.0345865216</v>
-      </c>
-      <c r="C16" s="10">
-        <v>8.0369963519999992</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4.1308761599999997</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2.768964864</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2.0852385791999999</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1.8006273023999999</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1.4505716736000001</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1.1956253184000001</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1.0895768064</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0.98171304960000005</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.9108229632</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.74061987839999999</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.67617868800000003</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0.61899847679999997</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.79574599680000002</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0.53721692160000001</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0.65281935359999999</v>
-      </c>
-      <c r="S16" s="10">
-        <v>1.4122604543999999</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0.7248081408</v>
-      </c>
-      <c r="U16" s="10">
-        <v>0.69203819519999998</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0.40298434560000002</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.3932871168</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0.36663168000000002</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>0.35898854400000002</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>0.33639352319999999</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>0.32354350079999999</v>
-      </c>
-      <c r="AB16" s="10">
-        <v>0.31050240000000001</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0.29865553919999999</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>0.30625090560000001</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>0.45624744960000002</v>
-      </c>
-      <c r="AF16" s="10">
-        <v>0.269659392</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>0.71066833920000005</v>
-      </c>
-      <c r="AH16" s="10">
-        <v>0.25427758080000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10">
-        <v>11.038455859200001</v>
-      </c>
-      <c r="C17" s="10">
-        <v>8.0241940992000007</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4.2332464127999998</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.7863052287999999</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2.1197282303999998</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.7788921343999999</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1.4386292735999999</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1.1758009344</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1.005072384</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1.0409951232000001</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.99217459200000002</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.73976002559999998</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.86123811839999997</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0.62057487359999997</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.57581475839999996</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>0.53807677440000001</v>
-      </c>
-      <c r="R17" s="10">
-        <v>0.74821524480000001</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0.71592299520000002</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0.79808670719999997</v>
-      </c>
-      <c r="U17" s="10">
-        <v>0.62883901440000001</v>
-      </c>
-      <c r="V17" s="10">
-        <v>0.403175424</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0.38540513279999999</v>
-      </c>
-      <c r="X17" s="10">
-        <v>0.73197358079999997</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>0.35096325119999999</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>0.42467174400000002</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>0.36366996480000002</v>
-      </c>
-      <c r="AB17" s="10">
-        <v>0.31948308479999998</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>0.3002797056</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>0.55470059520000004</v>
-      </c>
-      <c r="AE17" s="10">
-        <v>0.28723860480000002</v>
-      </c>
-      <c r="AF17" s="10">
-        <v>0.26932500479999999</v>
-      </c>
-      <c r="AG17" s="10">
-        <v>0.261060864</v>
-      </c>
-      <c r="AH17" s="10">
-        <v>0.25260564479999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
-        <f>AVERAGE(B13:B17)</f>
-        <v>11.037146972159999</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" ref="C18:AH18" si="1">AVERAGE(C13:C17)</f>
-        <v>8.0472477081600005</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1346690662399999</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="1"/>
-        <v>2.8025946623999998</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0942670336</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.77434446848</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4814499430399999</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.2272965631999999</v>
-      </c>
-      <c r="J18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.04250464256</v>
-      </c>
-      <c r="K18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.97875133440000006</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.92357744640000017</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.78326857727999999</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.71685927936000005</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.62229457919999986</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.69357637632000002</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.54250023936000003</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.61746029568000005</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.74539683840000004</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.62851418112000002</v>
-      </c>
-      <c r="U18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.53193360383999999</v>
-      </c>
-      <c r="V18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.40388241408000003</v>
-      </c>
-      <c r="W18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.40068185088000002</v>
-      </c>
-      <c r="X18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.47524064256000004</v>
-      </c>
-      <c r="Y18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.40255441920000001</v>
-      </c>
-      <c r="Z18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.39132856319999998</v>
-      </c>
-      <c r="AA18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38041798656000003</v>
-      </c>
-      <c r="AB18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.37037681664000005</v>
-      </c>
-      <c r="AC18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.29943896063999997</v>
-      </c>
-      <c r="AD18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.41058926592</v>
-      </c>
-      <c r="AE18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.39187313664000001</v>
-      </c>
-      <c r="AF18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.26961162240000003</v>
-      </c>
-      <c r="AG18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.35434533888000003</v>
-      </c>
-      <c r="AH18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.26797790208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH31"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="I8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>C12+1</f>
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:AH12" si="0">D12+1</f>
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -13165,7 +14586,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>27.414447974400002</v>
       </c>
@@ -14010,7 +15431,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -14114,7 +15535,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>7.0281979392</v>
       </c>
@@ -14961,7 +16382,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -15065,7 +16486,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>5.3348133887999998</v>
       </c>
@@ -15912,7 +17333,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10">
@@ -16016,7 +17437,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>22.0685520384</v>
       </c>
@@ -16624,7 +18045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16863,7 +18286,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -16942,7 +18365,7 @@
       <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3">
         <v>502.24551398400001</v>
       </c>
